--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3143FBE4-8BDD-4F5F-93EA-BF57EDD5A12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5696F11-875F-4D49-82B8-25AF5B8E21A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
@@ -1234,10 +1234,10 @@
   <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5696F11-875F-4D49-82B8-25AF5B8E21A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742BC00-9A00-4046-AD48-AB2BCB7E4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="248">
-  <si>
-    <t>x</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="248">
   <si>
     <t>R</t>
   </si>
@@ -765,34 +769,40 @@
     <t>AVXL</t>
   </si>
   <si>
-    <t>SAVA</t>
-  </si>
-  <si>
     <t>Anavex Life Sciences</t>
   </si>
   <si>
-    <t>Cassava Sciences</t>
-  </si>
-  <si>
     <t>Sarepta Therapeutics</t>
   </si>
   <si>
     <t>SRPT</t>
   </si>
   <si>
-    <t>Inmune Bio</t>
-  </si>
-  <si>
-    <t>INMB</t>
-  </si>
-  <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>CRDF</t>
+  </si>
+  <si>
+    <t>Cardiff Oncology</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>ABVX</t>
+  </si>
+  <si>
+    <t>Abivax SA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -829,13 +839,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -863,6 +874,182 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Literature"/>
+      <sheetName val="IP"/>
+      <sheetName val="Trials"/>
+      <sheetName val="GLP-1s"/>
+      <sheetName val="Mounjaro-Zepbound"/>
+      <sheetName val="Trulicity"/>
+      <sheetName val="Kisunla"/>
+      <sheetName val="orforglipron"/>
+      <sheetName val="retratrutide"/>
+      <sheetName val="imlunestrant"/>
+      <sheetName val="lebrikizumab"/>
+      <sheetName val="lepodisiran"/>
+      <sheetName val="mirikizumab"/>
+      <sheetName val="olomorasib"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="K4">
+            <v>947.73500000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>3220</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>38515</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="K8">
+            <v>803908.08499999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="AD29">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AD30">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AD31">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AD32">
+            <v>746543.52415987698</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Literature"/>
+      <sheetName val="IP"/>
+      <sheetName val="rinvoq"/>
+      <sheetName val="skyrizi"/>
+      <sheetName val="ubrelvy"/>
+      <sheetName val="quilipta"/>
+      <sheetName val="vraylar"/>
+      <sheetName val="epkinly"/>
+      <sheetName val="elahere"/>
+      <sheetName val="venclexta"/>
+      <sheetName val="ABBV-113"/>
+      <sheetName val="temab-a"/>
+      <sheetName val="etentamig"/>
+      <sheetName val="tavapadon"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>1766.4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>5176</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>72471</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>411743</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="38">
+          <cell r="AC38">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AC39">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AC40">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AC41">
+            <v>416521.27804997418</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -909,6 +1096,334 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>1243.9290000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>7926</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>25011</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>157648.97700000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="89">
+          <cell r="AA89">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="AA90">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="AA91">
+            <v>8.5000000000000006E-2</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="AA92">
+            <v>150356.31716833118</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="golcadomide"/>
+      <sheetName val="BMS-986365"/>
+      <sheetName val="iberdomide"/>
+      <sheetName val="obexlimab"/>
+      <sheetName val="milvexian"/>
+      <sheetName val="admilparant"/>
+      <sheetName val="Matrix"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2035.08</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>11782</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>50910</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>128671.51999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="45">
+          <cell r="Y45">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="Y46">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Y47">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Y48">
+            <v>104952.78625217403</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Literature"/>
+      <sheetName val="IP"/>
+      <sheetName val="SIGMAR1"/>
+      <sheetName val="blarcamesine"/>
+      <sheetName val="ANAVEX2-73-AD-004"/>
+      <sheetName val="ATTENTION-AD"/>
+      <sheetName val="Supplemental"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>85.372</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>115.771</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>1028.2138</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="K11">
+            <v>95.771000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="R6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="R7">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="R8">
+            <v>0.09</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="IP"/>
+      <sheetName val="Literature"/>
+      <sheetName val="elevidys"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>98.277000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>522.70000000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1717.16</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>2766.8919999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="15">
+          <cell r="X15">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="X16">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="X17">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="X18">
+            <v>8323.8042332358727</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="PLK1"/>
+      <sheetName val="Literature"/>
+      <sheetName val="onvansertib"/>
+      <sheetName val="competitors"/>
+      <sheetName val="CRDF-004"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="K4">
+            <v>66.525999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="K8">
+            <v>76.357200000000006</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>40</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1231,13 +1746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BA3935-C65F-4820-824F-2092D9DD7675}">
-  <dimension ref="A1:R134"/>
+  <dimension ref="B1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H108" sqref="H108"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1247,110 +1762,199 @@
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="8" max="8" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D2">
-        <f ca="1">RANDBETWEEN(1,D126)</f>
-        <v>87</v>
-      </c>
-      <c r="H2" s="3">
+        <f ca="1">RANDBETWEEN(1,D123)</f>
+        <v>113</v>
+      </c>
+      <c r="H2" s="2">
         <f>SUM(H4:H1048576)</f>
-        <v>211202.81740999999</v>
-      </c>
-      <c r="N2" s="5">
+        <v>1497775.9716</v>
+      </c>
+      <c r="N2" s="3">
         <f>AVERAGE(N4:N1048576)</f>
-        <v>0.30400591090244866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.44251801320658019</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>762</v>
+      </c>
+      <c r="H4" s="2">
+        <f>G4*L4</f>
+        <v>722174.07000000007</v>
+      </c>
+      <c r="I4" s="2">
+        <f>[1]Main!$K$6-[1]Main!$K$7</f>
+        <v>-35295</v>
+      </c>
+      <c r="J4" s="2">
+        <f>[1]Main!$K$8</f>
+        <v>803908.08499999996</v>
+      </c>
+      <c r="K4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" s="2">
+        <f>[1]Main!$K$4</f>
+        <v>947.73500000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <f>[1]Model!$AD$32</f>
+        <v>746543.52415987698</v>
+      </c>
+      <c r="N4" s="3">
+        <f>(M4/L4)/G4-1</f>
+        <v>3.3744570972863874E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <f>[1]Model!$AD$29</f>
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="3">
+        <f>[1]Model!$AD$30</f>
+        <v>-0.01</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>[1]Model!$AD$31</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D5">
-        <v>1</v>
+        <f>D4+1</f>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3">
-        <f>G5*L5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D6">
-        <f>D5+1</f>
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+        <f t="shared" ref="D6:D70" si="0">D5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <v>195</v>
+      </c>
+      <c r="H6" s="2">
+        <f>G6*L6</f>
+        <v>344448</v>
+      </c>
+      <c r="I6" s="2">
+        <f>[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>-67295</v>
+      </c>
+      <c r="J6" s="2">
+        <f>[2]Main!$K$7</f>
+        <v>411743</v>
+      </c>
+      <c r="K6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6" s="2">
+        <f>[2]Main!$K$3</f>
+        <v>1766.4</v>
+      </c>
+      <c r="M6" s="2">
+        <f>[2]Model!$AC$41</f>
+        <v>416521.27804997418</v>
+      </c>
+      <c r="N6" s="3">
+        <f>(M6/L6)/G6-1</f>
+        <v>0.20924284086414824</v>
+      </c>
+      <c r="O6" s="3">
+        <f>[2]Model!$AC$38</f>
+        <v>0.02</v>
+      </c>
+      <c r="P6" s="3">
+        <f>[2]Model!$AC$39</f>
+        <v>-0.01</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>[2]Model!$AC$40</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7">
-        <f t="shared" ref="D7:D71" si="0">D6+1</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1359,10 +1963,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1371,10 +1975,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1383,10 +1987,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -1395,192 +1999,268 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G11" s="4">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11*L11</f>
+        <v>198371.44899999999</v>
+      </c>
+      <c r="I11" s="2">
+        <f>[3]Main!$P$5-[3]Main!$P$6</f>
+        <v>-32320</v>
+      </c>
+      <c r="J11" s="2">
+        <f>[3]Main!$P$7</f>
+        <v>235713.511</v>
+      </c>
+      <c r="K11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="2">
+        <f>[3]Main!$P$3</f>
+        <v>2511.0309999999999</v>
+      </c>
+      <c r="M11" s="2">
+        <f>[3]Model!$AA$42</f>
+        <v>275409.72230189055</v>
+      </c>
+      <c r="N11" s="3">
+        <f>(M11/L11)/G11-1</f>
+        <v>0.3883536350127208</v>
+      </c>
+      <c r="O11" s="3">
+        <f>[3]Model!$AA$39</f>
+        <v>0.02</v>
+      </c>
+      <c r="P11" s="3">
+        <f>[3]Model!$AA$40</f>
+        <v>-0.01</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>[3]Model!$AA$41</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
       </c>
       <c r="F12" t="s">
         <v>122</v>
       </c>
-      <c r="G12">
-        <v>84.11</v>
-      </c>
-      <c r="H12" s="3">
-        <f>G12*L12</f>
-        <v>211202.81740999999</v>
-      </c>
-      <c r="I12" s="3">
-        <f>[1]Main!$P$5-[1]Main!$P$6</f>
-        <v>-32320</v>
-      </c>
-      <c r="J12" s="3">
-        <f>[1]Main!$P$7</f>
-        <v>235713.511</v>
-      </c>
-      <c r="K12" t="s">
-        <v>247</v>
-      </c>
-      <c r="L12" s="3">
-        <f>[1]Main!$P$3</f>
-        <v>2511.0309999999999</v>
-      </c>
-      <c r="M12" s="3">
-        <f>[1]Model!$AA$42</f>
-        <v>275409.72230189055</v>
-      </c>
-      <c r="N12" s="5">
-        <f>(M12/L12)/G12-1</f>
-        <v>0.30400591090244866</v>
-      </c>
-      <c r="O12" s="4">
-        <f>[1]Model!$AA$39</f>
-        <v>0.02</v>
-      </c>
-      <c r="P12" s="4">
-        <f>[1]Model!$AA$40</f>
-        <v>-0.01</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>[1]Model!$AA$41</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" s="4">
+        <v>113</v>
+      </c>
+      <c r="H15" s="2">
+        <f>G15*L15</f>
+        <v>140563.97700000001</v>
+      </c>
+      <c r="I15" s="2">
+        <f>[4]Main!$M$5-[4]Main!$M$6</f>
+        <v>-17085</v>
+      </c>
+      <c r="J15" s="2">
+        <f>[4]Main!$M$7</f>
+        <v>157648.97700000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="2">
+        <f>[4]Main!$M$3</f>
+        <v>1243.9290000000001</v>
+      </c>
+      <c r="M15" s="2">
+        <f>[4]Model!$AA$92</f>
+        <v>150356.31716833118</v>
+      </c>
+      <c r="N15" s="3">
+        <f>(M15/L15)/G15-1</f>
+        <v>6.9664649345622554E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <f>[4]Model!$AA$89</f>
+        <v>0.02</v>
+      </c>
+      <c r="P15" s="3">
+        <f>[4]Model!$AA$90</f>
+        <v>-0.01</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>[4]Model!$AA$91</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="3">
-        <f>G16*L16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="4">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2">
+        <f>G18*L18</f>
+        <v>89543.51999999999</v>
+      </c>
+      <c r="I18" s="2">
+        <f>[5]Main!$L$5-[5]Main!$L$6</f>
+        <v>-39128</v>
+      </c>
+      <c r="J18" s="2">
+        <f>[5]Main!$L$7</f>
+        <v>128671.51999999999</v>
+      </c>
+      <c r="K18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="2">
+        <f>[5]Main!$L$3</f>
+        <v>2035.08</v>
+      </c>
+      <c r="M18" s="2">
+        <f>[5]Model!$Y$48</f>
+        <v>104952.78625217403</v>
+      </c>
+      <c r="N18" s="3">
+        <f>(M18/L18)/G18-1</f>
+        <v>0.17208689419596235</v>
+      </c>
+      <c r="O18" s="3">
+        <f>[5]Model!$Y$45</f>
+        <v>0.02</v>
+      </c>
+      <c r="P18" s="3">
+        <f>[5]Model!$Y$46</f>
+        <v>-0.01</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>[5]Model!$Y$47</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="3">
-        <f>G19*L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -1589,34 +2269,34 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
       </c>
       <c r="F23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>48</v>
@@ -1625,10 +2305,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>49</v>
@@ -1637,10 +2317,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
@@ -1649,10 +2329,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
@@ -1661,10 +2341,10 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
@@ -1673,34 +2353,34 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
         <v>55</v>
@@ -1712,7 +2392,7 @@
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>56</v>
@@ -1724,7 +2404,7 @@
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
         <v>57</v>
@@ -1736,7 +2416,7 @@
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -1748,19 +2428,19 @@
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
         <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
         <v>60</v>
@@ -1772,7 +2452,7 @@
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
@@ -1784,10 +2464,10 @@
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
         <v>145</v>
@@ -1796,10 +2476,10 @@
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
         <v>146</v>
@@ -1808,19 +2488,19 @@
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
         <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
         <v>64</v>
@@ -1832,7 +2512,7 @@
     <row r="43" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
         <v>65</v>
@@ -1844,7 +2524,7 @@
     <row r="44" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
         <v>66</v>
@@ -1856,7 +2536,7 @@
     <row r="45" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
         <v>67</v>
@@ -1868,7 +2548,7 @@
     <row r="46" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
@@ -1880,7 +2560,7 @@
     <row r="47" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
         <v>69</v>
@@ -1892,7 +2572,7 @@
     <row r="48" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>70</v>
@@ -1904,34 +2584,34 @@
     <row r="49" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
         <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
         <v>157</v>
@@ -1940,7 +2620,7 @@
     <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
         <v>73</v>
@@ -1952,7 +2632,7 @@
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
         <v>74</v>
@@ -1964,7 +2644,7 @@
     <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
         <v>75</v>
@@ -1976,31 +2656,31 @@
     <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
         <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
         <v>79</v>
@@ -2012,7 +2692,7 @@
     <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
         <v>80</v>
@@ -2024,7 +2704,7 @@
     <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
         <v>81</v>
@@ -2036,7 +2716,7 @@
     <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
         <v>82</v>
@@ -2048,7 +2728,7 @@
     <row r="61" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
         <v>83</v>
@@ -2060,7 +2740,7 @@
     <row r="62" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
         <v>84</v>
@@ -2072,7 +2752,7 @@
     <row r="63" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
         <v>85</v>
@@ -2084,7 +2764,7 @@
     <row r="64" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
         <v>86</v>
@@ -2096,7 +2776,7 @@
     <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
         <v>87</v>
@@ -2108,31 +2788,31 @@
     <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
         <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D67">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
         <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D68">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
         <v>90</v>
@@ -2144,7 +2824,7 @@
     <row r="69" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D69">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
         <v>91</v>
@@ -2156,7 +2836,7 @@
     <row r="70" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D70">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
         <v>92</v>
@@ -2167,8 +2847,8 @@
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D71">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f t="shared" ref="D71:D131" si="1">D70+1</f>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
         <v>93</v>
@@ -2179,8 +2859,8 @@
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D72">
-        <f t="shared" ref="D72:D135" si="1">D71+1</f>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
         <v>94</v>
@@ -2192,7 +2872,7 @@
     <row r="73" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" t="s">
         <v>95</v>
@@ -2204,7 +2884,7 @@
     <row r="74" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
         <v>96</v>
@@ -2216,7 +2896,7 @@
     <row r="75" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
         <v>97</v>
@@ -2228,7 +2908,7 @@
     <row r="76" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
         <v>98</v>
@@ -2240,7 +2920,7 @@
     <row r="77" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D77">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
         <v>99</v>
@@ -2252,7 +2932,7 @@
     <row r="78" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
         <v>100</v>
@@ -2264,7 +2944,7 @@
     <row r="79" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
         <v>101</v>
@@ -2276,7 +2956,7 @@
     <row r="80" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E80" t="s">
         <v>102</v>
@@ -2288,7 +2968,7 @@
     <row r="81" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
         <v>103</v>
@@ -2300,70 +2980,70 @@
     <row r="82" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
         <v>104</v>
       </c>
       <c r="F82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
         <v>105</v>
       </c>
       <c r="F83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
         <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="F85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D86">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E87" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F87" t="s">
         <v>193</v>
@@ -2372,19 +3052,19 @@
     <row r="88" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D88">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
         <v>195</v>
       </c>
       <c r="F88" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D89">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E89" t="s">
         <v>196</v>
@@ -2396,7 +3076,7 @@
     <row r="90" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D90">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E90" t="s">
         <v>197</v>
@@ -2408,7 +3088,7 @@
     <row r="91" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D91">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E91" t="s">
         <v>198</v>
@@ -2420,7 +3100,7 @@
     <row r="92" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
         <v>199</v>
@@ -2432,7 +3112,7 @@
     <row r="93" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D93">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
         <v>200</v>
@@ -2444,7 +3124,7 @@
     <row r="94" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
         <v>201</v>
@@ -2456,7 +3136,7 @@
     <row r="95" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
         <v>202</v>
@@ -2468,7 +3148,7 @@
     <row r="96" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D96">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
         <v>203</v>
@@ -2477,10 +3157,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D97">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
         <v>204</v>
@@ -2489,10 +3169,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D98">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E98" t="s">
         <v>205</v>
@@ -2501,22 +3181,22 @@
         <v>237</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D99">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E99" t="s">
         <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D100">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
         <v>207</v>
@@ -2525,34 +3205,34 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E101" t="s">
         <v>208</v>
       </c>
       <c r="F101" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E102" t="s">
         <v>209</v>
       </c>
       <c r="F102" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" t="s">
         <v>210</v>
@@ -2561,264 +3241,366 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D104">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E104" t="s">
         <v>211</v>
       </c>
       <c r="F104" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D105">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E105" t="s">
         <v>212</v>
       </c>
       <c r="F105" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D106">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E106" t="s">
         <v>213</v>
       </c>
       <c r="F106" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D107">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E107" t="s">
         <v>214</v>
       </c>
       <c r="F107" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D108">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
         <v>215</v>
       </c>
       <c r="F108" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D109">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E109" t="s">
         <v>216</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D110">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="E110" t="s">
-        <v>217</v>
+        <v>107</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="F110" t="s">
+        <v>238</v>
+      </c>
+      <c r="G110" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="H110" s="2">
+        <f>G110*L110</f>
+        <v>956.16639999999995</v>
+      </c>
+      <c r="I110" s="2">
+        <f>[6]Main!$K$5-[6]Main!$K$6</f>
+        <v>115.771</v>
+      </c>
+      <c r="J110" s="2">
+        <f>[6]Main!$K$7</f>
+        <v>1028.2138</v>
+      </c>
+      <c r="K110" t="s">
+        <v>245</v>
+      </c>
+      <c r="L110" s="2">
+        <f>[6]Main!$K$3</f>
+        <v>85.372</v>
+      </c>
+      <c r="M110" s="2">
+        <f>[6]Main!$K$11</f>
+        <v>95.771000000000001</v>
+      </c>
+      <c r="N110" s="3">
+        <f>(M110/L110)/G110-1</f>
+        <v>-0.89983856366423254</v>
+      </c>
+      <c r="O110" s="3">
+        <f>[6]Model!$R$6</f>
+        <v>0.02</v>
+      </c>
+      <c r="P110" s="3">
+        <f>[6]Model!$R$7</f>
+        <v>-0.01</v>
+      </c>
+      <c r="Q110" s="3">
+        <f>[6]Model!$R$8</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="111" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <f>D110+1</f>
+        <v>108</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F111" t="s">
+        <v>241</v>
+      </c>
+      <c r="G111" s="4">
+        <v>16</v>
+      </c>
+      <c r="H111" s="2">
+        <f>G111*L111</f>
+        <v>1572.432</v>
+      </c>
+      <c r="I111" s="2">
+        <f>[7]Main!$K$5-[7]Main!$K$6</f>
+        <v>-1194.46</v>
+      </c>
+      <c r="J111" s="2">
+        <f>[7]Main!$K$7</f>
+        <v>2766.8919999999998</v>
+      </c>
+      <c r="K111" t="s">
+        <v>242</v>
+      </c>
+      <c r="L111" s="2">
+        <f>[7]Main!$K$3</f>
+        <v>98.277000000000001</v>
+      </c>
+      <c r="M111" s="2">
+        <f>[7]Model!$X$18</f>
+        <v>8323.8042332358727</v>
+      </c>
+      <c r="N111" s="3">
+        <f>(M111/L111)/G111-1</f>
+        <v>4.2935861348763398</v>
+      </c>
+      <c r="O111" s="3">
+        <f>[7]Model!$X$15</f>
+        <v>0.02</v>
+      </c>
+      <c r="P111" s="3">
+        <f>[7]Model!$X$16</f>
+        <v>-0.01</v>
+      </c>
+      <c r="Q111" s="3">
+        <f>[7]Model!$X$17</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="112" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f>D111+1</f>
+        <v>109</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F112" t="s">
+        <v>243</v>
+      </c>
+      <c r="G112" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H112" s="2">
+        <f>G112*L112</f>
+        <v>146.35720000000001</v>
+      </c>
+      <c r="I112" s="2">
+        <f>[8]Main!$K$6-[8]Main!$K$7</f>
+        <v>70</v>
+      </c>
+      <c r="J112" s="2">
+        <f>[8]Main!$K$8</f>
+        <v>76.357200000000006</v>
+      </c>
+      <c r="K112" t="s">
+        <v>245</v>
+      </c>
+      <c r="L112" s="2">
+        <f>[8]Main!$K$4</f>
+        <v>66.525999999999996</v>
+      </c>
+      <c r="M112" s="2">
+        <f>[8]Main!$N$9</f>
+        <v>40</v>
+      </c>
+      <c r="N112" s="3">
+        <f>(M112/L112)/G112-1</f>
+        <v>-0.72669605595078346</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E113" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" t="s">
+        <v>246</v>
+      </c>
+      <c r="G113" s="4">
+        <v>61.2</v>
+      </c>
+      <c r="H113" s="2">
+        <f>G113*L113</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D111">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F111" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D112">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="E112" t="s">
-        <v>242</v>
-      </c>
-      <c r="F112" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D113">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F113" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D114">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="E114" t="s">
-        <v>245</v>
-      </c>
-      <c r="F114" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D115">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D116">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D117">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D118">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D119">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D120">
         <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D121">
         <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D122">
         <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D123">
         <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D124">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D125">
         <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D126">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D127">
         <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D128">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131">
         <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D132">
-        <f t="shared" si="1"/>
         <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D133">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D134">
-        <f t="shared" si="1"/>
-        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E111" r:id="rId1" xr:uid="{61616ED4-032A-4343-917B-1F49732B0233}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{13D529A0-E143-4F0B-8F40-8AAB6F58F861}"/>
-    <hyperlink ref="E16" r:id="rId3" xr:uid="{A0AD2EBF-D3C4-489D-BB55-088E687CB476}"/>
-    <hyperlink ref="E19" r:id="rId4" xr:uid="{47A7E29E-B205-45ED-BDE7-4B41D5464130}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{D399F4A0-DA62-40ED-8CAD-669F8BFD1E14}"/>
+    <hyperlink ref="E112" r:id="rId2" display="CRDF.xlsx" xr:uid="{302536EA-C7C3-4334-9C0C-02276CC95A18}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{7918E348-FA13-4616-93E0-DC4AEB739892}"/>
+    <hyperlink ref="E18" r:id="rId4" xr:uid="{56E9697C-0CDA-43F5-B4D8-BBFCD69FA55C}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{28909E0C-113B-4769-9B3B-DE3A0F0CBF3A}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{1B5EC1C5-D4FE-4909-8E08-9F255BE6AAC3}"/>
+    <hyperlink ref="E110" r:id="rId7" xr:uid="{0C7DF959-DEE9-40DE-A923-1865C8861848}"/>
+    <hyperlink ref="E111" r:id="rId8" xr:uid="{7DDA4514-7690-4C3C-8E24-54A3E69AA25E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2842,36 +3624,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2919,7 +3701,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +3730,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742BC00-9A00-4046-AD48-AB2BCB7E4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8937A0E2-FEFA-40A7-97EE-02F8BD350424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="248">
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -1050,30 +1044,12 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="IP"/>
+      <sheetName val="Literature"/>
+      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="P3">
-            <v>2511.0309999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="P5">
-            <v>9228</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6">
-            <v>41548</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="P7">
-            <v>235713.511</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="39">
           <cell r="AA39">
@@ -1096,6 +1072,9 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1223,13 +1202,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1746,47 +1725,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BA3935-C65F-4820-824F-2092D9DD7675}">
-  <dimension ref="B1:R131"/>
+  <dimension ref="B1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D2">
-        <f ca="1">RANDBETWEEN(1,D123)</f>
-        <v>113</v>
-      </c>
-      <c r="H2" s="2">
-        <f>SUM(H4:H1048576)</f>
-        <v>1497775.9716</v>
-      </c>
-      <c r="N2" s="3">
-        <f>AVERAGE(N4:N1048576)</f>
-        <v>0.44251801320658019</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(1,B123)</f>
+        <v>71</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM(F4:F1048576)</f>
+        <v>1299404.5226</v>
+      </c>
+      <c r="L2" s="3" t="e">
+        <f>AVERAGE(L4:L1048576)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1825,1782 +1803,1776 @@
       <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="4">
         <v>762</v>
       </c>
-      <c r="H4" s="2">
-        <f>G4*L4</f>
+      <c r="F4" s="2">
+        <f>E4*J4</f>
         <v>722174.07000000007</v>
       </c>
-      <c r="I4" s="2">
+      <c r="G4" s="2">
         <f>[1]Main!$K$6-[1]Main!$K$7</f>
         <v>-35295</v>
       </c>
-      <c r="J4" s="2">
+      <c r="H4" s="2">
         <f>[1]Main!$K$8</f>
         <v>803908.08499999996</v>
       </c>
-      <c r="K4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="I4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="2">
         <f>[1]Main!$K$4</f>
         <v>947.73500000000001</v>
       </c>
-      <c r="M4" s="2">
+      <c r="K4" s="2">
         <f>[1]Model!$AD$32</f>
         <v>746543.52415987698</v>
       </c>
-      <c r="N4" s="3">
-        <f>(M4/L4)/G4-1</f>
+      <c r="L4" s="3">
+        <f>(K4/J4)/E4-1</f>
         <v>3.3744570972863874E-2</v>
       </c>
-      <c r="O4" s="3">
+      <c r="M4" s="3">
         <f>[1]Model!$AD$29</f>
         <v>0.02</v>
       </c>
-      <c r="P4" s="3">
+      <c r="N4" s="3">
         <f>[1]Model!$AD$30</f>
         <v>-0.01</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="O4" s="3">
         <f>[1]Model!$AD$31</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D5">
-        <f>D4+1</f>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D6">
-        <f t="shared" ref="D6:D70" si="0">D5+1</f>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f t="shared" ref="B6:B70" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="4">
         <v>195</v>
       </c>
-      <c r="H6" s="2">
-        <f>G6*L6</f>
+      <c r="F6" s="2">
+        <f>E6*J6</f>
         <v>344448</v>
       </c>
-      <c r="I6" s="2">
+      <c r="G6" s="2">
         <f>[2]Main!$K$5-[2]Main!$K$6</f>
         <v>-67295</v>
       </c>
-      <c r="J6" s="2">
+      <c r="H6" s="2">
         <f>[2]Main!$K$7</f>
         <v>411743</v>
       </c>
-      <c r="K6" t="s">
-        <v>242</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="I6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="2">
         <f>[2]Main!$K$3</f>
         <v>1766.4</v>
       </c>
-      <c r="M6" s="2">
+      <c r="K6" s="2">
         <f>[2]Model!$AC$41</f>
         <v>416521.27804997418</v>
       </c>
-      <c r="N6" s="3">
-        <f>(M6/L6)/G6-1</f>
+      <c r="L6" s="3">
+        <f>(K6/J6)/E6-1</f>
         <v>0.20924284086414824</v>
       </c>
-      <c r="O6" s="3">
+      <c r="M6" s="3">
         <f>[2]Model!$AC$38</f>
         <v>0.02</v>
       </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3">
         <f>[2]Model!$AC$39</f>
         <v>-0.01</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="O6" s="3">
         <f>[2]Model!$AC$40</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D7">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="4">
         <v>79</v>
       </c>
+      <c r="F11" s="2">
+        <f>E11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f>[3]Main!$P$5-[3]Main!$P$6</f>
+        <v>0</v>
+      </c>
       <c r="H11" s="2">
-        <f>G11*L11</f>
-        <v>198371.44899999999</v>
-      </c>
-      <c r="I11" s="2">
-        <f>[3]Main!$P$5-[3]Main!$P$6</f>
-        <v>-32320</v>
+        <f>[3]Main!$P$7</f>
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>240</v>
       </c>
       <c r="J11" s="2">
-        <f>[3]Main!$P$7</f>
-        <v>235713.511</v>
-      </c>
-      <c r="K11" t="s">
-        <v>242</v>
-      </c>
-      <c r="L11" s="2">
         <f>[3]Main!$P$3</f>
-        <v>2511.0309999999999</v>
-      </c>
-      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <f>[3]Model!$AA$42</f>
         <v>275409.72230189055</v>
       </c>
-      <c r="N11" s="3">
-        <f>(M11/L11)/G11-1</f>
-        <v>0.3883536350127208</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="L11" s="3" t="e">
+        <f>(K11/J11)/E11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="3">
         <f>[3]Model!$AA$39</f>
         <v>0.02</v>
       </c>
-      <c r="P11" s="3">
+      <c r="N11" s="3">
         <f>[3]Model!$AA$40</f>
         <v>-0.01</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="O11" s="3">
         <f>[3]Model!$AA$41</f>
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D12">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D13">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D14">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D15">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="4">
         <v>113</v>
       </c>
-      <c r="H15" s="2">
-        <f>G15*L15</f>
+      <c r="F15" s="2">
+        <f>E15*J15</f>
         <v>140563.97700000001</v>
       </c>
-      <c r="I15" s="2">
+      <c r="G15" s="2">
         <f>[4]Main!$M$5-[4]Main!$M$6</f>
         <v>-17085</v>
       </c>
-      <c r="J15" s="2">
+      <c r="H15" s="2">
         <f>[4]Main!$M$7</f>
         <v>157648.97700000001</v>
       </c>
-      <c r="K15" t="s">
-        <v>242</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="I15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="2">
         <f>[4]Main!$M$3</f>
         <v>1243.9290000000001</v>
       </c>
-      <c r="M15" s="2">
+      <c r="K15" s="2">
         <f>[4]Model!$AA$92</f>
         <v>150356.31716833118</v>
       </c>
-      <c r="N15" s="3">
-        <f>(M15/L15)/G15-1</f>
+      <c r="L15" s="3">
+        <f>(K15/J15)/E15-1</f>
         <v>6.9664649345622554E-2</v>
       </c>
-      <c r="O15" s="3">
+      <c r="M15" s="3">
         <f>[4]Model!$AA$89</f>
         <v>0.02</v>
       </c>
-      <c r="P15" s="3">
+      <c r="N15" s="3">
         <f>[4]Model!$AA$90</f>
         <v>-0.01</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="O15" s="6">
         <f>[4]Model!$AA$91</f>
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D17">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="4">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="4">
-        <v>44</v>
-      </c>
-      <c r="H18" s="2">
-        <f>G18*L18</f>
+      <c r="F18" s="2">
+        <f>E18*J18</f>
         <v>89543.51999999999</v>
       </c>
-      <c r="I18" s="2">
+      <c r="G18" s="2">
         <f>[5]Main!$L$5-[5]Main!$L$6</f>
         <v>-39128</v>
       </c>
-      <c r="J18" s="2">
+      <c r="H18" s="2">
         <f>[5]Main!$L$7</f>
         <v>128671.51999999999</v>
       </c>
-      <c r="K18" t="s">
-        <v>242</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="I18" t="s">
+        <v>240</v>
+      </c>
+      <c r="J18" s="2">
         <f>[5]Main!$L$3</f>
         <v>2035.08</v>
       </c>
-      <c r="M18" s="2">
+      <c r="K18" s="2">
         <f>[5]Model!$Y$48</f>
         <v>104952.78625217403</v>
       </c>
-      <c r="N18" s="3">
-        <f>(M18/L18)/G18-1</f>
+      <c r="L18" s="3">
+        <f>(K18/J18)/E18-1</f>
         <v>0.17208689419596235</v>
       </c>
-      <c r="O18" s="3">
+      <c r="M18" s="3">
         <f>[5]Model!$Y$45</f>
         <v>0.02</v>
       </c>
-      <c r="P18" s="3">
+      <c r="N18" s="3">
         <f>[5]Model!$Y$46</f>
         <v>-0.01</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="O18" s="3">
         <f>[5]Model!$Y$47</f>
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D19">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="F35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="F38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="F42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="F45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <f t="shared" ref="B71:B131" si="1">B70+1</f>
         <v>68</v>
       </c>
-      <c r="F46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="F47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="F49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="F50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="E54" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="F55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="F56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="F57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="F59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="F60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="F61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="F62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="F63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C88" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="F64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="F65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="F66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D67">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C91" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="F67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D68">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C92" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D69">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="F69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D70">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="F70" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D71">
-        <f t="shared" ref="D71:D131" si="1">D70+1</f>
-        <v>68</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="F71" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="F72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="F73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="F74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C100" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="F76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D77">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="F77" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D78">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C103" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="F79" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C104" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="F80" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C105" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C106" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="F82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="F83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="F84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="E85" t="s">
-        <v>189</v>
-      </c>
-      <c r="F85" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D86">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E86" t="s">
-        <v>191</v>
-      </c>
-      <c r="F86" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="E87" t="s">
-        <v>194</v>
-      </c>
-      <c r="F87" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="E88" t="s">
-        <v>195</v>
-      </c>
-      <c r="F88" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D89">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="E89" t="s">
-        <v>196</v>
-      </c>
-      <c r="F89" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D90">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="E90" t="s">
-        <v>197</v>
-      </c>
-      <c r="F90" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="E91" t="s">
-        <v>198</v>
-      </c>
-      <c r="F91" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D92">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="E92" t="s">
-        <v>199</v>
-      </c>
-      <c r="F92" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D93">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="E93" t="s">
-        <v>200</v>
-      </c>
-      <c r="F93" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D94">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="E94" t="s">
-        <v>201</v>
-      </c>
-      <c r="F94" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D95">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="E95" t="s">
-        <v>202</v>
-      </c>
-      <c r="F95" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D96">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="E96" t="s">
-        <v>203</v>
-      </c>
-      <c r="F96" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="E97" t="s">
-        <v>204</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="98" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D98">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="E98" t="s">
-        <v>205</v>
-      </c>
-      <c r="F98" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D99">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="E99" t="s">
-        <v>206</v>
-      </c>
-      <c r="F99" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D100">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="E100" t="s">
-        <v>207</v>
-      </c>
-      <c r="F100" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="101" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D101">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="E101" t="s">
-        <v>208</v>
-      </c>
-      <c r="F101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D102">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="E102" t="s">
-        <v>209</v>
-      </c>
-      <c r="F102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D103">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E103" t="s">
-        <v>210</v>
-      </c>
-      <c r="F103" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D104">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="E104" t="s">
-        <v>211</v>
-      </c>
-      <c r="F104" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D105">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="E105" t="s">
-        <v>212</v>
-      </c>
-      <c r="F105" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="106" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D106">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="E106" t="s">
-        <v>213</v>
-      </c>
-      <c r="F106" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D107">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="E107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F107" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D108">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="E108" t="s">
-        <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="109" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D109">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="E109" t="s">
-        <v>216</v>
-      </c>
-      <c r="F109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D110">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F110" t="s">
-        <v>238</v>
-      </c>
-      <c r="G110" s="4">
+      <c r="E110" s="4">
         <v>11.2</v>
       </c>
-      <c r="H110" s="2">
-        <f>G110*L110</f>
+      <c r="F110" s="2">
+        <f>E110*J110</f>
         <v>956.16639999999995</v>
       </c>
-      <c r="I110" s="2">
+      <c r="G110" s="2">
         <f>[6]Main!$K$5-[6]Main!$K$6</f>
         <v>115.771</v>
       </c>
-      <c r="J110" s="2">
+      <c r="H110" s="2">
         <f>[6]Main!$K$7</f>
         <v>1028.2138</v>
       </c>
-      <c r="K110" t="s">
-        <v>245</v>
-      </c>
-      <c r="L110" s="2">
+      <c r="I110" t="s">
+        <v>243</v>
+      </c>
+      <c r="J110" s="2">
         <f>[6]Main!$K$3</f>
         <v>85.372</v>
       </c>
-      <c r="M110" s="2">
+      <c r="K110" s="2">
         <f>[6]Main!$K$11</f>
         <v>95.771000000000001</v>
       </c>
-      <c r="N110" s="3">
-        <f>(M110/L110)/G110-1</f>
+      <c r="L110" s="3">
+        <f>(K110/J110)/E110-1</f>
         <v>-0.89983856366423254</v>
       </c>
-      <c r="O110" s="3">
+      <c r="M110" s="3">
         <f>[6]Model!$R$6</f>
         <v>0.02</v>
       </c>
-      <c r="P110" s="3">
+      <c r="N110" s="3">
         <f>[6]Model!$R$7</f>
         <v>-0.01</v>
       </c>
-      <c r="Q110" s="3">
+      <c r="O110" s="3">
         <f>[6]Model!$R$8</f>
         <v>0.09</v>
       </c>
     </row>
-    <row r="111" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D111">
-        <f>D110+1</f>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <f>B110+1</f>
         <v>108</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F111" t="s">
-        <v>241</v>
-      </c>
-      <c r="G111" s="4">
+      <c r="C111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="4">
         <v>16</v>
       </c>
-      <c r="H111" s="2">
-        <f>G111*L111</f>
+      <c r="F111" s="2">
+        <f>E111*J111</f>
         <v>1572.432</v>
       </c>
-      <c r="I111" s="2">
+      <c r="G111" s="2">
         <f>[7]Main!$K$5-[7]Main!$K$6</f>
         <v>-1194.46</v>
       </c>
-      <c r="J111" s="2">
+      <c r="H111" s="2">
         <f>[7]Main!$K$7</f>
         <v>2766.8919999999998</v>
       </c>
-      <c r="K111" t="s">
-        <v>242</v>
-      </c>
-      <c r="L111" s="2">
+      <c r="I111" t="s">
+        <v>240</v>
+      </c>
+      <c r="J111" s="2">
         <f>[7]Main!$K$3</f>
         <v>98.277000000000001</v>
       </c>
-      <c r="M111" s="2">
+      <c r="K111" s="2">
         <f>[7]Model!$X$18</f>
         <v>8323.8042332358727</v>
       </c>
-      <c r="N111" s="3">
-        <f>(M111/L111)/G111-1</f>
+      <c r="L111" s="3">
+        <f>(K111/J111)/E111-1</f>
         <v>4.2935861348763398</v>
       </c>
-      <c r="O111" s="3">
+      <c r="M111" s="3">
         <f>[7]Model!$X$15</f>
         <v>0.02</v>
       </c>
-      <c r="P111" s="3">
+      <c r="N111" s="3">
         <f>[7]Model!$X$16</f>
         <v>-0.01</v>
       </c>
-      <c r="Q111" s="3">
+      <c r="O111" s="3">
         <f>[7]Model!$X$17</f>
         <v>0.08</v>
       </c>
     </row>
-    <row r="112" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D112">
-        <f>D111+1</f>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <f>B111+1</f>
         <v>109</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F112" t="s">
-        <v>243</v>
-      </c>
-      <c r="G112" s="4">
+      <c r="C112" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H112" s="2">
-        <f>G112*L112</f>
+      <c r="F112" s="2">
+        <f>E112*J112</f>
         <v>146.35720000000001</v>
       </c>
-      <c r="I112" s="2">
+      <c r="G112" s="2">
         <f>[8]Main!$K$6-[8]Main!$K$7</f>
         <v>70</v>
       </c>
-      <c r="J112" s="2">
+      <c r="H112" s="2">
         <f>[8]Main!$K$8</f>
         <v>76.357200000000006</v>
       </c>
-      <c r="K112" t="s">
-        <v>245</v>
-      </c>
-      <c r="L112" s="2">
+      <c r="I112" t="s">
+        <v>243</v>
+      </c>
+      <c r="J112" s="2">
         <f>[8]Main!$K$4</f>
         <v>66.525999999999996</v>
       </c>
-      <c r="M112" s="2">
+      <c r="K112" s="2">
         <f>[8]Main!$N$9</f>
         <v>40</v>
       </c>
-      <c r="N112" s="3">
-        <f>(M112/L112)/G112-1</f>
+      <c r="L112" s="3">
+        <f>(K112/J112)/E112-1</f>
         <v>-0.72669605595078346</v>
       </c>
     </row>
-    <row r="113" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D113">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B113">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E113" t="s">
-        <v>247</v>
-      </c>
-      <c r="F113" t="s">
-        <v>246</v>
-      </c>
-      <c r="G113" s="4">
+      <c r="C113" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" t="s">
+        <v>244</v>
+      </c>
+      <c r="E113" s="4">
         <v>61.2</v>
       </c>
-      <c r="H113" s="2">
-        <f>G113*L113</f>
+      <c r="F113" s="2">
+        <f>E113*J113</f>
         <v>0</v>
       </c>
-      <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D114">
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B114">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D115">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B115">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D116">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B116">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D117">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B117">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D118">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B118">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D119">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B119">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D120">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B120">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D121">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B121">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D122">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B122">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D123">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B123">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D124">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B124">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D125">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B125">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D126">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B126">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D127">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B127">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D128">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B128">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D129">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D130">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D131">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{D399F4A0-DA62-40ED-8CAD-669F8BFD1E14}"/>
-    <hyperlink ref="E112" r:id="rId2" display="CRDF.xlsx" xr:uid="{302536EA-C7C3-4334-9C0C-02276CC95A18}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{7918E348-FA13-4616-93E0-DC4AEB739892}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{56E9697C-0CDA-43F5-B4D8-BBFCD69FA55C}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{28909E0C-113B-4769-9B3B-DE3A0F0CBF3A}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{1B5EC1C5-D4FE-4909-8E08-9F255BE6AAC3}"/>
-    <hyperlink ref="E110" r:id="rId7" xr:uid="{0C7DF959-DEE9-40DE-A923-1865C8861848}"/>
-    <hyperlink ref="E111" r:id="rId8" xr:uid="{7DDA4514-7690-4C3C-8E24-54A3E69AA25E}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{D399F4A0-DA62-40ED-8CAD-669F8BFD1E14}"/>
+    <hyperlink ref="C112" r:id="rId2" display="CRDF.xlsx" xr:uid="{302536EA-C7C3-4334-9C0C-02276CC95A18}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{7918E348-FA13-4616-93E0-DC4AEB739892}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{56E9697C-0CDA-43F5-B4D8-BBFCD69FA55C}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{28909E0C-113B-4769-9B3B-DE3A0F0CBF3A}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{1B5EC1C5-D4FE-4909-8E08-9F255BE6AAC3}"/>
+    <hyperlink ref="C110" r:id="rId7" xr:uid="{0C7DF959-DEE9-40DE-A923-1865C8861848}"/>
+    <hyperlink ref="C111" r:id="rId8" xr:uid="{7DDA4514-7690-4C3C-8E24-54A3E69AA25E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3624,36 +3596,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3649,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +3673,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3702,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8937A0E2-FEFA-40A7-97EE-02F8BD350424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FAABD-7B3D-448B-8EDC-4C18E6F692DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
         </row>
         <row r="16">
           <cell r="X16">
-            <v>-0.01</v>
+            <v>-0.02</v>
           </cell>
         </row>
         <row r="17">
@@ -1342,7 +1342,7 @@
         </row>
         <row r="18">
           <cell r="X18">
-            <v>8323.8042332358727</v>
+            <v>10018.681885765032</v>
           </cell>
         </row>
       </sheetData>
@@ -1728,10 +1728,10 @@
   <dimension ref="B1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1749,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B123)</f>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -3374,11 +3374,11 @@
       </c>
       <c r="K111" s="2">
         <f>[7]Model!$X$18</f>
-        <v>8323.8042332358727</v>
+        <v>10018.681885765032</v>
       </c>
       <c r="L111" s="3">
         <f>(K111/J111)/E111-1</f>
-        <v>4.2935861348763398</v>
+        <v>5.3714563718908241</v>
       </c>
       <c r="M111" s="3">
         <f>[7]Model!$X$15</f>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="N111" s="3">
         <f>[7]Model!$X$16</f>
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="O111" s="3">
         <f>[7]Model!$X$17</f>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FAABD-7B3D-448B-8EDC-4C18E6F692DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3839AD0-5014-4AF6-A2FC-D8B5C05749E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="21750" windowHeight="15015" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
         </row>
         <row r="8">
           <cell r="K8">
-            <v>803908.08499999996</v>
+            <v>684493.47499999998</v>
           </cell>
         </row>
       </sheetData>
@@ -924,7 +924,7 @@
         </row>
         <row r="32">
           <cell r="AD32">
-            <v>746543.52415987698</v>
+            <v>887331.52989786386</v>
           </cell>
         </row>
       </sheetData>
@@ -1332,17 +1332,17 @@
         </row>
         <row r="16">
           <cell r="X16">
-            <v>-0.02</v>
+            <v>-0.03</v>
           </cell>
         </row>
         <row r="17">
           <cell r="X17">
-            <v>0.08</v>
+            <v>0.09</v>
           </cell>
         </row>
         <row r="18">
           <cell r="X18">
-            <v>10018.681885765032</v>
+            <v>9309.2462054242424</v>
           </cell>
         </row>
       </sheetData>
@@ -1728,10 +1728,10 @@
   <dimension ref="B1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1749,11 +1749,11 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B123)</f>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
-        <v>1299404.5226</v>
+        <v>1226428.9276000001</v>
       </c>
       <c r="L2" s="3" t="e">
         <f>AVERAGE(L4:L1048576)</f>
@@ -1815,11 +1815,11 @@
         <v>15</v>
       </c>
       <c r="E4" s="4">
-        <v>762</v>
+        <v>685</v>
       </c>
       <c r="F4" s="2">
         <f>E4*J4</f>
-        <v>722174.07000000007</v>
+        <v>649198.47499999998</v>
       </c>
       <c r="G4" s="2">
         <f>[1]Main!$K$6-[1]Main!$K$7</f>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H4" s="2">
         <f>[1]Main!$K$8</f>
-        <v>803908.08499999996</v>
+        <v>684493.47499999998</v>
       </c>
       <c r="I4" t="s">
         <v>240</v>
@@ -1838,11 +1838,11 @@
       </c>
       <c r="K4" s="2">
         <f>[1]Model!$AD$32</f>
-        <v>746543.52415987698</v>
+        <v>887331.52989786386</v>
       </c>
       <c r="L4" s="3">
         <f>(K4/J4)/E4-1</f>
-        <v>3.3744570972863874E-2</v>
+        <v>0.36681086611896907</v>
       </c>
       <c r="M4" s="3">
         <f>[1]Model!$AD$29</f>
@@ -3374,11 +3374,11 @@
       </c>
       <c r="K111" s="2">
         <f>[7]Model!$X$18</f>
-        <v>10018.681885765032</v>
+        <v>9309.2462054242424</v>
       </c>
       <c r="L111" s="3">
         <f>(K111/J111)/E111-1</f>
-        <v>5.3714563718908241</v>
+        <v>4.9202853957590804</v>
       </c>
       <c r="M111" s="3">
         <f>[7]Model!$X$15</f>
@@ -3386,11 +3386,11 @@
       </c>
       <c r="N111" s="3">
         <f>[7]Model!$X$16</f>
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="O111" s="3">
         <f>[7]Model!$X$17</f>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3839AD0-5014-4AF6-A2FC-D8B5C05749E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0338F85C-3DA6-403F-8CED-B2993DB99921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="21750" windowHeight="15015" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="3570" yWindow="480" windowWidth="21750" windowHeight="15015" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Drugs" sheetId="6" r:id="rId2"/>
-    <sheet name="Todo" sheetId="3" r:id="rId3"/>
-    <sheet name="Private" sheetId="5" r:id="rId4"/>
-    <sheet name="Funds" sheetId="2" r:id="rId5"/>
+    <sheet name="Private" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -887,61 +885,61 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="K4">
-            <v>947.73500000000001</v>
+            <v>898</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>3220</v>
+            <v>3546</v>
           </cell>
         </row>
         <row r="7">
           <cell r="K7">
-            <v>38515</v>
+            <v>46862</v>
           </cell>
         </row>
         <row r="8">
           <cell r="K8">
-            <v>684493.47499999998</v>
+            <v>658446</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="29">
-          <cell r="AD29">
+        <row r="32">
+          <cell r="AI32">
             <v>0.02</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="AD30">
+        <row r="33">
+          <cell r="AI33">
             <v>-0.01</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="AD31">
+        <row r="34">
+          <cell r="AI34">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="AD32">
-            <v>887331.52989786386</v>
+        <row r="35">
+          <cell r="AI35">
+            <v>815642.43678764242</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1728,10 +1726,10 @@
   <dimension ref="B1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1749,11 +1747,11 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B123)</f>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
-        <v>1226428.9276000001</v>
+        <v>1192360.4526</v>
       </c>
       <c r="L2" s="3" t="e">
         <f>AVERAGE(L4:L1048576)</f>
@@ -1819,41 +1817,41 @@
       </c>
       <c r="F4" s="2">
         <f>E4*J4</f>
-        <v>649198.47499999998</v>
+        <v>615130</v>
       </c>
       <c r="G4" s="2">
         <f>[1]Main!$K$6-[1]Main!$K$7</f>
-        <v>-35295</v>
+        <v>-43316</v>
       </c>
       <c r="H4" s="2">
         <f>[1]Main!$K$8</f>
-        <v>684493.47499999998</v>
+        <v>658446</v>
       </c>
       <c r="I4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J4" s="2">
         <f>[1]Main!$K$4</f>
-        <v>947.73500000000001</v>
+        <v>898</v>
       </c>
       <c r="K4" s="2">
-        <f>[1]Model!$AD$32</f>
-        <v>887331.52989786386</v>
+        <f>[1]Model!$AI$35</f>
+        <v>815642.43678764242</v>
       </c>
       <c r="L4" s="3">
         <f>(K4/J4)/E4-1</f>
-        <v>0.36681086611896907</v>
+        <v>0.32596757886567462</v>
       </c>
       <c r="M4" s="3">
-        <f>[1]Model!$AD$29</f>
+        <f>[1]Model!$AI$32</f>
         <v>0.02</v>
       </c>
       <c r="N4" s="3">
-        <f>[1]Model!$AD$30</f>
+        <f>[1]Model!$AI$33</f>
         <v>-0.01</v>
       </c>
       <c r="O4" s="3">
-        <f>[1]Model!$AD$31</f>
+        <f>[1]Model!$AI$34</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -3637,62 +3635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A799C8BF-D09A-47BA-AACB-0EB0B3F0A6A9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{96508E18-CFB3-42A3-A7C9-FC9A9C323F78}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2290781E-A10C-4D20-9C89-702989AEBC51}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B073397C-CCC5-4844-966F-F587F103EF60}">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3707,7 +3654,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0F78121F-1FC8-4698-B036-297F19128B17}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2290781E-A10C-4D20-9C89-702989AEBC51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0338F85C-3DA6-403F-8CED-B2993DB99921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586F32F-737C-4509-B8F7-745095738534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="480" windowWidth="21750" windowHeight="15015" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="4455" yWindow="1005" windowWidth="20805" windowHeight="14520" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Drugs" sheetId="6" r:id="rId2"/>
-    <sheet name="Private" sheetId="5" r:id="rId3"/>
+    <sheet name="Todo" sheetId="7" r:id="rId2"/>
+    <sheet name="Drugs" sheetId="6" r:id="rId3"/>
+    <sheet name="Private" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
@@ -26,6 +26,8 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="252">
   <si>
     <t>Name</t>
   </si>
@@ -786,6 +788,24 @@
   </si>
   <si>
     <t>Abivax SA</t>
+  </si>
+  <si>
+    <t>NTLA</t>
+  </si>
+  <si>
+    <t>IDYA</t>
+  </si>
+  <si>
+    <t>CLDX</t>
+  </si>
+  <si>
+    <t>GPCR</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -831,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -839,6 +859,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -900,7 +922,7 @@
         </row>
         <row r="8">
           <cell r="K8">
-            <v>658446</v>
+            <v>671916</v>
           </cell>
         </row>
       </sheetData>
@@ -926,20 +948,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1010,7 +1032,7 @@
         </row>
         <row r="41">
           <cell r="AC41">
-            <v>416521.27804997418</v>
+            <v>412792.93660731037</v>
           </cell>
         </row>
       </sheetData>
@@ -1298,6 +1320,10 @@
       <sheetName val="IP"/>
       <sheetName val="Literature"/>
       <sheetName val="elevidys"/>
+      <sheetName val="exondys"/>
+      <sheetName val="vyondys"/>
+      <sheetName val="amondys"/>
+      <sheetName val="SRP-9003"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1318,35 +1344,34 @@
         </row>
         <row r="7">
           <cell r="K7">
-            <v>2766.8919999999998</v>
+            <v>3356.5540000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="15">
           <cell r="X15">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="X16">
-            <v>-0.03</v>
+            <v>1046.9276155393495</v>
           </cell>
         </row>
         <row r="17">
           <cell r="X17">
-            <v>0.09</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="18">
           <cell r="X18">
-            <v>9309.2462054242424</v>
+            <v>-0.03</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1401,6 +1426,55 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Literature"/>
+      <sheetName val="ivonescimab"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>742.84670000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>19536.006890000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="51">
+          <cell r="D51">
+            <v>33010.859372419174</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1726,10 +1800,10 @@
   <dimension ref="B1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,11 +1821,11 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B123)</f>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
-        <v>1192360.4526</v>
+        <v>1212417.3134999999</v>
       </c>
       <c r="L2" s="3" t="e">
         <f>AVERAGE(L4:L1048576)</f>
@@ -1825,7 +1899,7 @@
       </c>
       <c r="H4" s="2">
         <f>[1]Main!$K$8</f>
-        <v>658446</v>
+        <v>671916</v>
       </c>
       <c r="I4" t="s">
         <v>243</v>
@@ -1853,6 +1927,9 @@
       <c r="O4" s="3">
         <f>[1]Model!$AI$34</f>
         <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1876</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -1902,11 +1979,11 @@
       </c>
       <c r="K6" s="2">
         <f>[2]Model!$AC$41</f>
-        <v>416521.27804997418</v>
+        <v>412792.93660731037</v>
       </c>
       <c r="L6" s="3">
         <f>(K6/J6)/E6-1</f>
-        <v>0.20924284086414824</v>
+        <v>0.19841873550524425</v>
       </c>
       <c r="M6" s="3">
         <f>[2]Model!$AC$38</f>
@@ -1920,6 +1997,9 @@
         <f>[2]Model!$AC$40</f>
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="P6">
+        <v>2012</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -2022,6 +2102,9 @@
         <f>[3]Model!$AA$41</f>
         <v>0.08</v>
       </c>
+      <c r="P11">
+        <v>1668</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -2112,6 +2195,9 @@
         <f>[4]Model!$AA$91</f>
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="P15">
+        <v>1987</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -2125,7 +2211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2137,7 +2223,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2190,8 +2276,11 @@
         <f>[5]Model!$Y$47</f>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2203,7 +2292,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2215,7 +2304,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2227,7 +2316,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2239,7 +2328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2251,7 +2340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2263,7 +2352,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2275,7 +2364,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2287,7 +2376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2299,7 +2388,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2311,7 +2400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2323,7 +2412,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2335,7 +2424,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2347,7 +2436,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2359,7 +2448,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2371,7 +2460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2383,7 +2472,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2395,7 +2484,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2407,7 +2496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2419,7 +2508,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2431,7 +2520,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2443,7 +2532,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2455,7 +2544,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2467,7 +2556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2479,7 +2568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2491,7 +2580,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2503,7 +2592,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2515,19 +2604,61 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D46" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="4">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2">
+        <f>E46*J46</f>
+        <v>20056.8609</v>
+      </c>
+      <c r="G46">
+        <f>[9]Main!$K$5-[9]Main!$K$6</f>
+        <v>298</v>
+      </c>
+      <c r="H46" s="2">
+        <f>[9]Main!$K$7</f>
+        <v>19536.006890000001</v>
+      </c>
+      <c r="I46" t="s">
+        <v>243</v>
+      </c>
+      <c r="J46" s="2">
+        <f>[9]Main!$K$3</f>
+        <v>742.84670000000006</v>
+      </c>
+      <c r="K46" s="7">
+        <f>[9]ivonescimab!$D$51</f>
+        <v>33010.859372419174</v>
+      </c>
+      <c r="L46" s="3">
+        <f>K46/F46-1</f>
+        <v>0.64586370404648785</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P46" s="8">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2539,7 +2670,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3127,7 +3258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3139,7 +3270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3151,7 +3282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3163,7 +3294,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3175,7 +3306,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -3187,7 +3318,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -3199,7 +3330,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -3211,7 +3342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -3223,7 +3354,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -3235,7 +3366,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -3247,7 +3378,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -3259,7 +3390,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -3271,7 +3402,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -3283,7 +3414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -3336,8 +3467,11 @@
         <f>[6]Model!$R$8</f>
         <v>0.09</v>
       </c>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B111">
         <f>B110+1</f>
         <v>108</v>
@@ -3361,7 +3495,7 @@
       </c>
       <c r="H111" s="2">
         <f>[7]Main!$K$7</f>
-        <v>2766.8919999999998</v>
+        <v>3356.5540000000001</v>
       </c>
       <c r="I111" t="s">
         <v>240</v>
@@ -3372,26 +3506,29 @@
       </c>
       <c r="K111" s="2">
         <f>[7]Model!$X$18</f>
-        <v>9309.2462054242424</v>
+        <v>-0.03</v>
       </c>
       <c r="L111" s="3">
         <f>(K111/J111)/E111-1</f>
-        <v>4.9202853957590804</v>
+        <v>-1.0000190787264569</v>
       </c>
       <c r="M111" s="3">
         <f>[7]Model!$X$15</f>
-        <v>0.02</v>
+        <v>1046.9276155393495</v>
       </c>
       <c r="N111" s="3">
         <f>[7]Model!$X$16</f>
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="O111" s="3">
         <f>[7]Model!$X$17</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+      <c r="P111">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112">
         <f>B111+1</f>
         <v>109</v>
@@ -3431,6 +3568,9 @@
       <c r="L112" s="3">
         <f>(K112/J112)/E112-1</f>
         <v>-0.72669605595078346</v>
+      </c>
+      <c r="P112">
+        <v>1999</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.2">
@@ -3571,20 +3711,18 @@
     <hyperlink ref="C15" r:id="rId6" xr:uid="{1B5EC1C5-D4FE-4909-8E08-9F255BE6AAC3}"/>
     <hyperlink ref="C110" r:id="rId7" xr:uid="{0C7DF959-DEE9-40DE-A923-1865C8861848}"/>
     <hyperlink ref="C111" r:id="rId8" xr:uid="{7DDA4514-7690-4C3C-8E24-54A3E69AA25E}"/>
+    <hyperlink ref="C46" r:id="rId9" xr:uid="{385039E3-A799-4AA7-9730-76F3DEA74624}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B2AD0-6E41-4DC9-AA4F-9BFB6D36429D}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A7E85D-B115-45C7-B96C-D7F476FE089A}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3599,6 +3737,101 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E10" s="3"/>
+      <c r="J10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AFF631E4-02EA-4DC4-82A3-DE3A95538343}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B2AD0-6E41-4DC9-AA4F-9BFB6D36429D}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
@@ -3634,7 +3867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586F32F-737C-4509-B8F7-745095738534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5458DC25-C0C7-48F6-B24A-7752681371CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="1005" windowWidth="20805" windowHeight="14520" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="1170" yWindow="480" windowWidth="22200" windowHeight="14805" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Todo" sheetId="7" r:id="rId2"/>
     <sheet name="Drugs" sheetId="6" r:id="rId3"/>
-    <sheet name="Private" sheetId="5" r:id="rId4"/>
+    <sheet name="Diseases" sheetId="9" r:id="rId4"/>
+    <sheet name="Private" sheetId="5" r:id="rId5"/>
+    <sheet name="Funds" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -28,6 +28,9 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="678">
   <si>
     <t>Name</t>
   </si>
@@ -806,16 +809,1296 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>AUM</t>
+  </si>
+  <si>
+    <t>Baker Brothers</t>
+  </si>
+  <si>
+    <t>OrbiMed</t>
+  </si>
+  <si>
+    <t>Deerfield</t>
+  </si>
+  <si>
+    <t>RA Capital</t>
+  </si>
+  <si>
+    <t>Perceptive Advisors</t>
+  </si>
+  <si>
+    <t>RTW Investments</t>
+  </si>
+  <si>
+    <t>EcoR1 Capital</t>
+  </si>
+  <si>
+    <t>Casdin Capital</t>
+  </si>
+  <si>
+    <t>Soleus Capital</t>
+  </si>
+  <si>
+    <t>BVF Partners</t>
+  </si>
+  <si>
+    <t>Deep Track Capital</t>
+  </si>
+  <si>
+    <t>PFM Health Sciences</t>
+  </si>
+  <si>
+    <t>Rock Springs Capital</t>
+  </si>
+  <si>
+    <t>Vivo Capital</t>
+  </si>
+  <si>
+    <t>Polaris Partners</t>
+  </si>
+  <si>
+    <t>Cormorant</t>
+  </si>
+  <si>
+    <t>Vestal Point</t>
+  </si>
+  <si>
+    <t>Cutter Capital</t>
+  </si>
+  <si>
+    <t>Return/yr</t>
+  </si>
+  <si>
+    <t>Altos Labs</t>
+  </si>
+  <si>
+    <t>Grail</t>
+  </si>
+  <si>
+    <t>Intarcia Therapeutics</t>
+  </si>
+  <si>
+    <t>Abogen Biosciences</t>
+  </si>
+  <si>
+    <t>Freenome</t>
+  </si>
+  <si>
+    <t>ElevateBio</t>
+  </si>
+  <si>
+    <t>Voronoi</t>
+  </si>
+  <si>
+    <t>Xaira Therapeutics</t>
+  </si>
+  <si>
+    <t>Boehringer Ingelheim</t>
+  </si>
+  <si>
+    <t>Roderick Wong</t>
+  </si>
+  <si>
+    <t>Geoffery C. Hsu</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Keytruda</t>
+  </si>
+  <si>
+    <t>Ozempic</t>
+  </si>
+  <si>
+    <t>Mounjaro</t>
+  </si>
+  <si>
+    <t>Trulicity</t>
+  </si>
+  <si>
+    <t>Eliquis</t>
+  </si>
+  <si>
+    <t>Humira</t>
+  </si>
+  <si>
+    <t>Enbrel</t>
+  </si>
+  <si>
+    <t>Remicade</t>
+  </si>
+  <si>
+    <t>Lipitor</t>
+  </si>
+  <si>
+    <t>Revlimid</t>
+  </si>
+  <si>
+    <t>Rituxan/MabThera</t>
+  </si>
+  <si>
+    <t>Comirnaty</t>
+  </si>
+  <si>
+    <t>Avastin</t>
+  </si>
+  <si>
+    <t>Herceptin</t>
+  </si>
+  <si>
+    <t>Plavix</t>
+  </si>
+  <si>
+    <t>Seretide/Advair</t>
+  </si>
+  <si>
+    <t>Lantus</t>
+  </si>
+  <si>
+    <t>Biktarvy</t>
+  </si>
+  <si>
+    <t>Eylea</t>
+  </si>
+  <si>
+    <t>Stelara</t>
+  </si>
+  <si>
+    <t>Januvia/Janumet</t>
+  </si>
+  <si>
+    <t>Opdivo</t>
+  </si>
+  <si>
+    <t>Prevnar</t>
+  </si>
+  <si>
+    <t>Harvoni</t>
+  </si>
+  <si>
+    <t>Gardasil</t>
+  </si>
+  <si>
+    <t>Lyrica</t>
+  </si>
+  <si>
+    <t>Xarelto</t>
+  </si>
+  <si>
+    <t>Dupixent</t>
+  </si>
+  <si>
+    <t>Imbruvica</t>
+  </si>
+  <si>
+    <t>Darzalex</t>
+  </si>
+  <si>
+    <t>Sovaldi</t>
+  </si>
+  <si>
+    <t>Jardiance</t>
+  </si>
+  <si>
+    <t>Cosentyx</t>
+  </si>
+  <si>
+    <t>Ibrance</t>
+  </si>
+  <si>
+    <t>Skyrizi</t>
+  </si>
+  <si>
+    <t>Xolair</t>
+  </si>
+  <si>
+    <t>Ocrevus</t>
+  </si>
+  <si>
+    <t>Farxiga/Forxiga</t>
+  </si>
+  <si>
+    <t>Paxlovid</t>
+  </si>
+  <si>
+    <t>XTANDI</t>
+  </si>
+  <si>
+    <t>Perjeta</t>
+  </si>
+  <si>
+    <t>Orencia</t>
+  </si>
+  <si>
+    <t>Entresto</t>
+  </si>
+  <si>
+    <t>Tagrisso</t>
+  </si>
+  <si>
+    <t>Verzenio</t>
+  </si>
+  <si>
+    <t>Imfinzi</t>
+  </si>
+  <si>
+    <t>Trikafta/Kaftrio</t>
+  </si>
+  <si>
+    <t>Prolia</t>
+  </si>
+  <si>
+    <t>Hemlibra</t>
+  </si>
+  <si>
+    <t>Rinvoq</t>
+  </si>
+  <si>
+    <t>Tecentriq</t>
+  </si>
+  <si>
+    <t>Vyndaqel</t>
+  </si>
+  <si>
+    <t>Wegovy</t>
+  </si>
+  <si>
+    <t>Tremfya</t>
+  </si>
+  <si>
+    <t>Adalimumab</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>Pembrolizumab</t>
+  </si>
+  <si>
+    <t>Lenalidomide</t>
+  </si>
+  <si>
+    <t>Etanercept</t>
+  </si>
+  <si>
+    <t>Rituximab</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Bevacizumab</t>
+  </si>
+  <si>
+    <t>Infliximab</t>
+  </si>
+  <si>
+    <t>Trastuzumab</t>
+  </si>
+  <si>
+    <t>Clopidogrel</t>
+  </si>
+  <si>
+    <t>Apixaban</t>
+  </si>
+  <si>
+    <t>Insulin Glargine</t>
+  </si>
+  <si>
+    <t>Aflibercept</t>
+  </si>
+  <si>
+    <t>Ustekinumab</t>
+  </si>
+  <si>
+    <t>Sitagliptin</t>
+  </si>
+  <si>
+    <t>Nivolumab</t>
+  </si>
+  <si>
+    <t>Semaglutide</t>
+  </si>
+  <si>
+    <t>Pneumococcal vaccine</t>
+  </si>
+  <si>
+    <t>Pregabalin</t>
+  </si>
+  <si>
+    <t>Rivaroxaban</t>
+  </si>
+  <si>
+    <t>Dupilumab</t>
+  </si>
+  <si>
+    <t>Ledipasvir/Sofosbuvir</t>
+  </si>
+  <si>
+    <t>Ibrutinib</t>
+  </si>
+  <si>
+    <t>Daratumumab</t>
+  </si>
+  <si>
+    <t>Sofosbuvir</t>
+  </si>
+  <si>
+    <t>Dulaglutide</t>
+  </si>
+  <si>
+    <t>Secukinumab</t>
+  </si>
+  <si>
+    <t>Palbociclib</t>
+  </si>
+  <si>
+    <t>Risankizumab</t>
+  </si>
+  <si>
+    <t>Omalizumab</t>
+  </si>
+  <si>
+    <t>Ocrelizumab</t>
+  </si>
+  <si>
+    <t>Dapagliflozin</t>
+  </si>
+  <si>
+    <t>Enzalutamide</t>
+  </si>
+  <si>
+    <t>Pertuzumab</t>
+  </si>
+  <si>
+    <t>Abatecept</t>
+  </si>
+  <si>
+    <t>Sacubitril/Valsartan</t>
+  </si>
+  <si>
+    <t>Osimertinib</t>
+  </si>
+  <si>
+    <t>Abemaciclib</t>
+  </si>
+  <si>
+    <t>Durvalumab</t>
+  </si>
+  <si>
+    <t>Denosumab</t>
+  </si>
+  <si>
+    <t>Emicizumab</t>
+  </si>
+  <si>
+    <t>Upadacitinib</t>
+  </si>
+  <si>
+    <t>Atezolizumab</t>
+  </si>
+  <si>
+    <t>Tafamidis</t>
+  </si>
+  <si>
+    <t>Guselkumab</t>
+  </si>
+  <si>
+    <t>Tirzepatide</t>
+  </si>
+  <si>
+    <t>RA, Crohn's</t>
+  </si>
+  <si>
+    <t>High cholesterol</t>
+  </si>
+  <si>
+    <t>Various cancers</t>
+  </si>
+  <si>
+    <t>Multiple myeloma</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Lymphoma, leukemia</t>
+  </si>
+  <si>
+    <t>COVID-19 prevention</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>Heart attack/stroke prevention</t>
+  </si>
+  <si>
+    <t>Anticoagulant</t>
+  </si>
+  <si>
+    <t>Asthma, COPD</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>HIV infection</t>
+  </si>
+  <si>
+    <t>Macular degeneration</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes</t>
+  </si>
+  <si>
+    <t>Pneumonia prevention</t>
+  </si>
+  <si>
+    <t>HPV prevention</t>
+  </si>
+  <si>
+    <t>Neuropathic pain, epilepsy</t>
+  </si>
+  <si>
+    <t>Atopic dermatitis, asthma</t>
+  </si>
+  <si>
+    <t>Blood cancers</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Multiple sclerosis</t>
+  </si>
+  <si>
+    <t>Diabetes, heart failure</t>
+  </si>
+  <si>
+    <t>COVID-19 treatment</t>
+  </si>
+  <si>
+    <t>Prostate cancer</t>
+  </si>
+  <si>
+    <t>Heart failure</t>
+  </si>
+  <si>
+    <t>Lung cancer</t>
+  </si>
+  <si>
+    <t>Cystic fibrosis</t>
+  </si>
+  <si>
+    <t>Osteoporosis</t>
+  </si>
+  <si>
+    <t>Hemophilia A</t>
+  </si>
+  <si>
+    <t>ATTR cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Psoriasis, Crohn's</t>
+  </si>
+  <si>
+    <t>(billions)</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Investors</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>3 drug combo</t>
+  </si>
+  <si>
+    <t>TNF-alpha</t>
+  </si>
+  <si>
+    <t>mab</t>
+  </si>
+  <si>
+    <t>statin</t>
+  </si>
+  <si>
+    <t>PD-1</t>
+  </si>
+  <si>
+    <t>soluble receptor</t>
+  </si>
+  <si>
+    <t>rhProtein</t>
+  </si>
+  <si>
+    <t>Felix &amp; Julian Baker</t>
+  </si>
+  <si>
+    <t>JNJ - finish</t>
+  </si>
+  <si>
+    <t>MRK - rework</t>
+  </si>
+  <si>
+    <t>GILD - rework</t>
+  </si>
+  <si>
+    <t>LLY - finish GLP-1</t>
+  </si>
+  <si>
+    <t>BMY - in depth main approved drugs forecast</t>
+  </si>
+  <si>
+    <t>BNTX - finish</t>
+  </si>
+  <si>
+    <t>SMMT - finish drug analysis and competition</t>
+  </si>
+  <si>
+    <t>AVXL - write thesis, finish reading dois</t>
+  </si>
+  <si>
+    <t>SRPT - finish elevidys analysis, PMO financials</t>
+  </si>
+  <si>
+    <t>Intellia Therapeutics</t>
+  </si>
+  <si>
+    <t>Ideaya Biosciences</t>
+  </si>
+  <si>
+    <t>Celldex Therapeutics</t>
+  </si>
+  <si>
+    <t>Structure Therapeutics</t>
+  </si>
+  <si>
+    <t>Disc Medicine</t>
+  </si>
+  <si>
+    <t>member of roche group</t>
+  </si>
+  <si>
+    <t>Diabetes, type 2</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Breast Cancer</t>
+  </si>
+  <si>
+    <t>NSCLC</t>
+  </si>
+  <si>
+    <t>Influenza</t>
+  </si>
+  <si>
+    <t>Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>Prostate Cancer</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Efficacy</t>
+  </si>
+  <si>
+    <t>Common MOAs</t>
+  </si>
+  <si>
+    <t>Pathology</t>
+  </si>
+  <si>
+    <t>GLP-1</t>
+  </si>
+  <si>
+    <t>ADHD</t>
+  </si>
+  <si>
+    <t>Pathophysiology</t>
+  </si>
+  <si>
+    <t>Etiology</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>Epidemiology</t>
+  </si>
+  <si>
+    <t>Target Validation</t>
+  </si>
+  <si>
+    <t>Primary Endpoints</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Unmet Need</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>DALY/Disease Burden Score</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Biomarkers</t>
+  </si>
+  <si>
+    <t>Ritalin</t>
+  </si>
+  <si>
+    <t>Adderall</t>
+  </si>
+  <si>
+    <t>methylphenidate</t>
+  </si>
+  <si>
+    <t>Concerta</t>
+  </si>
+  <si>
+    <t>amphetamine</t>
+  </si>
+  <si>
+    <t>autoimmune disease?</t>
+  </si>
+  <si>
+    <t>Top Drugs</t>
+  </si>
+  <si>
+    <t>HCV</t>
+  </si>
+  <si>
+    <t>Hepatitis C (HCV)</t>
+  </si>
+  <si>
+    <t>HCV NS5B RNA polymerase</t>
+  </si>
+  <si>
+    <t>~42m+</t>
+  </si>
+  <si>
+    <t>Mounjaro, Ozempic</t>
+  </si>
+  <si>
+    <t>hallucinations, delusions</t>
+  </si>
+  <si>
+    <t>ivonsertib, Keytruda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <t>HBV</t>
+  </si>
+  <si>
+    <t>HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Lung Cancer</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>AD / Dementia</t>
+  </si>
+  <si>
+    <t>Ischemic Heart Disease</t>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease</t>
+  </si>
+  <si>
+    <t>Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Chronic Pain</t>
+  </si>
+  <si>
+    <t>Corticosteroids</t>
+  </si>
+  <si>
+    <t>(millions)</t>
+  </si>
+  <si>
+    <t>Deaths/yr</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Cancer (All Types)</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>Diabetes, type 1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SSRI, SNRI</t>
+  </si>
+  <si>
+    <t>part of cancer</t>
+  </si>
+  <si>
+    <t>part of cardio</t>
+  </si>
+  <si>
+    <t>part of diabetes</t>
+  </si>
+  <si>
+    <t>part of liver</t>
+  </si>
+  <si>
+    <t>IBD (Crohn's/UC)</t>
+  </si>
+  <si>
+    <t>(millions) 2024</t>
+  </si>
+  <si>
+    <t>(thousands)</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Journavx, Vicodin, OxyContin, Lyrica</t>
+  </si>
+  <si>
+    <t>Rezdiffra, Livdelzi, Sovaldi, Harvoni</t>
+  </si>
+  <si>
+    <t>Lisinopril, Nmorvasc, Cozaar, Benicar, Tryvio</t>
+  </si>
+  <si>
+    <t>Emgality, Aimovig, Ajovy, Vyepti, Nurtec ODT</t>
+  </si>
+  <si>
+    <t>Ozempic, Mounjaro, Jardiance, Farxiga, Lantus</t>
+  </si>
+  <si>
+    <t>Biktarvy, Dovato, Triumeq, Genvoya</t>
+  </si>
+  <si>
+    <t>Keytruda, Opdivo, Yervoy, Tecentriq, Avastin</t>
+  </si>
+  <si>
+    <t>Humira, Enbrel, Orencia, Rituxan, Actemra, Xeljanz, Rinvoq</t>
+  </si>
+  <si>
+    <t>Lexapro, Prozac, Zoloft, Cymbalta, Wellbutrin</t>
+  </si>
+  <si>
+    <t>Xanax, Ativan, Klonopin, Buspar</t>
+  </si>
+  <si>
+    <t>Ablify, Risperdal, Zyprexa, Seroquel, Invega</t>
+  </si>
+  <si>
+    <t>Adderall, Ritalin, Concerta, Vyvanse, Strattera</t>
+  </si>
+  <si>
+    <t>Spiriva, Advair, Symbicort, Anoro Ellipta</t>
+  </si>
+  <si>
+    <t>Advair, Symbicort, Dupixent, Xolair</t>
+  </si>
+  <si>
+    <t>Tagrisso, Alecensa, Lobrena</t>
+  </si>
+  <si>
+    <t>Herceptin, Perjeta, Enhertu, Ibrance, Kisqali</t>
+  </si>
+  <si>
+    <t>Revlimid, Velcade, Darzalex, Kyprolis</t>
+  </si>
+  <si>
+    <t>Zytiga, Xtandi, Pluvicto</t>
+  </si>
+  <si>
+    <t>Autoimmune/Inflammatory</t>
+  </si>
+  <si>
+    <t>Neurological</t>
+  </si>
+  <si>
+    <t>Kisulna, Aricept, Leqembi</t>
+  </si>
+  <si>
+    <t>Tamiflu</t>
+  </si>
+  <si>
+    <t>Skyrizi, Stelara</t>
+  </si>
+  <si>
+    <t>Skyrizi, Stelara, Entyvio</t>
+  </si>
+  <si>
+    <t>NSAID/COXi, Opioid Receptor Agonists, Sodium Channel Blockers, Anticonvulsants, SNRI</t>
+  </si>
+  <si>
+    <t>PPAR-delta, THR-beta, NS5B, NS5Ai, Nucleostide Reverse Transcriptase inhibitors</t>
+  </si>
+  <si>
+    <t>ACEi, ARBs, Calcium Channel Blockers, Thiazide Diuretics, Beta-blockers, endothelin-1 receptor antagonists</t>
+  </si>
+  <si>
+    <t>CGRPi, CGRP receptor antagonists, Triptans, Beta-blockers</t>
+  </si>
+  <si>
+    <t>GLP-1/GIP, SGLT2i, Metformin, DPP-4i</t>
+  </si>
+  <si>
+    <t>SSRI, SNRI, Tricyclic, MAOi</t>
+  </si>
+  <si>
+    <t>Benzodiazepines, Buspirone, SSRI, Beta-blockers</t>
+  </si>
+  <si>
+    <t>block dopamine D2 receptors and serotonin 5-HT2A receptors, partial D2 agonists</t>
+  </si>
+  <si>
+    <t>LAMA, LABA, Corticosteroids, PDE4i</t>
+  </si>
+  <si>
+    <t>Corticosteroids, LABA, block leukotriene receptors, Anti-IgE biologics, IL-4/IL-13i</t>
+  </si>
+  <si>
+    <t>PD-1/PD-L1i, CTLA-4i, VEGFi, Tyrosine Kinase inhibitors, Alkylating agents, antimetabolities</t>
+  </si>
+  <si>
+    <t>Nucleoside RTIs, non-nucleoside RTIs, Integrase inhibitors, protease inhibitors, entry/fusion inhibitors</t>
+  </si>
+  <si>
+    <t>TNF-alpha, JAKi, IL-6 receptor antagonist, T-cell costimulation, CD20 mab, DMARD</t>
+  </si>
+  <si>
+    <t>PD-1i, ALKi, EGFRi</t>
+  </si>
+  <si>
+    <t>HER2i, CDK4/6i, Aromatase, Block estrogen receptors</t>
+  </si>
+  <si>
+    <t>Preoteasome Inhibitors, Immunomodulatory Drugs, CD38 mab</t>
+  </si>
+  <si>
+    <t>TNFi, IL-17i, IL-23i</t>
+  </si>
+  <si>
+    <t>TNF-alpha, IL-12/IL-23i, JAKi, Integrin Antagonists</t>
+  </si>
+  <si>
+    <t>Cell Wall Synthesis Inihibitors, Protein Synthesis I, RNA polymerase I, ATP Synthase I</t>
+  </si>
+  <si>
+    <t>Artemisinin Compounds, Quinoline Antimalarials, Folate Synthesis I, Mitochondrial I</t>
+  </si>
+  <si>
+    <t>Cholinesterase, NMDA antagonist, Anti-amyloid mab</t>
+  </si>
+  <si>
+    <t>Stimulants (dopamine/norepinephrine reuptake inhibition), Alpha-2 agonists</t>
+  </si>
+  <si>
+    <t>RAAS-Mediated Cardiovascular/Renal</t>
+  </si>
+  <si>
+    <t>Metabolic/Endocrine Dysfunction</t>
+  </si>
+  <si>
+    <t>Neurotransmitter Imbalance</t>
+  </si>
+  <si>
+    <t>Oncogenic Transformation</t>
+  </si>
+  <si>
+    <t>Viral Replication/Integration</t>
+  </si>
+  <si>
+    <t>Pain Signal Transduction</t>
+  </si>
+  <si>
+    <t>Airway Inflammatory/Obstructive</t>
+  </si>
+  <si>
+    <t>Pathogen-Host Interaction</t>
+  </si>
+  <si>
+    <t>Thrombotic/Ischemic Injury</t>
+  </si>
+  <si>
+    <t>RAAS-Mediated Cardiovascular/Renal, Thrombotic/Ischemic Injury</t>
+  </si>
+  <si>
+    <t>Neurodegeneration/Protein Misfolding</t>
+  </si>
+  <si>
+    <t>Pain Signal Transduction, CGRP-Mediated Neurogenic Inflammation</t>
+  </si>
+  <si>
+    <t>cured</t>
+  </si>
+  <si>
+    <t>~30% slowing</t>
+  </si>
+  <si>
+    <t>low-mild</t>
+  </si>
+  <si>
+    <t>symptom treatment</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>very effective</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Infectious Disease</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Obesity/Diabetes/Liver</t>
+  </si>
+  <si>
+    <t>rev/person</t>
+  </si>
+  <si>
+    <t>mortality rate</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>QALYs</t>
+  </si>
+  <si>
+    <t>a year of someones life globally = 18,000?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO Choice-Rule: max 3x GDP intervention QALY </t>
+  </si>
+  <si>
+    <t>USA HHS values 1 year of life at 500k</t>
+  </si>
+  <si>
+    <t>Keytruda ~3mo PFS over chemo alone should be ~160k/year which aligns with current pricing</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>Entyvio</t>
+  </si>
+  <si>
+    <t>Lymparza</t>
+  </si>
+  <si>
+    <t>Vabysmo</t>
+  </si>
+  <si>
+    <t>Shingrix</t>
+  </si>
+  <si>
+    <t>Invega Sustenna/Xeplion</t>
+  </si>
+  <si>
+    <t>OFEV</t>
+  </si>
+  <si>
+    <t>Pomalyst</t>
+  </si>
+  <si>
+    <t>Rybelsus</t>
+  </si>
+  <si>
+    <t>Sarcoidosis</t>
+  </si>
+  <si>
+    <t>Prednisone</t>
+  </si>
+  <si>
+    <t>corticosteroid</t>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+  </si>
+  <si>
+    <t>Metformin</t>
+  </si>
+  <si>
+    <t>Levothyroxine</t>
+  </si>
+  <si>
+    <t>Lisinopril</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Metoprolol</t>
+  </si>
+  <si>
+    <t>Albuterol</t>
+  </si>
+  <si>
+    <t>Losartan</t>
+  </si>
+  <si>
+    <t>Gabapentin</t>
+  </si>
+  <si>
+    <t>Omeprazole</t>
+  </si>
+  <si>
+    <t>Sertraline</t>
+  </si>
+  <si>
+    <t>Rosuvastatin</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Escitalopram</t>
+  </si>
+  <si>
+    <t>Dextroamphetamine</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Bupropion</t>
+  </si>
+  <si>
+    <t>Fluoxetine</t>
+  </si>
+  <si>
+    <t>Montelukast</t>
+  </si>
+  <si>
+    <t>Trazodone</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>Amoxicillin</t>
+  </si>
+  <si>
+    <t>Tamsulosin</t>
+  </si>
+  <si>
+    <t>Acetaminophen, Hydrocodone</t>
+  </si>
+  <si>
+    <t>Fluticasone</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Duloxetine</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Empagliflozin</t>
+  </si>
+  <si>
+    <t>Carvedilol</t>
+  </si>
+  <si>
+    <t>Tramadol</t>
+  </si>
+  <si>
+    <t>Alprazolam</t>
+  </si>
+  <si>
+    <t>Hydroxyzine</t>
+  </si>
+  <si>
+    <t>Buspirone</t>
+  </si>
+  <si>
+    <t>Glipizide</t>
+  </si>
+  <si>
+    <t>Citalopram</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>Cyclobenzaprine</t>
+  </si>
+  <si>
+    <t>Ergocalciferol</t>
+  </si>
+  <si>
+    <t>Oxycodone</t>
+  </si>
+  <si>
+    <t>Methylphenidate</t>
+  </si>
+  <si>
+    <t>Venlafaxine</t>
+  </si>
+  <si>
+    <t>Spironolactone</t>
+  </si>
+  <si>
+    <t>Ondansetron</t>
+  </si>
+  <si>
+    <t>Zolpidem</t>
+  </si>
+  <si>
+    <t>Cetirizine</t>
+  </si>
+  <si>
+    <t>Estradiol</t>
+  </si>
+  <si>
+    <t>Pravastatin</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide; Lisinopril</t>
+  </si>
+  <si>
+    <t>Lamotrigine</t>
+  </si>
+  <si>
+    <t>Quetiapine</t>
+  </si>
+  <si>
+    <t>Fluticasone; Salmeterol</t>
+  </si>
+  <si>
+    <t>Clonazepam</t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>Latanoprost</t>
+  </si>
+  <si>
+    <t>Cholecalciferol</t>
+  </si>
+  <si>
+    <t>Propanolol</t>
+  </si>
+  <si>
+    <t>Ezetimibe</t>
+  </si>
+  <si>
+    <t>Finasteride</t>
+  </si>
+  <si>
+    <t>ACEi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -826,6 +2109,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -851,7 +2142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -861,6 +2152,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,24 +2214,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="K4">
+        <row r="3">
+          <cell r="L3">
             <v>898</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="K6">
+        <row r="5">
+          <cell r="L5">
             <v>3546</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="K7">
+        <row r="6">
+          <cell r="L6">
             <v>46862</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>671916</v>
           </cell>
         </row>
       </sheetData>
@@ -948,20 +2252,69 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="PLK1"/>
+      <sheetName val="Literature"/>
+      <sheetName val="onvansertib"/>
+      <sheetName val="competitors"/>
+      <sheetName val="CRDF-004"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="K4">
+            <v>66.525999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="K8">
+            <v>76.357200000000006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -994,23 +2347,28 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
+          <cell r="L3">
             <v>1766.4</v>
           </cell>
         </row>
+        <row r="4">
+          <cell r="L4">
+            <v>344448</v>
+          </cell>
+        </row>
         <row r="5">
-          <cell r="K5">
+          <cell r="L5">
             <v>5176</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
+          <cell r="L6">
             <v>72471</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="K7">
-            <v>411743</v>
+          <cell r="K7" t="str">
+            <v>EV</v>
           </cell>
         </row>
       </sheetData>
@@ -1066,35 +2424,54 @@
       <sheetName val="Model"/>
       <sheetName val="IP"/>
       <sheetName val="Literature"/>
-      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2511.0309999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>9228</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>41548</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7" t="str">
+            <v>EV</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
-        <row r="39">
-          <cell r="AA39">
+        <row r="34">
+          <cell r="AA34">
             <v>0.02</v>
           </cell>
         </row>
-        <row r="40">
-          <cell r="AA40">
+        <row r="35">
+          <cell r="AA35">
             <v>-0.01</v>
           </cell>
         </row>
-        <row r="41">
-          <cell r="AA41">
-            <v>0.08</v>
+        <row r="36">
+          <cell r="AA36">
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
-        <row r="42">
-          <cell r="AA42">
-            <v>275409.72230189055</v>
+        <row r="37">
+          <cell r="AA37">
+            <v>264492.46738844895</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1146,12 +2523,12 @@
         </row>
         <row r="91">
           <cell r="AA91">
-            <v>8.5000000000000006E-2</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="92">
           <cell r="AA92">
-            <v>150356.31716833118</v>
+            <v>170422.41718793675</v>
           </cell>
         </row>
       </sheetData>
@@ -1243,6 +2620,121 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="IP"/>
+      <sheetName val="Literature"/>
+      <sheetName val="BNT327"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>248</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>12096.864</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>15815.535999999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="15">
+          <cell r="V15">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="V16">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="V17">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="V18">
+            <v>40109.132079243369</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Literature"/>
+      <sheetName val="ivonescimab"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>742.84670000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>298</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>19536.006890000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="51">
+          <cell r="D51">
+            <v>0.09</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
       <sheetName val="Literature"/>
       <sheetName val="IP"/>
       <sheetName val="SIGMAR1"/>
@@ -1271,11 +2763,6 @@
         <row r="7">
           <cell r="K7">
             <v>1028.2138</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>95.771000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1308,7 +2795,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1349,11 +2836,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="15">
-          <cell r="X15">
-            <v>1046.9276155393495</v>
-          </cell>
-        </row>
         <row r="17">
           <cell r="X17">
             <v>0.02</v>
@@ -1361,7 +2843,17 @@
         </row>
         <row r="18">
           <cell r="X18">
-            <v>-0.03</v>
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="X19">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="X20">
+            <v>6400.0919928067269</v>
           </cell>
         </row>
       </sheetData>
@@ -1372,109 +2864,6 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="PLK1"/>
-      <sheetName val="Literature"/>
-      <sheetName val="onvansertib"/>
-      <sheetName val="competitors"/>
-      <sheetName val="CRDF-004"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="K4">
-            <v>66.525999999999996</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>76.357200000000006</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9">
-            <v>40</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Literature"/>
-      <sheetName val="ivonescimab"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>742.84670000000006</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>298</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>19536.006890000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="51">
-          <cell r="D51">
-            <v>33010.859372419174</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1797,13 +3186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BA3935-C65F-4820-824F-2092D9DD7675}">
-  <dimension ref="B1:P131"/>
+  <dimension ref="B1:Q131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1820,16 +3209,16 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,B123)</f>
-        <v>32</v>
+        <f ca="1">RANDBETWEEN(1,B113)</f>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
-        <v>1212417.3134999999</v>
-      </c>
-      <c r="L2" s="3" t="e">
+        <v>1533987.0104999999</v>
+      </c>
+      <c r="L2" s="3">
         <f>AVERAGE(L4:L1048576)</f>
-        <v>#DIV/0!</v>
+        <v>0.11445598503191298</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -1894,18 +3283,18 @@
         <v>615130</v>
       </c>
       <c r="G4" s="2">
-        <f>[1]Main!$K$6-[1]Main!$K$7</f>
+        <f>[1]Main!$L$5-[1]Main!$L$6</f>
         <v>-43316</v>
       </c>
       <c r="H4" s="2">
         <f>[1]Main!$K$8</f>
-        <v>671916</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>243</v>
       </c>
       <c r="J4" s="2">
-        <f>[1]Main!$K$4</f>
+        <f>[1]Main!$L$3</f>
         <v>898</v>
       </c>
       <c r="K4" s="2">
@@ -1937,7 +3326,7 @@
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -1959,22 +3348,22 @@
         <v>195</v>
       </c>
       <c r="F6" s="2">
-        <f>E6*J6</f>
+        <f>[2]Main!$L$4</f>
         <v>344448</v>
       </c>
       <c r="G6" s="2">
-        <f>[2]Main!$K$5-[2]Main!$K$6</f>
+        <f>[2]Main!$L$5-[2]Main!$L$6</f>
         <v>-67295</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="str">
         <f>[2]Main!$K$7</f>
-        <v>411743</v>
+        <v>EV</v>
       </c>
       <c r="I6" t="s">
         <v>240</v>
       </c>
       <c r="J6" s="2">
-        <f>[2]Main!$K$3</f>
+        <f>[2]Main!$L$3</f>
         <v>1766.4</v>
       </c>
       <c r="K6" s="2">
@@ -2061,46 +3450,46 @@
         <v>119</v>
       </c>
       <c r="E11" s="4">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2">
         <f>E11*J11</f>
-        <v>0</v>
+        <v>213437.63500000001</v>
       </c>
       <c r="G11" s="2">
-        <f>[3]Main!$P$5-[3]Main!$P$6</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <f>[3]Main!$P$7</f>
-        <v>0</v>
+        <f>[3]Main!$L$5-[3]Main!$L$6</f>
+        <v>-32320</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>[3]Main!$K$7</f>
+        <v>EV</v>
       </c>
       <c r="I11" t="s">
         <v>240</v>
       </c>
       <c r="J11" s="2">
-        <f>[3]Main!$P$3</f>
-        <v>0</v>
+        <f>[3]Main!$L$3</f>
+        <v>2511.0309999999999</v>
       </c>
       <c r="K11" s="2">
-        <f>[3]Model!$AA$42</f>
-        <v>275409.72230189055</v>
-      </c>
-      <c r="L11" s="3" t="e">
+        <f>[3]Model!$AA$37</f>
+        <v>264492.46738844895</v>
+      </c>
+      <c r="L11" s="3">
         <f>(K11/J11)/E11-1</f>
-        <v>#DIV/0!</v>
+        <v>0.23920257731701788</v>
       </c>
       <c r="M11" s="3">
-        <f>[3]Model!$AA$39</f>
+        <f>[3]Model!$AA$34</f>
         <v>0.02</v>
       </c>
       <c r="N11" s="3">
-        <f>[3]Model!$AA$40</f>
+        <f>[3]Model!$AA$35</f>
         <v>-0.01</v>
       </c>
       <c r="O11" s="3">
-        <f>[3]Model!$AA$41</f>
-        <v>0.08</v>
+        <f>[3]Model!$AA$36</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P11">
         <v>1668</v>
@@ -2177,11 +3566,11 @@
       </c>
       <c r="K15" s="2">
         <f>[4]Model!$AA$92</f>
-        <v>150356.31716833118</v>
+        <v>170422.41718793675</v>
       </c>
       <c r="L15" s="3">
         <f>(K15/J15)/E15-1</f>
-        <v>6.9664649345622554E-2</v>
+        <v>0.21241886310556479</v>
       </c>
       <c r="M15" s="3">
         <f>[4]Model!$AA$89</f>
@@ -2193,7 +3582,7 @@
       </c>
       <c r="O15" s="6">
         <f>[4]Model!$AA$91</f>
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P15">
         <v>1987</v>
@@ -2211,7 +3600,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2223,7 +3612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2280,7 +3669,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2292,7 +3681,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2303,8 +3692,14 @@
       <c r="D20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F20" s="2">
+        <v>72000</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2316,7 +3711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2328,7 +3723,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2340,7 +3735,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2352,7 +3747,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2364,7 +3759,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2376,7 +3771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2388,7 +3783,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2400,7 +3795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2412,7 +3807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2424,7 +3819,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2436,7 +3831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2525,11 +3920,56 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D39" t="s">
         <v>143</v>
+      </c>
+      <c r="E39" s="4">
+        <v>112.55</v>
+      </c>
+      <c r="F39" s="2">
+        <f>E39*J39</f>
+        <v>27912.399999999998</v>
+      </c>
+      <c r="G39" s="2">
+        <f>[6]Main!$K$5-[6]Main!$K$6</f>
+        <v>12096.864</v>
+      </c>
+      <c r="H39" s="2">
+        <f>[6]Main!$K$7</f>
+        <v>15815.535999999998</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" s="2">
+        <f>[6]Main!$K$3</f>
+        <v>248</v>
+      </c>
+      <c r="K39" s="2">
+        <f>[6]Model!$V$18</f>
+        <v>40109.132079243369</v>
+      </c>
+      <c r="L39" s="3">
+        <f>K39/F39-1</f>
+        <v>0.43696464937602553</v>
+      </c>
+      <c r="M39" s="3">
+        <f>[6]Model!$V$15</f>
+        <v>0.02</v>
+      </c>
+      <c r="N39" s="3">
+        <f>[6]Model!$V$16</f>
+        <v>-0.01</v>
+      </c>
+      <c r="O39" s="3">
+        <f>[6]Model!$V$17</f>
+        <v>0.08</v>
+      </c>
+      <c r="P39">
+        <v>2008</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
@@ -2623,27 +4063,27 @@
         <v>20056.8609</v>
       </c>
       <c r="G46">
-        <f>[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>[7]Main!$K$5-[7]Main!$K$6</f>
         <v>298</v>
       </c>
       <c r="H46" s="2">
-        <f>[9]Main!$K$7</f>
+        <f>[7]Main!$K$7</f>
         <v>19536.006890000001</v>
       </c>
       <c r="I46" t="s">
         <v>243</v>
       </c>
       <c r="J46" s="2">
-        <f>[9]Main!$K$3</f>
+        <f>[7]Main!$K$3</f>
         <v>742.84670000000006</v>
       </c>
       <c r="K46" s="7">
-        <f>[9]ivonescimab!$D$51</f>
-        <v>33010.859372419174</v>
+        <f>[7]ivonescimab!$D$51</f>
+        <v>0.09</v>
       </c>
       <c r="L46" s="3">
         <f>K46/F46-1</f>
-        <v>0.64586370404648785</v>
+        <v>-0.99999551275743259</v>
       </c>
       <c r="M46" s="3">
         <v>0.02</v>
@@ -3433,38 +4873,38 @@
         <v>956.16639999999995</v>
       </c>
       <c r="G110" s="2">
-        <f>[6]Main!$K$5-[6]Main!$K$6</f>
+        <f>[8]Main!$K$5-[8]Main!$K$6</f>
         <v>115.771</v>
       </c>
       <c r="H110" s="2">
-        <f>[6]Main!$K$7</f>
+        <f>[8]Main!$K$7</f>
         <v>1028.2138</v>
       </c>
       <c r="I110" t="s">
         <v>243</v>
       </c>
       <c r="J110" s="2">
-        <f>[6]Main!$K$3</f>
+        <f>[8]Main!$K$3</f>
         <v>85.372</v>
       </c>
       <c r="K110" s="2">
-        <f>[6]Main!$K$11</f>
-        <v>95.771000000000001</v>
+        <f>[8]Main!$K$5</f>
+        <v>115.771</v>
       </c>
       <c r="L110" s="3">
         <f>(K110/J110)/E110-1</f>
-        <v>-0.89983856366423254</v>
+        <v>-0.87892170233130973</v>
       </c>
       <c r="M110" s="3">
-        <f>[6]Model!$R$6</f>
+        <f>[8]Model!$R$6</f>
         <v>0.02</v>
       </c>
       <c r="N110" s="3">
-        <f>[6]Model!$R$7</f>
+        <f>[8]Model!$R$7</f>
         <v>-0.01</v>
       </c>
       <c r="O110" s="3">
-        <f>[6]Model!$R$8</f>
+        <f>[8]Model!$R$8</f>
         <v>0.09</v>
       </c>
       <c r="P110">
@@ -3483,46 +4923,46 @@
         <v>239</v>
       </c>
       <c r="E111" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F111" s="2">
         <f>E111*J111</f>
-        <v>1572.432</v>
+        <v>2162.0940000000001</v>
       </c>
       <c r="G111" s="2">
-        <f>[7]Main!$K$5-[7]Main!$K$6</f>
+        <f>[9]Main!$K$5-[9]Main!$K$6</f>
         <v>-1194.46</v>
       </c>
       <c r="H111" s="2">
-        <f>[7]Main!$K$7</f>
+        <f>[9]Main!$K$7</f>
         <v>3356.5540000000001</v>
       </c>
       <c r="I111" t="s">
         <v>240</v>
       </c>
       <c r="J111" s="2">
-        <f>[7]Main!$K$3</f>
+        <f>[9]Main!$K$3</f>
         <v>98.277000000000001</v>
       </c>
       <c r="K111" s="2">
-        <f>[7]Model!$X$18</f>
-        <v>-0.03</v>
+        <f>[9]Model!$X$20</f>
+        <v>6400.0919928067269</v>
       </c>
       <c r="L111" s="3">
         <f>(K111/J111)/E111-1</f>
-        <v>-1.0000190787264569</v>
+        <v>1.9601358649562539</v>
       </c>
       <c r="M111" s="3">
-        <f>[7]Model!$X$15</f>
-        <v>1046.9276155393495</v>
+        <f>[9]Model!$X$17</f>
+        <v>0.02</v>
       </c>
       <c r="N111" s="3">
-        <f>[7]Model!$X$16</f>
-        <v>0</v>
+        <f>[9]Model!$X$18</f>
+        <v>-0.01</v>
       </c>
       <c r="O111" s="3">
-        <f>[7]Model!$X$17</f>
-        <v>0.02</v>
+        <f>[9]Model!$X$19</f>
+        <v>0.09</v>
       </c>
       <c r="P111">
         <v>1980</v>
@@ -3547,27 +4987,27 @@
         <v>146.35720000000001</v>
       </c>
       <c r="G112" s="2">
-        <f>[8]Main!$K$6-[8]Main!$K$7</f>
+        <f>[10]Main!$K$6-[10]Main!$K$7</f>
         <v>70</v>
       </c>
       <c r="H112" s="2">
-        <f>[8]Main!$K$8</f>
+        <f>[10]Main!$K$8</f>
         <v>76.357200000000006</v>
       </c>
       <c r="I112" t="s">
         <v>243</v>
       </c>
       <c r="J112" s="2">
-        <f>[8]Main!$K$4</f>
+        <f>[10]Main!$K$4</f>
         <v>66.525999999999996</v>
       </c>
       <c r="K112" s="2">
-        <f>[8]Main!$N$9</f>
-        <v>40</v>
+        <f>[10]Main!$K$6</f>
+        <v>70</v>
       </c>
       <c r="L112" s="3">
         <f>(K112/J112)/E112-1</f>
-        <v>-0.72669605595078346</v>
+        <v>-0.52171809791387103</v>
       </c>
       <c r="P112">
         <v>1999</v>
@@ -3598,29 +5038,74 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
+      <c r="C114" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D114" t="s">
+        <v>246</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
+      <c r="C115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" t="s">
+        <v>247</v>
+      </c>
+      <c r="F115" s="2">
+        <v>2130</v>
+      </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
+      <c r="C116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D116" t="s">
+        <v>248</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1390</v>
+      </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
+      <c r="C117" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" t="s">
+        <v>249</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1070</v>
+      </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118">
         <f t="shared" si="1"/>
         <v>115</v>
+      </c>
+      <c r="C118" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" s="2">
+        <v>2040</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.2">
@@ -3712,6 +5197,9 @@
     <hyperlink ref="C110" r:id="rId7" xr:uid="{0C7DF959-DEE9-40DE-A923-1865C8861848}"/>
     <hyperlink ref="C111" r:id="rId8" xr:uid="{7DDA4514-7690-4C3C-8E24-54A3E69AA25E}"/>
     <hyperlink ref="C46" r:id="rId9" xr:uid="{385039E3-A799-4AA7-9730-76F3DEA74624}"/>
+    <hyperlink ref="C39" r:id="rId10" xr:uid="{D07F628A-D0BE-4C2B-B559-8EAF1F113361}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{CD50D93B-64A5-4204-9920-7EC8CA8C2850}"/>
+    <hyperlink ref="C114" r:id="rId12" xr:uid="{D8292DBC-5B64-4D38-BBD2-2D44F8444791}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3719,10 +5207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A7E85D-B115-45C7-B96C-D7F476FE089A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3737,69 +5225,93 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>435</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="J10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="J11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E11" s="3"/>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>437</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>438</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>439</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
       <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3811,26 +5323,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B2AD0-6E41-4DC9-AA4F-9BFB6D36429D}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -3857,6 +5381,2379 @@
       </c>
       <c r="J2" t="s">
         <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N2" t="s">
+        <v>602</v>
+      </c>
+      <c r="O2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="12">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12">
+        <v>2002</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
+        <v>240</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M3" s="13">
+        <v>8993</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2002</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1076</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
+        <v>1996</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="J4" s="12">
+        <v>558</v>
+      </c>
+      <c r="K4" s="12">
+        <v>164</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12">
+        <v>1996</v>
+      </c>
+      <c r="O4" s="12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9037</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
+        <v>2014</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <v>150</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M5" s="13">
+        <v>29482</v>
+      </c>
+      <c r="N5" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O5" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="12">
+        <v>480</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
+        <v>259</v>
+      </c>
+      <c r="K6" s="12">
+        <v>130</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M6" s="13">
+        <v>5773</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" s="12">
+        <v>934</v>
+      </c>
+      <c r="K7" s="12">
+        <v>120</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" s="13">
+        <v>3316</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1998</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="12">
+        <v>73</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>110</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12">
+        <v>1997</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <v>110</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="M9" s="13">
+        <v>7785</v>
+      </c>
+      <c r="N9" s="12">
+        <v>2021</v>
+      </c>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12">
+        <v>95</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12">
+        <v>2004</v>
+      </c>
+      <c r="O10" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12">
+        <v>90.3</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
+        <v>85</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12">
+        <v>83.7</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <v>1997</v>
+      </c>
+      <c r="O13" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
+        <v>80</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="M14" s="13">
+        <v>20703</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2012</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
+        <v>80</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12">
+        <v>2000</v>
+      </c>
+      <c r="O15" s="12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
+        <v>75</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12">
+        <v>2000</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
+        <v>70</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="M17" s="13">
+        <v>13423</v>
+      </c>
+      <c r="N17" s="12">
+        <v>2018</v>
+      </c>
+      <c r="O17" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12">
+        <v>70</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="M18" s="13">
+        <v>9546</v>
+      </c>
+      <c r="N18" s="12">
+        <v>2011</v>
+      </c>
+      <c r="O18" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
+        <v>70</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="M19" s="13">
+        <v>10361</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
+        <v>65</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12">
+        <v>2006</v>
+      </c>
+      <c r="O20" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
+        <v>65</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M21" s="13">
+        <v>9304</v>
+      </c>
+      <c r="N21" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O21" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
+        <v>60</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M22" s="13">
+        <v>17451</v>
+      </c>
+      <c r="N22" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O22" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12">
+        <v>60</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="M23" s="13">
+        <v>6411</v>
+      </c>
+      <c r="N23" s="12">
+        <v>2021</v>
+      </c>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
+        <v>55</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O24" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12">
+        <v>55</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="M25" s="13">
+        <v>8583</v>
+      </c>
+      <c r="N25" s="12">
+        <v>2006</v>
+      </c>
+      <c r="O25" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12">
+        <v>52</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12">
+        <v>2004</v>
+      </c>
+      <c r="O26" s="12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
+        <v>50</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="M27" s="13">
+        <v>5600</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
+        <v>50</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="M28" s="13">
+        <v>14147</v>
+      </c>
+      <c r="N28" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O28" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12">
+        <v>50</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M29" s="13">
+        <v>3347</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12">
+        <v>50</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="M30" s="13">
+        <v>11670</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12">
+        <v>46</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12">
+        <v>2013</v>
+      </c>
+      <c r="O31" s="12">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12">
+        <v>45</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M32" s="13">
+        <v>12385</v>
+      </c>
+      <c r="N32" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O32" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12">
+        <v>40</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M33" s="13">
+        <v>5254</v>
+      </c>
+      <c r="N33" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O33" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12">
+        <v>40</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="M34" s="13">
+        <v>6141</v>
+      </c>
+      <c r="N34" s="12">
+        <v>2015</v>
+      </c>
+      <c r="O34" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
+        <v>40</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="M35" s="13">
+        <v>4367</v>
+      </c>
+      <c r="N35" s="12">
+        <v>2015</v>
+      </c>
+      <c r="O35" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12">
+        <v>35</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="M36" s="13">
+        <v>11718</v>
+      </c>
+      <c r="N36" s="12">
+        <v>2019</v>
+      </c>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12">
+        <v>35</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="M37" s="13">
+        <v>4022</v>
+      </c>
+      <c r="N37" s="12">
+        <v>2003</v>
+      </c>
+      <c r="O37" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
+        <v>35</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="M38" s="13">
+        <v>7655</v>
+      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
+        <v>35</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="M39" s="13">
+        <v>7656</v>
+      </c>
+      <c r="N39" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O39" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
+        <v>35</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="M40" s="13">
+        <v>5716</v>
+      </c>
+      <c r="N40" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O40" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12">
+        <v>30</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="M41" s="13">
+        <v>5380</v>
+      </c>
+      <c r="N41" s="12">
+        <v>2021</v>
+      </c>
+      <c r="O41" s="12">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12">
+        <v>30</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="M42" s="13">
+        <v>4104</v>
+      </c>
+      <c r="N42" s="12">
+        <v>2012</v>
+      </c>
+      <c r="O42" s="12">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12">
+        <v>30</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" s="13">
+        <v>3682</v>
+      </c>
+      <c r="N43" s="12">
+        <v>2005</v>
+      </c>
+      <c r="O43" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12">
+        <v>30</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M44" s="13">
+        <v>7882</v>
+      </c>
+      <c r="N44" s="12">
+        <v>2015</v>
+      </c>
+      <c r="O44" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12">
+        <v>25</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="M45" s="13">
+        <v>6580</v>
+      </c>
+      <c r="N45" s="12">
+        <v>2015</v>
+      </c>
+      <c r="O45" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" t="s">
+        <v>376</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12">
+        <v>25</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" s="13">
+        <v>5307</v>
+      </c>
+      <c r="N46" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O46" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12">
+        <v>25</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M47" s="13">
+        <v>4717</v>
+      </c>
+      <c r="N47" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O47" s="12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12">
+        <v>25</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="M48" s="13">
+        <v>10238</v>
+      </c>
+      <c r="N48" s="12">
+        <v>2019</v>
+      </c>
+      <c r="O48" s="12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12">
+        <v>25</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="M49" s="13">
+        <v>4374</v>
+      </c>
+      <c r="N49" s="12">
+        <v>2010</v>
+      </c>
+      <c r="O49" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C50" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12">
+        <v>20</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" s="13">
+        <v>5111</v>
+      </c>
+      <c r="N50" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O50" s="12">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" t="s">
+        <v>380</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12">
+        <v>20</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" s="13">
+        <v>5971</v>
+      </c>
+      <c r="N51" s="12">
+        <v>2019</v>
+      </c>
+      <c r="O51" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" t="s">
+        <v>384</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12">
+        <v>20</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="M52" s="13">
+        <v>11540</v>
+      </c>
+      <c r="N52" s="12">
+        <v>2022</v>
+      </c>
+      <c r="O52" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12">
+        <v>20</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M53" s="13">
+        <v>4132</v>
+      </c>
+      <c r="N53" s="12">
+        <v>2016</v>
+      </c>
+      <c r="O53" s="12">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12">
+        <v>18</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="M54" s="13">
+        <v>5451</v>
+      </c>
+      <c r="N54" s="12">
+        <v>2019</v>
+      </c>
+      <c r="O54" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>336</v>
+      </c>
+      <c r="C55" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12">
+        <v>15</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="M55" s="13">
+        <v>8442</v>
+      </c>
+      <c r="N55" s="12">
+        <v>2021</v>
+      </c>
+      <c r="O55" s="12">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>337</v>
+      </c>
+      <c r="C56" t="s">
+        <v>383</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12">
+        <v>15</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="M56" s="13">
+        <v>3670</v>
+      </c>
+      <c r="N56" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O56" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>604</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="13">
+        <v>5291</v>
+      </c>
+      <c r="N57" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O57" s="12">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>605</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="13">
+        <v>4983</v>
+      </c>
+      <c r="N58" s="12">
+        <v>2018</v>
+      </c>
+      <c r="O58" s="12">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>606</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="13">
+        <v>4386</v>
+      </c>
+      <c r="N59" s="12">
+        <v>2023</v>
+      </c>
+      <c r="O59" s="12">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>607</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="13">
+        <v>4342</v>
+      </c>
+      <c r="N60" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O60" s="12">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>608</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="13">
+        <v>4222</v>
+      </c>
+      <c r="N61" s="12">
+        <v>2009</v>
+      </c>
+      <c r="O61" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>609</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="13">
+        <v>4076</v>
+      </c>
+      <c r="N62" s="12">
+        <v>2014</v>
+      </c>
+      <c r="O62" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>610</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="13">
+        <v>3545</v>
+      </c>
+      <c r="N63" s="12">
+        <v>2013</v>
+      </c>
+      <c r="O63" s="12">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>611</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="13">
+        <v>3381</v>
+      </c>
+      <c r="N64" s="12">
+        <v>2019</v>
+      </c>
+      <c r="O64" s="12">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>477</v>
+      </c>
+      <c r="C65" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>478</v>
+      </c>
+      <c r="C67" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>616</v>
+      </c>
+      <c r="C70" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>617</v>
+      </c>
+      <c r="C71" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>618</v>
+      </c>
+      <c r="C72" t="s">
+        <v>618</v>
+      </c>
+      <c r="F72" t="s">
+        <v>677</v>
+      </c>
+      <c r="L72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>620</v>
+      </c>
+      <c r="C74" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>621</v>
+      </c>
+      <c r="C75" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>622</v>
+      </c>
+      <c r="C76" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>623</v>
+      </c>
+      <c r="C77" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>624</v>
+      </c>
+      <c r="C78" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>625</v>
+      </c>
+      <c r="C79" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>626</v>
+      </c>
+      <c r="C80" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>627</v>
+      </c>
+      <c r="C81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>628</v>
+      </c>
+      <c r="C82" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>629</v>
+      </c>
+      <c r="C83" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>630</v>
+      </c>
+      <c r="C84" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>631</v>
+      </c>
+      <c r="C85" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>632</v>
+      </c>
+      <c r="C86" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>633</v>
+      </c>
+      <c r="C87" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>634</v>
+      </c>
+      <c r="C88" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>635</v>
+      </c>
+      <c r="C89" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>636</v>
+      </c>
+      <c r="C90" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>637</v>
+      </c>
+      <c r="C91" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>638</v>
+      </c>
+      <c r="C92" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>639</v>
+      </c>
+      <c r="C93" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>640</v>
+      </c>
+      <c r="C94" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>641</v>
+      </c>
+      <c r="C95" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>642</v>
+      </c>
+      <c r="C96" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>643</v>
+      </c>
+      <c r="C97" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>644</v>
+      </c>
+      <c r="C98" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>645</v>
+      </c>
+      <c r="C99" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>646</v>
+      </c>
+      <c r="C100" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>647</v>
+      </c>
+      <c r="C101" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>613</v>
+      </c>
+      <c r="C102" t="s">
+        <v>613</v>
+      </c>
+      <c r="I102" t="s">
+        <v>614</v>
+      </c>
+      <c r="L102" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="N102" s="12">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>648</v>
+      </c>
+      <c r="C103" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>649</v>
+      </c>
+      <c r="C104" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>650</v>
+      </c>
+      <c r="C106" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>651</v>
+      </c>
+      <c r="C107" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>652</v>
+      </c>
+      <c r="C108" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>653</v>
+      </c>
+      <c r="C109" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>654</v>
+      </c>
+      <c r="C110" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>655</v>
+      </c>
+      <c r="C111" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>656</v>
+      </c>
+      <c r="C112" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>657</v>
+      </c>
+      <c r="C113" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>658</v>
+      </c>
+      <c r="C114" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>659</v>
+      </c>
+      <c r="C115" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>660</v>
+      </c>
+      <c r="C116" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>661</v>
+      </c>
+      <c r="C117" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>662</v>
+      </c>
+      <c r="C118" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>663</v>
+      </c>
+      <c r="C119" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>664</v>
+      </c>
+      <c r="C120" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>665</v>
+      </c>
+      <c r="C121" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>666</v>
+      </c>
+      <c r="C122" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>667</v>
+      </c>
+      <c r="C123" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>668</v>
+      </c>
+      <c r="C124" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>669</v>
+      </c>
+      <c r="C125" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>670</v>
+      </c>
+      <c r="C126" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>671</v>
+      </c>
+      <c r="C127" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>630</v>
+      </c>
+      <c r="C128" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>672</v>
+      </c>
+      <c r="C129" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>673</v>
+      </c>
+      <c r="C130" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>674</v>
+      </c>
+      <c r="C131" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>675</v>
+      </c>
+      <c r="C132" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>675</v>
+      </c>
+      <c r="C133" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -3868,21 +7765,2309 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC8C1E-B59B-40F8-80DC-62A32A02DE98}">
+  <dimension ref="A1:DB57"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" t="s">
+        <v>597</v>
+      </c>
+      <c r="M2" t="s">
+        <v>474</v>
+      </c>
+      <c r="N2" t="s">
+        <v>468</v>
+      </c>
+      <c r="O2" t="s">
+        <v>472</v>
+      </c>
+      <c r="P2" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>470</v>
+      </c>
+      <c r="R2" t="s">
+        <v>471</v>
+      </c>
+      <c r="S2" t="s">
+        <v>475</v>
+      </c>
+      <c r="T2" t="s">
+        <v>476</v>
+      </c>
+      <c r="U2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="13">
+        <v>84000</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1700</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C4" s="13">
+        <v>25100</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="13">
+        <v>24540</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6810</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1048</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="13">
+        <v>928</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="13">
+        <v>400</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="13">
+        <v>14520</v>
+      </c>
+      <c r="D8" s="12">
+        <v>850</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="13">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="12">
+        <v>800</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" s="13">
+        <v>153000</v>
+      </c>
+      <c r="D10" s="12">
+        <v>612</v>
+      </c>
+      <c r="E10" s="13">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="13">
+        <v>9910</v>
+      </c>
+      <c r="D11" s="12">
+        <v>595</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="13">
+        <v>88320</v>
+      </c>
+      <c r="D12" s="12">
+        <v>589</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="13">
+        <v>20000</v>
+      </c>
+      <c r="D13" s="12">
+        <v>480</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3300</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11900</v>
+      </c>
+      <c r="D14" s="12">
+        <v>301</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" s="13">
+        <v>19000</v>
+      </c>
+      <c r="D15" s="12">
+        <v>280</v>
+      </c>
+      <c r="E15" s="13">
+        <v>800</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="13">
+        <v>25000</v>
+      </c>
+      <c r="D16" s="12">
+        <v>262</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" s="12">
+        <v>254</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="12">
+        <v>500</v>
+      </c>
+      <c r="D18" s="12">
+        <v>249</v>
+      </c>
+      <c r="E18" s="13">
+        <v>608</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19" s="12">
+        <v>200</v>
+      </c>
+      <c r="E19" s="13">
+        <v>9100</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="13">
+        <v>15000</v>
+      </c>
+      <c r="D20" s="12">
+        <v>125</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="12">
+        <v>101</v>
+      </c>
+      <c r="E21" s="13">
+        <v>7300</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" s="13">
+        <v>25050</v>
+      </c>
+      <c r="D22" s="12">
+        <v>84</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" s="13">
+        <v>6120</v>
+      </c>
+      <c r="D23" s="12">
+        <v>60</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C24" s="13">
+        <v>8000</v>
+      </c>
+      <c r="D24" s="12">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="12">
+        <v>50</v>
+      </c>
+      <c r="E25" s="12">
+        <v>242</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>612</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12">
+        <v>43</v>
+      </c>
+      <c r="E26" s="12">
+        <v>188</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C27" s="13">
+        <v>36000</v>
+      </c>
+      <c r="D27" s="12">
+        <v>39</v>
+      </c>
+      <c r="E27" s="13">
+        <v>630</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="13">
+        <v>8750</v>
+      </c>
+      <c r="D28" s="12">
+        <v>24</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>513</v>
+      </c>
+      <c r="C29" s="13">
+        <v>179000</v>
+      </c>
+      <c r="D29" s="12">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13">
+        <v>9700</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>450</v>
+      </c>
+      <c r="C30" s="13">
+        <v>63000</v>
+      </c>
+      <c r="D30" s="12">
+        <v>18</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1500</v>
+      </c>
+      <c r="D31" s="12">
+        <v>11</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1300</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D32" s="12">
+        <v>10</v>
+      </c>
+      <c r="E32" s="13">
+        <v>174</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+    </row>
+    <row r="33" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>522</v>
+      </c>
+      <c r="C33" s="13">
+        <v>8000</v>
+      </c>
+      <c r="D33" s="12">
+        <v>13</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+    </row>
+    <row r="34" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>499</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1800</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+    </row>
+    <row r="35" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E35" s="13">
+        <v>670</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+    </row>
+    <row r="36" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>454</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D36" s="15">
+        <f>D34*0.85</f>
+        <v>2.125</v>
+      </c>
+      <c r="E36" s="13">
+        <f>E34*0.85</f>
+        <v>1530</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+    </row>
+    <row r="37" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E37" s="13">
+        <v>900</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+    </row>
+    <row r="38" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="13">
+        <v>375</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+    </row>
+    <row r="39" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>501</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+    </row>
+    <row r="40" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+    </row>
+    <row r="41" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+    </row>
+    <row r="42" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" s="13">
+        <f>SUM(C3:C40)</f>
+        <v>883948</v>
+      </c>
+      <c r="D42" s="13">
+        <f>SUM(D33,D27:D31,D22:D24,D20,D18,D3:D16)</f>
+        <v>12015</v>
+      </c>
+      <c r="E42" s="13">
+        <f>SUM(E3:E33)</f>
+        <v>71542</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+    </row>
+    <row r="43" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="45" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>590</v>
+      </c>
+      <c r="C45" s="13">
+        <f>SUM(C29)</f>
+        <v>179000</v>
+      </c>
+      <c r="D45" s="13">
+        <f>SUM(D29)</f>
+        <v>20</v>
+      </c>
+      <c r="E45" s="13">
+        <f>SUM(E29)/1000</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F45" s="14">
+        <f>E45/D45</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" ref="G45:G51" si="0">C45/D45</f>
+        <v>8950</v>
+      </c>
+      <c r="H45" s="14">
+        <f>C45/$C$42</f>
+        <v>0.20250059958278088</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2"/>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2"/>
+      <c r="BE45" s="2"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45" s="2"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45" s="2"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
+      <c r="BQ45" s="2"/>
+      <c r="BR45" s="2"/>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="2"/>
+      <c r="BU45" s="2"/>
+      <c r="BV45" s="2"/>
+      <c r="BW45" s="2"/>
+      <c r="BX45" s="2"/>
+      <c r="BY45" s="2"/>
+      <c r="BZ45" s="2"/>
+      <c r="CA45" s="2"/>
+      <c r="CB45" s="2"/>
+      <c r="CC45" s="2"/>
+      <c r="CD45" s="2"/>
+      <c r="CE45" s="2"/>
+      <c r="CF45" s="2"/>
+      <c r="CG45" s="2"/>
+      <c r="CH45" s="2"/>
+      <c r="CI45" s="2"/>
+      <c r="CJ45" s="2"/>
+      <c r="CK45" s="2"/>
+      <c r="CL45" s="2"/>
+      <c r="CM45" s="2"/>
+      <c r="CN45" s="2"/>
+      <c r="CO45" s="2"/>
+      <c r="CP45" s="2"/>
+      <c r="CQ45" s="2"/>
+      <c r="CR45" s="2"/>
+      <c r="CS45" s="2"/>
+      <c r="CT45" s="2"/>
+      <c r="CU45" s="2"/>
+      <c r="CV45" s="2"/>
+      <c r="CW45" s="2"/>
+      <c r="CX45" s="2"/>
+      <c r="CY45" s="2"/>
+      <c r="CZ45" s="2"/>
+      <c r="DA45" s="2"/>
+      <c r="DB45" s="2"/>
+    </row>
+    <row r="46" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>591</v>
+      </c>
+      <c r="C46" s="13">
+        <f>SUM(C31,C27,C25,C17,C18,C7)</f>
+        <v>38928</v>
+      </c>
+      <c r="D46" s="13">
+        <f>SUM(D31,D27,D25,D17,D18,D7)</f>
+        <v>1603</v>
+      </c>
+      <c r="E46" s="13">
+        <f>SUM(E31,E27,E25,E17,E18,E7)/1000</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" ref="F46:F51" si="1">E46/D46</f>
+        <v>2.7947598253275112E-3</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="0"/>
+        <v>24.284466625077979</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" ref="H46:H51" si="2">C46/$C$42</f>
+        <v>4.4038789612058628E-2</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>593</v>
+      </c>
+      <c r="C47" s="13">
+        <f>SUM(C32,C12,C9,C4)</f>
+        <v>163420</v>
+      </c>
+      <c r="D47" s="13">
+        <f>SUM(D32,D12,D9,D4)</f>
+        <v>2899</v>
+      </c>
+      <c r="E47" s="13">
+        <f>SUM(E32,E28,E27,E18,E19,E8)/1000</f>
+        <v>11.712</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="1"/>
+        <v>4.0400137978613311E-3</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="0"/>
+        <v>56.371162469817179</v>
+      </c>
+      <c r="H47" s="14">
+        <f t="shared" si="2"/>
+        <v>0.18487512840121817</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:106" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C48" s="13">
+        <f>SUM(C28,C24,C23,C22,C15,C14,C1)</f>
+        <v>78820</v>
+      </c>
+      <c r="D48" s="13">
+        <f>SUM(D28,D24,D23,D22,D15,D14,D1)</f>
+        <v>804</v>
+      </c>
+      <c r="E48" s="13">
+        <f>SUM(E33,E29,E28,E19,E20,E9)/1000</f>
+        <v>18.8</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="1"/>
+        <v>2.3383084577114428E-2</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="0"/>
+        <v>98.03482587064677</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="2"/>
+        <v>8.9168141112373131E-2</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" s="13">
+        <f>SUM(C33,C30,C20,C13,C16)</f>
+        <v>131000</v>
+      </c>
+      <c r="D49" s="13">
+        <f>SUM(D33,D30,D20,D13,D16)</f>
+        <v>898</v>
+      </c>
+      <c r="E49" s="13">
+        <f>SUM(E34,E30,E29,E20,E21,E10)/1000</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="1"/>
+        <v>4.320712694877505E-2</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="0"/>
+        <v>145.87973273942094</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="2"/>
+        <v>0.1481987628231525</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>592</v>
+      </c>
+      <c r="C50" s="13">
+        <f>SUM(C3,C6,C11)</f>
+        <v>100720</v>
+      </c>
+      <c r="D50" s="13">
+        <f>SUM(D3,D6,D11)</f>
+        <v>3343</v>
+      </c>
+      <c r="E50" s="13">
+        <f>SUM(E35,E31,E30,E21,E22,E11)/1000</f>
+        <v>9.27</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7729584205803169E-3</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="0"/>
+        <v>30.128626981752916</v>
+      </c>
+      <c r="H50" s="14">
+        <f t="shared" si="2"/>
+        <v>0.11394335413395358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>491</v>
+      </c>
+      <c r="B51" t="s">
+        <v>525</v>
+      </c>
+      <c r="C51" s="13">
+        <f>SUM(C5,C8,C10,C19)</f>
+        <v>192060</v>
+      </c>
+      <c r="D51" s="13">
+        <f>SUM(D5,D8,D10,D19)</f>
+        <v>2962</v>
+      </c>
+      <c r="E51" s="13">
+        <f>SUM(E36,E32,E31,E22,E23,E12)/1000</f>
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="1"/>
+        <v>1.5205941931127616E-3</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="0"/>
+        <v>64.841323430114784</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" si="2"/>
+        <v>0.21727522433446311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>454</v>
+      </c>
+      <c r="C53" s="2">
+        <f>D53*G53</f>
+        <v>27901.25</v>
+      </c>
+      <c r="D53" s="10">
+        <f>D36</f>
+        <v>2.125</v>
+      </c>
+      <c r="E53" s="10">
+        <f>E36/1000</f>
+        <v>1.53</v>
+      </c>
+      <c r="F53" s="3">
+        <f>E53/D53</f>
+        <v>0.72</v>
+      </c>
+      <c r="G53" s="2">
+        <v>13130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="G54" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G57" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B1C32F4A-26DB-4731-A542-EEE3F60BB487}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -3891,4 +10076,224 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C0D4FA-4A0D-4093-BFB0-AC151F092109}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22000</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18200</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>1989</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16100</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11300</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7020</v>
+      </c>
+      <c r="F8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="2">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AF3E7F5B-DADA-4CB8-ACE5-C72ABEFBF5E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5458DC25-C0C7-48F6-B24A-7752681371CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A52EE-EA84-48C6-A8C5-50FB8452FA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="480" windowWidth="22200" windowHeight="14805" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="2520" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Todo" sheetId="7" r:id="rId2"/>
-    <sheet name="Drugs" sheetId="6" r:id="rId3"/>
-    <sheet name="Diseases" sheetId="9" r:id="rId4"/>
-    <sheet name="Private" sheetId="5" r:id="rId5"/>
-    <sheet name="Funds" sheetId="8" r:id="rId6"/>
+    <sheet name="Clinical Trials" sheetId="10" r:id="rId3"/>
+    <sheet name="Drugs" sheetId="6" r:id="rId4"/>
+    <sheet name="Diseases" sheetId="9" r:id="rId5"/>
+    <sheet name="Private" sheetId="5" r:id="rId6"/>
+    <sheet name="Funds" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
@@ -31,6 +31,9 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="785">
   <si>
     <t>Name</t>
   </si>
@@ -2029,9 +2032,6 @@
     <t>Oxycodone</t>
   </si>
   <si>
-    <t>Methylphenidate</t>
-  </si>
-  <si>
     <t>Venlafaxine</t>
   </si>
   <si>
@@ -2087,6 +2087,330 @@
   </si>
   <si>
     <t>ACEi</t>
+  </si>
+  <si>
+    <t>aTyr Pharma</t>
+  </si>
+  <si>
+    <t>ATYR</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC10173933/</t>
+  </si>
+  <si>
+    <t>Overall success rate of clinical trials is ~8%</t>
+  </si>
+  <si>
+    <t>"Johnson noted that approximately 80% of clinical trials do not meet the initial enrollment goals and timelines, and these delays result in a loss of $8 million in revenue per day for drug discovery companies"</t>
+  </si>
+  <si>
+    <t>Clinical Trial Success Factors</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Strength of Phase 2 data</t>
+  </si>
+  <si>
+    <t>Sponsors previous experience</t>
+  </si>
+  <si>
+    <t>Average 7.6 years for clinical trials</t>
+  </si>
+  <si>
+    <t>Cost of clinical trials</t>
+  </si>
+  <si>
+    <t>1970-2000</t>
+  </si>
+  <si>
+    <t>2000-2015</t>
+  </si>
+  <si>
+    <t>2015-2025</t>
+  </si>
+  <si>
+    <t>est.</t>
+  </si>
+  <si>
+    <t>ATYR - finish</t>
+  </si>
+  <si>
+    <t>SLNO</t>
+  </si>
+  <si>
+    <t>NTLA - finish</t>
+  </si>
+  <si>
+    <t>RXRX</t>
+  </si>
+  <si>
+    <t>Head &amp; Neck Cancer</t>
+  </si>
+  <si>
+    <t>Ovarian Cancer</t>
+  </si>
+  <si>
+    <t>AML</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>Gastric Cancer</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Esophageal Cancer</t>
+  </si>
+  <si>
+    <t>MDS</t>
+  </si>
+  <si>
+    <t>Sarcoma</t>
+  </si>
+  <si>
+    <t>Hyperlipidemia</t>
+  </si>
+  <si>
+    <t>Dry Eye</t>
+  </si>
+  <si>
+    <t>GBM</t>
+  </si>
+  <si>
+    <t>Liver Cancer</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>ITP</t>
+  </si>
+  <si>
+    <t>NASH</t>
+  </si>
+  <si>
+    <t>Bladder Cancer</t>
+  </si>
+  <si>
+    <t>Optic Neuritis</t>
+  </si>
+  <si>
+    <t>Myasthenia Gravis</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Hodgkin's Disease</t>
+  </si>
+  <si>
+    <t>Renal Cancer</t>
+  </si>
+  <si>
+    <t>Dermatitis</t>
+  </si>
+  <si>
+    <t>Campylobacter Enteritis</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Retinis Pigmentosa</t>
+  </si>
+  <si>
+    <t>CLL</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>Heart Failure</t>
+  </si>
+  <si>
+    <t>Grave's Disease</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Pulmonary Fibrosis</t>
+  </si>
+  <si>
+    <t>Neuropathy</t>
+  </si>
+  <si>
+    <t>ALS</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Cervical Cancer</t>
+  </si>
+  <si>
+    <t>Brain Cancer</t>
+  </si>
+  <si>
+    <t>Glaucoma</t>
+  </si>
+  <si>
+    <t>GvHD</t>
+  </si>
+  <si>
+    <t>Macular Edema</t>
+  </si>
+  <si>
+    <t>Addiction</t>
+  </si>
+  <si>
+    <t>Biliary Cancer</t>
+  </si>
+  <si>
+    <t>Dermal Ulcers</t>
+  </si>
+  <si>
+    <t>Uterine Cancer</t>
+  </si>
+  <si>
+    <t>NAFLD</t>
+  </si>
+  <si>
+    <t>Diabetic Retinopathy</t>
+  </si>
+  <si>
+    <t>Gram-negative Bacterial Infection</t>
+  </si>
+  <si>
+    <t>Skin Cancer</t>
+  </si>
+  <si>
+    <t>Liver Fibrosis</t>
+  </si>
+  <si>
+    <t>Diabetic Nephropathy</t>
+  </si>
+  <si>
+    <t>Cirrhosis</t>
+  </si>
+  <si>
+    <t>Pompe's Disease</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>RSV</t>
+  </si>
+  <si>
+    <t>Acute Kidney Injury</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>PBC</t>
+  </si>
+  <si>
+    <t>HPV</t>
+  </si>
+  <si>
+    <t>Scleroderma</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Uveitis</t>
+  </si>
+  <si>
+    <t>Guillain-Barre Syndrome</t>
+  </si>
+  <si>
+    <t>Ebola</t>
+  </si>
+  <si>
+    <t>part of leukemia</t>
+  </si>
+  <si>
+    <t>part of cardiovascular</t>
+  </si>
+  <si>
+    <t>part of brain cancer</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>part of liver disease</t>
+  </si>
+  <si>
+    <t>leading cause of blindness</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>MPDs</t>
+  </si>
+  <si>
+    <t>part of liver cancer</t>
+  </si>
+  <si>
+    <t>median survival 30 years</t>
+  </si>
+  <si>
+    <t>leading cause of death</t>
+  </si>
+  <si>
+    <t>progressive</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>OS most important, PFS very important and other surrogate endpoints,</t>
+  </si>
+  <si>
+    <t>FDA Guidelines</t>
+  </si>
+  <si>
+    <t>Statistical Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log-rank test PFS, fisher's exact or chi-square test ORR, </t>
+  </si>
+  <si>
+    <t>t-test ADAS-Cog</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2170,6 +2494,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2195,12 +2528,14 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Master"/>
+      <sheetName val="IP"/>
+      <sheetName val="Trials"/>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Literature"/>
-      <sheetName val="IP"/>
-      <sheetName val="Trials"/>
       <sheetName val="GLP-1s"/>
+      <sheetName val="Obesity"/>
       <sheetName val="Mounjaro-Zepbound"/>
       <sheetName val="Trulicity"/>
       <sheetName val="Kisunla"/>
@@ -2213,7 +2548,10 @@
       <sheetName val="olomorasib"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
         <row r="3">
           <cell r="L3">
             <v>898</v>
@@ -2229,8 +2567,13 @@
             <v>46862</v>
           </cell>
         </row>
+        <row r="7">
+          <cell r="L7">
+            <v>671916</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="4">
         <row r="32">
           <cell r="AI32">
             <v>0.02</v>
@@ -2252,26 +2595,99 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="IP"/>
+      <sheetName val="Literature"/>
+      <sheetName val="elevidys"/>
+      <sheetName val="exondys"/>
+      <sheetName val="vyondys"/>
+      <sheetName val="amondys"/>
+      <sheetName val="SRP-9003"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>98.277000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>522.70000000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1717.16</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7">
+            <v>3356.5540000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="17">
+          <cell r="X17">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="X18">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="X19">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="X20">
+            <v>4891.1877390474529</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2309,7 +2725,120 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Efzofitimod"/>
+      <sheetName val="NRP2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="P3">
+            <v>89</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="P5">
+            <v>76.36</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6">
+            <v>11.7</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="P7">
+            <v>407.03999999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="IP"/>
+      <sheetName val="Literature"/>
+      <sheetName val="remicade"/>
+      <sheetName val="darzalex"/>
+      <sheetName val="stelara"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2408.3388</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>18880</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>61999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>476619.984</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="39">
+          <cell r="AI39">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AI40">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AI41">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AI42">
+            <v>440746.86662088806</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2320,7 +2849,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2367,8 +2896,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="K7" t="str">
-            <v>EV</v>
+          <cell r="L7">
+            <v>411743</v>
           </cell>
         </row>
       </sheetData>
@@ -2390,7 +2919,7 @@
         </row>
         <row r="41">
           <cell r="AC41">
-            <v>412792.93660731037</v>
+            <v>425010.79809717945</v>
           </cell>
         </row>
       </sheetData>
@@ -2413,7 +2942,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2424,6 +2953,7 @@
       <sheetName val="Model"/>
       <sheetName val="IP"/>
       <sheetName val="Literature"/>
+      <sheetName val="Keytruda"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2443,8 +2973,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="K7" t="str">
-            <v>EV</v>
+          <cell r="L7">
+            <v>245757.63500000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2466,18 +2996,19 @@
         </row>
         <row r="37">
           <cell r="AA37">
-            <v>264492.46738844895</v>
+            <v>272028.55347452633</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2537,7 +3068,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2611,7 +3142,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2665,7 +3196,7 @@
         </row>
         <row r="18">
           <cell r="V18">
-            <v>40109.132079243369</v>
+            <v>27086.288535542022</v>
           </cell>
         </row>
       </sheetData>
@@ -2677,7 +3208,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2686,8 +3217,11 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="IP"/>
       <sheetName val="Literature"/>
-      <sheetName val="ivonescimab"/>
+      <sheetName val="Ivonescimab"/>
+      <sheetName val="NSCLC"/>
+      <sheetName val="Drugs"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2712,21 +3246,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="51">
-          <cell r="D51">
-            <v>0.09</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2780,80 +3311,6 @@
         <row r="8">
           <cell r="R8">
             <v>0.09</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="IP"/>
-      <sheetName val="Literature"/>
-      <sheetName val="elevidys"/>
-      <sheetName val="exondys"/>
-      <sheetName val="vyondys"/>
-      <sheetName val="amondys"/>
-      <sheetName val="SRP-9003"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>98.277000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>522.70000000000005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>1717.16</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>3356.5540000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="17">
-          <cell r="X17">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="X18">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="X19">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="X20">
-            <v>6400.0919928067269</v>
           </cell>
         </row>
       </sheetData>
@@ -3189,10 +3646,10 @@
   <dimension ref="B1:Q131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3210,15 +3667,15 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B113)</f>
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
-        <v>1533987.0104999999</v>
+        <v>1979834.1444999997</v>
       </c>
       <c r="L2" s="3">
         <f>AVERAGE(L4:L1048576)</f>
-        <v>0.11445598503191298</v>
+        <v>-6.4336055228236169E-2</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -3287,8 +3744,8 @@
         <v>-43316</v>
       </c>
       <c r="H4" s="2">
-        <f>[1]Main!$K$8</f>
-        <v>0</v>
+        <f>[1]Main!$L$7</f>
+        <v>671916</v>
       </c>
       <c r="I4" t="s">
         <v>243</v>
@@ -3332,6 +3789,51 @@
       <c r="D5" t="s">
         <v>113</v>
       </c>
+      <c r="E5" s="4">
+        <v>180</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5*J5</f>
+        <v>433500.984</v>
+      </c>
+      <c r="G5" s="2">
+        <f>[2]Main!$L$5-[2]Main!$L$6</f>
+        <v>-43119</v>
+      </c>
+      <c r="H5" s="2">
+        <f>[2]Main!$L$7</f>
+        <v>476619.984</v>
+      </c>
+      <c r="I5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="2">
+        <f>[2]Main!$L$3</f>
+        <v>2408.3388</v>
+      </c>
+      <c r="K5" s="2">
+        <f>[2]Model!$AI$42</f>
+        <v>440746.86662088806</v>
+      </c>
+      <c r="L5" s="3">
+        <f>(K5/J5)/E5-1</f>
+        <v>1.6714800861647117E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f>[2]Model!$AI$39</f>
+        <v>0.02</v>
+      </c>
+      <c r="N5" s="3">
+        <f>[2]Model!$AI$40</f>
+        <v>-0.01</v>
+      </c>
+      <c r="O5" s="3">
+        <f>[2]Model!$AI$41</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P5">
+        <v>1886</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -3348,42 +3850,42 @@
         <v>195</v>
       </c>
       <c r="F6" s="2">
-        <f>[2]Main!$L$4</f>
+        <f>[3]Main!$L$4</f>
         <v>344448</v>
       </c>
       <c r="G6" s="2">
-        <f>[2]Main!$L$5-[2]Main!$L$6</f>
+        <f>[3]Main!$L$5-[3]Main!$L$6</f>
         <v>-67295</v>
       </c>
-      <c r="H6" s="2" t="str">
-        <f>[2]Main!$K$7</f>
-        <v>EV</v>
+      <c r="H6" s="2">
+        <f>[3]Main!$L$7</f>
+        <v>411743</v>
       </c>
       <c r="I6" t="s">
         <v>240</v>
       </c>
       <c r="J6" s="2">
-        <f>[2]Main!$L$3</f>
+        <f>[3]Main!$L$3</f>
         <v>1766.4</v>
       </c>
       <c r="K6" s="2">
-        <f>[2]Model!$AC$41</f>
-        <v>412792.93660731037</v>
+        <f>[3]Model!$AC$41</f>
+        <v>425010.79809717945</v>
       </c>
       <c r="L6" s="3">
         <f>(K6/J6)/E6-1</f>
-        <v>0.19841873550524425</v>
+        <v>0.23388958013162919</v>
       </c>
       <c r="M6" s="3">
-        <f>[2]Model!$AC$38</f>
+        <f>[3]Model!$AC$38</f>
         <v>0.02</v>
       </c>
       <c r="N6" s="3">
-        <f>[2]Model!$AC$39</f>
+        <f>[3]Model!$AC$39</f>
         <v>-0.01</v>
       </c>
       <c r="O6" s="3">
-        <f>[2]Model!$AC$40</f>
+        <f>[3]Model!$AC$40</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P6">
@@ -3457,38 +3959,38 @@
         <v>213437.63500000001</v>
       </c>
       <c r="G11" s="2">
-        <f>[3]Main!$L$5-[3]Main!$L$6</f>
+        <f>[4]Main!$L$5-[4]Main!$L$6</f>
         <v>-32320</v>
       </c>
-      <c r="H11" s="2" t="str">
-        <f>[3]Main!$K$7</f>
-        <v>EV</v>
+      <c r="H11" s="2">
+        <f>[4]Main!$L$7</f>
+        <v>245757.63500000001</v>
       </c>
       <c r="I11" t="s">
         <v>240</v>
       </c>
       <c r="J11" s="2">
-        <f>[3]Main!$L$3</f>
+        <f>[4]Main!$L$3</f>
         <v>2511.0309999999999</v>
       </c>
       <c r="K11" s="2">
-        <f>[3]Model!$AA$37</f>
-        <v>264492.46738844895</v>
+        <f>[4]Model!$AA$37</f>
+        <v>272028.55347452633</v>
       </c>
       <c r="L11" s="3">
         <f>(K11/J11)/E11-1</f>
-        <v>0.23920257731701788</v>
+        <v>0.27451071819890771</v>
       </c>
       <c r="M11" s="3">
-        <f>[3]Model!$AA$34</f>
+        <f>[4]Model!$AA$34</f>
         <v>0.02</v>
       </c>
       <c r="N11" s="3">
-        <f>[3]Model!$AA$35</f>
+        <f>[4]Model!$AA$35</f>
         <v>-0.01</v>
       </c>
       <c r="O11" s="3">
-        <f>[3]Model!$AA$36</f>
+        <f>[4]Model!$AA$36</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P11">
@@ -3550,22 +4052,22 @@
         <v>140563.97700000001</v>
       </c>
       <c r="G15" s="2">
-        <f>[4]Main!$M$5-[4]Main!$M$6</f>
+        <f>[5]Main!$M$5-[5]Main!$M$6</f>
         <v>-17085</v>
       </c>
       <c r="H15" s="2">
-        <f>[4]Main!$M$7</f>
+        <f>[5]Main!$M$7</f>
         <v>157648.97700000001</v>
       </c>
       <c r="I15" t="s">
         <v>240</v>
       </c>
       <c r="J15" s="2">
-        <f>[4]Main!$M$3</f>
+        <f>[5]Main!$M$3</f>
         <v>1243.9290000000001</v>
       </c>
       <c r="K15" s="2">
-        <f>[4]Model!$AA$92</f>
+        <f>[5]Model!$AA$92</f>
         <v>170422.41718793675</v>
       </c>
       <c r="L15" s="3">
@@ -3573,15 +4075,15 @@
         <v>0.21241886310556479</v>
       </c>
       <c r="M15" s="3">
-        <f>[4]Model!$AA$89</f>
+        <f>[5]Model!$AA$89</f>
         <v>0.02</v>
       </c>
       <c r="N15" s="3">
-        <f>[4]Model!$AA$90</f>
+        <f>[5]Model!$AA$90</f>
         <v>-0.01</v>
       </c>
       <c r="O15" s="6">
-        <f>[4]Model!$AA$91</f>
+        <f>[5]Model!$AA$91</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P15">
@@ -3631,22 +4133,22 @@
         <v>89543.51999999999</v>
       </c>
       <c r="G18" s="2">
-        <f>[5]Main!$L$5-[5]Main!$L$6</f>
+        <f>[6]Main!$L$5-[6]Main!$L$6</f>
         <v>-39128</v>
       </c>
       <c r="H18" s="2">
-        <f>[5]Main!$L$7</f>
+        <f>[6]Main!$L$7</f>
         <v>128671.51999999999</v>
       </c>
       <c r="I18" t="s">
         <v>240</v>
       </c>
       <c r="J18" s="2">
-        <f>[5]Main!$L$3</f>
+        <f>[6]Main!$L$3</f>
         <v>2035.08</v>
       </c>
       <c r="K18" s="2">
-        <f>[5]Model!$Y$48</f>
+        <f>[6]Model!$Y$48</f>
         <v>104952.78625217403</v>
       </c>
       <c r="L18" s="3">
@@ -3654,15 +4156,15 @@
         <v>0.17208689419596235</v>
       </c>
       <c r="M18" s="3">
-        <f>[5]Model!$Y$45</f>
+        <f>[6]Model!$Y$45</f>
         <v>0.02</v>
       </c>
       <c r="N18" s="3">
-        <f>[5]Model!$Y$46</f>
+        <f>[6]Model!$Y$46</f>
         <v>-0.01</v>
       </c>
       <c r="O18" s="3">
-        <f>[5]Model!$Y$47</f>
+        <f>[6]Model!$Y$47</f>
         <v>0.08</v>
       </c>
       <c r="P18">
@@ -3934,38 +4436,38 @@
         <v>27912.399999999998</v>
       </c>
       <c r="G39" s="2">
-        <f>[6]Main!$K$5-[6]Main!$K$6</f>
+        <f>[7]Main!$K$5-[7]Main!$K$6</f>
         <v>12096.864</v>
       </c>
       <c r="H39" s="2">
-        <f>[6]Main!$K$7</f>
+        <f>[7]Main!$K$7</f>
         <v>15815.535999999998</v>
       </c>
       <c r="I39" t="s">
         <v>243</v>
       </c>
       <c r="J39" s="2">
-        <f>[6]Main!$K$3</f>
+        <f>[7]Main!$K$3</f>
         <v>248</v>
       </c>
       <c r="K39" s="2">
-        <f>[6]Model!$V$18</f>
-        <v>40109.132079243369</v>
+        <f>[7]Model!$V$18</f>
+        <v>27086.288535542022</v>
       </c>
       <c r="L39" s="3">
         <f>K39/F39-1</f>
-        <v>0.43696464937602553</v>
+        <v>-2.9596575875165732E-2</v>
       </c>
       <c r="M39" s="3">
-        <f>[6]Model!$V$15</f>
+        <f>[7]Model!$V$15</f>
         <v>0.02</v>
       </c>
       <c r="N39" s="3">
-        <f>[6]Model!$V$16</f>
+        <f>[7]Model!$V$16</f>
         <v>-0.01</v>
       </c>
       <c r="O39" s="3">
-        <f>[6]Model!$V$17</f>
+        <f>[7]Model!$V$17</f>
         <v>0.08</v>
       </c>
       <c r="P39">
@@ -4063,27 +4565,27 @@
         <v>20056.8609</v>
       </c>
       <c r="G46">
-        <f>[7]Main!$K$5-[7]Main!$K$6</f>
+        <f>[8]Main!$K$5-[8]Main!$K$6</f>
         <v>298</v>
       </c>
       <c r="H46" s="2">
-        <f>[7]Main!$K$7</f>
+        <f>[8]Main!$K$7</f>
         <v>19536.006890000001</v>
       </c>
       <c r="I46" t="s">
         <v>243</v>
       </c>
       <c r="J46" s="2">
-        <f>[7]Main!$K$3</f>
+        <f>[8]Main!$K$3</f>
         <v>742.84670000000006</v>
       </c>
       <c r="K46" s="7">
-        <f>[7]ivonescimab!$D$51</f>
-        <v>0.09</v>
+        <f>[8]Ivonescimab!$D$52</f>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <f>K46/F46-1</f>
-        <v>-0.99999551275743259</v>
+        <v>-1</v>
       </c>
       <c r="M46" s="3">
         <v>0.02</v>
@@ -4122,7 +4624,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4134,7 +4636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4146,7 +4648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4158,7 +4660,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4170,7 +4672,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4182,7 +4684,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4194,7 +4696,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4206,7 +4708,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4217,8 +4719,11 @@
       <c r="D56" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F56" s="2">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4230,7 +4735,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4242,7 +4747,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4254,7 +4759,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4266,7 +4771,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4278,7 +4783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4290,7 +4795,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4302,7 +4807,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4841,6 +5346,7 @@
       <c r="D108" t="s">
         <v>215</v>
       </c>
+      <c r="F108" s="4"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109">
@@ -4853,6 +5359,7 @@
       <c r="D109" t="s">
         <v>112</v>
       </c>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110">
@@ -4869,26 +5376,26 @@
         <v>11.2</v>
       </c>
       <c r="F110" s="2">
-        <f>E110*J110</f>
+        <f t="shared" ref="F110:F119" si="2">E110*J110</f>
         <v>956.16639999999995</v>
       </c>
       <c r="G110" s="2">
-        <f>[8]Main!$K$5-[8]Main!$K$6</f>
+        <f>[9]Main!$K$5-[9]Main!$K$6</f>
         <v>115.771</v>
       </c>
       <c r="H110" s="2">
-        <f>[8]Main!$K$7</f>
+        <f>[9]Main!$K$7</f>
         <v>1028.2138</v>
       </c>
       <c r="I110" t="s">
         <v>243</v>
       </c>
       <c r="J110" s="2">
-        <f>[8]Main!$K$3</f>
+        <f>[9]Main!$K$3</f>
         <v>85.372</v>
       </c>
       <c r="K110" s="2">
-        <f>[8]Main!$K$5</f>
+        <f>[9]Main!$K$5</f>
         <v>115.771</v>
       </c>
       <c r="L110" s="3">
@@ -4896,15 +5403,15 @@
         <v>-0.87892170233130973</v>
       </c>
       <c r="M110" s="3">
-        <f>[8]Model!$R$6</f>
+        <f>[9]Model!$R$6</f>
         <v>0.02</v>
       </c>
       <c r="N110" s="3">
-        <f>[8]Model!$R$7</f>
+        <f>[9]Model!$R$7</f>
         <v>-0.01</v>
       </c>
       <c r="O110" s="3">
-        <f>[8]Model!$R$8</f>
+        <f>[9]Model!$R$8</f>
         <v>0.09</v>
       </c>
       <c r="P110">
@@ -4926,43 +5433,43 @@
         <v>22</v>
       </c>
       <c r="F111" s="2">
-        <f>E111*J111</f>
+        <f t="shared" si="2"/>
         <v>2162.0940000000001</v>
       </c>
       <c r="G111" s="2">
-        <f>[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>[10]Main!$K$5-[10]Main!$K$6</f>
         <v>-1194.46</v>
       </c>
       <c r="H111" s="2">
-        <f>[9]Main!$K$7</f>
+        <f>[10]Main!$K$7</f>
         <v>3356.5540000000001</v>
       </c>
       <c r="I111" t="s">
         <v>240</v>
       </c>
       <c r="J111" s="2">
-        <f>[9]Main!$K$3</f>
+        <f>[10]Main!$K$3</f>
         <v>98.277000000000001</v>
       </c>
       <c r="K111" s="2">
-        <f>[9]Model!$X$20</f>
-        <v>6400.0919928067269</v>
+        <f>[10]Model!$X$20</f>
+        <v>4891.1877390474529</v>
       </c>
       <c r="L111" s="3">
         <f>(K111/J111)/E111-1</f>
-        <v>1.9601358649562539</v>
+        <v>1.2622456466034562</v>
       </c>
       <c r="M111" s="3">
-        <f>[9]Model!$X$17</f>
+        <f>[10]Model!$X$17</f>
         <v>0.02</v>
       </c>
       <c r="N111" s="3">
-        <f>[9]Model!$X$18</f>
+        <f>[10]Model!$X$18</f>
         <v>-0.01</v>
       </c>
       <c r="O111" s="3">
-        <f>[9]Model!$X$19</f>
-        <v>0.09</v>
+        <f>[10]Model!$X$19</f>
+        <v>0.08</v>
       </c>
       <c r="P111">
         <v>1980</v>
@@ -4983,26 +5490,26 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F112" s="2">
-        <f>E112*J112</f>
+        <f t="shared" si="2"/>
         <v>146.35720000000001</v>
       </c>
       <c r="G112" s="2">
-        <f>[10]Main!$K$6-[10]Main!$K$7</f>
+        <f>[11]Main!$K$6-[11]Main!$K$7</f>
         <v>70</v>
       </c>
       <c r="H112" s="2">
-        <f>[10]Main!$K$8</f>
+        <f>[11]Main!$K$8</f>
         <v>76.357200000000006</v>
       </c>
       <c r="I112" t="s">
         <v>243</v>
       </c>
       <c r="J112" s="2">
-        <f>[10]Main!$K$4</f>
+        <f>[11]Main!$K$4</f>
         <v>66.525999999999996</v>
       </c>
       <c r="K112" s="2">
-        <f>[10]Main!$K$6</f>
+        <f>[11]Main!$K$6</f>
         <v>70</v>
       </c>
       <c r="L112" s="3">
@@ -5018,7 +5525,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D113" t="s">
@@ -5028,8 +5535,11 @@
         <v>61.2</v>
       </c>
       <c r="F113" s="2">
-        <f>E113*J113</f>
+        <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>779</v>
       </c>
       <c r="L113" s="3"/>
     </row>
@@ -5045,7 +5555,8 @@
         <v>246</v>
       </c>
       <c r="F114" s="2">
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.2">
@@ -5060,7 +5571,8 @@
         <v>247</v>
       </c>
       <c r="F115" s="2">
-        <v>2130</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.2">
@@ -5075,7 +5587,8 @@
         <v>248</v>
       </c>
       <c r="F116" s="2">
-        <v>1390</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.2">
@@ -5090,7 +5603,8 @@
         <v>249</v>
       </c>
       <c r="F117" s="2">
-        <v>1070</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.2">
@@ -5105,7 +5619,8 @@
         <v>250</v>
       </c>
       <c r="F118" s="2">
-        <v>2040</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.2">
@@ -5113,24 +5628,68 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D119" t="s">
+        <v>678</v>
+      </c>
+      <c r="E119">
+        <v>5.35</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="2"/>
+        <v>476.15</v>
+      </c>
+      <c r="G119" s="2">
+        <f>[12]Main!$P$5-[12]Main!$P$6</f>
+        <v>64.66</v>
+      </c>
+      <c r="H119" s="2">
+        <f>[12]Main!$P$7</f>
+        <v>407.03999999999996</v>
+      </c>
+      <c r="I119" t="s">
+        <v>240</v>
+      </c>
+      <c r="J119" s="2">
+        <f>[12]Main!$P$3</f>
+        <v>89</v>
+      </c>
+      <c r="K119" s="2">
+        <f>[12]Main!$P$5</f>
+        <v>76.36</v>
+      </c>
+      <c r="L119" s="3">
+        <f>(K119/J119)/E119-1</f>
+        <v>-0.83963036858132944</v>
+      </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="3"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123">
@@ -5200,6 +5759,8 @@
     <hyperlink ref="C39" r:id="rId10" xr:uid="{D07F628A-D0BE-4C2B-B559-8EAF1F113361}"/>
     <hyperlink ref="C5" r:id="rId11" xr:uid="{CD50D93B-64A5-4204-9920-7EC8CA8C2850}"/>
     <hyperlink ref="C114" r:id="rId12" xr:uid="{D8292DBC-5B64-4D38-BBD2-2D44F8444791}"/>
+    <hyperlink ref="C119" r:id="rId13" xr:uid="{D39B922A-7684-4FAF-B8F8-5BF89EDA149A}"/>
+    <hyperlink ref="C113" r:id="rId14" xr:uid="{94546ADB-2E19-43B8-8570-8DAF98027946}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5207,10 +5768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A7E85D-B115-45C7-B96C-D7F476FE089A}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5225,93 +5786,106 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>434</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="J11" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E12" s="3"/>
+      <c r="J12" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>442</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>699</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5322,14 +5896,143 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97922BBE-0AE9-4D08-BD45-3B74A14BCF81}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" s="2">
+        <v>14600</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14500</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>684</v>
+      </c>
+      <c r="D15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E672FB5E-A930-477C-9EDE-A9DEA7CAC307}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B2AD0-6E41-4DC9-AA4F-9BFB6D36429D}">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7248,7 +7951,7 @@
         <v>618</v>
       </c>
       <c r="F72" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L72" t="s">
         <v>451</v>
@@ -7697,18 +8400,18 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>671</v>
+        <v>630</v>
       </c>
       <c r="C127" t="s">
-        <v>671</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="C128" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
@@ -7735,25 +8438,9 @@
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
         <v>675</v>
-      </c>
-      <c r="C132" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>675</v>
-      </c>
-      <c r="C133" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
-        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -7764,22 +8451,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC8C1E-B59B-40F8-80DC-62A32A02DE98}">
-  <dimension ref="A1:DB57"/>
+  <dimension ref="A1:DB127"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -7798,6 +8485,8 @@
     <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
@@ -7814,6 +8503,7 @@
       <c r="E1" t="s">
         <v>524</v>
       </c>
+      <c r="W1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -7875,6 +8565,12 @@
       </c>
       <c r="U2" t="s">
         <v>483</v>
+      </c>
+      <c r="V2" t="s">
+        <v>781</v>
+      </c>
+      <c r="W2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -7913,7 +8609,6 @@
         <v>526</v>
       </c>
       <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -7956,7 +8651,6 @@
         <v>527</v>
       </c>
       <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
@@ -7999,7 +8693,6 @@
         <v>528</v>
       </c>
       <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
@@ -8042,7 +8735,6 @@
         <v>529</v>
       </c>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
@@ -8087,7 +8779,6 @@
         <v>547</v>
       </c>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
@@ -8126,7 +8817,6 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
@@ -8171,7 +8861,6 @@
         <v>530</v>
       </c>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
@@ -8210,7 +8899,6 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
@@ -8250,7 +8938,6 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
@@ -8295,7 +8982,6 @@
         <v>488</v>
       </c>
       <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
@@ -8340,7 +9026,6 @@
         <v>538</v>
       </c>
       <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
@@ -8386,7 +9071,6 @@
         <v>535</v>
       </c>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -8431,7 +9115,6 @@
         <v>534</v>
       </c>
       <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -8472,7 +9155,6 @@
         <v>539</v>
       </c>
       <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -8511,7 +9193,6 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -8552,7 +9233,6 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
@@ -8591,7 +9271,6 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
@@ -8632,7 +9311,6 @@
         <v>548</v>
       </c>
       <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
@@ -8671,7 +9349,6 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
@@ -8714,7 +9391,6 @@
         <v>537</v>
       </c>
       <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
@@ -8755,7 +9431,6 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -8802,8 +9477,9 @@
         <v>546</v>
       </c>
       <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
+      <c r="W24" s="17" t="s">
+        <v>784</v>
+      </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -8847,7 +9523,6 @@
         <v>314</v>
       </c>
       <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
@@ -8888,7 +9563,6 @@
         <v>613</v>
       </c>
       <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
@@ -8933,7 +9607,6 @@
         <v>531</v>
       </c>
       <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
@@ -8978,7 +9651,6 @@
         <v>536</v>
       </c>
       <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
@@ -9022,8 +9694,12 @@
       <c r="U29" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
+      <c r="V29" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="W29" s="17" t="s">
+        <v>783</v>
+      </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
@@ -9068,7 +9744,6 @@
         <v>533</v>
       </c>
       <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
@@ -9111,7 +9786,6 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -9150,14 +9824,13 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>522</v>
       </c>
@@ -9195,14 +9868,13 @@
         <v>549</v>
       </c>
       <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>499</v>
       </c>
@@ -9238,14 +9910,13 @@
         <v>540</v>
       </c>
       <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>453</v>
       </c>
@@ -9281,14 +9952,13 @@
         <v>541</v>
       </c>
       <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>454</v>
       </c>
@@ -9324,14 +9994,13 @@
         <v>490</v>
       </c>
       <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>500</v>
       </c>
@@ -9365,14 +10034,13 @@
         <v>284</v>
       </c>
       <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>457</v>
       </c>
@@ -9406,14 +10074,13 @@
         <v>543</v>
       </c>
       <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>501</v>
       </c>
@@ -9445,14 +10112,13 @@
         <v>284</v>
       </c>
       <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>456</v>
       </c>
@@ -9486,14 +10152,13 @@
         <v>542</v>
       </c>
       <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -9514,29 +10179,21 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="2:106" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>516</v>
-      </c>
-      <c r="C42" s="13">
-        <f>SUM(C3:C40)</f>
-        <v>883948</v>
-      </c>
-      <c r="D42" s="13">
-        <f>SUM(D33,D27:D31,D22:D24,D20,D18,D3:D16)</f>
-        <v>12015</v>
-      </c>
-      <c r="E42" s="13">
-        <f>SUM(E3:E33)</f>
-        <v>71542</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -9554,406 +10211,2674 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="2:106" x14ac:dyDescent="0.2">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="2:106" x14ac:dyDescent="0.2">
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>702</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E43" s="12">
+        <v>13</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>703</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>704</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>705</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>660</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>706</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="12">
+        <v>5</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>707</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="12">
+        <v>500</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>708</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E49" s="12">
+        <v>55</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>709</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>710</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>711</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12">
+        <v>400</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>712</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>713</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12">
+        <v>760</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>714</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>715</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>716</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>717</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E58" s="12">
+        <v>18</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>719</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>720</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12">
+        <v>200</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>721</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>722</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>723</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E64" s="12">
+        <v>15</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>724</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>725</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>726</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="E67" s="12">
+        <v>11</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>727</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>728</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="D69" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>729</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E70" s="12">
+        <v>24</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>730</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>731</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12">
+        <v>65</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>732</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12">
+        <v>35</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>733</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>734</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>735</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>774</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>736</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+    </row>
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>738</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E80" s="12">
+        <v>350</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+    </row>
+    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>739</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="E81" s="12">
+        <v>18</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+    </row>
+    <row r="82" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>740</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+    </row>
+    <row r="83" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>741</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>742</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+    </row>
+    <row r="85" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>743</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12">
+        <v>300</v>
+      </c>
+      <c r="E85" s="13">
+        <v>3200</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+    </row>
+    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>744</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+    </row>
+    <row r="87" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>745</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+    </row>
+    <row r="88" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>746</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D88" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E88" s="12">
+        <v>14</v>
+      </c>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+    </row>
+    <row r="89" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>747</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+    </row>
+    <row r="90" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>748</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+    </row>
+    <row r="91" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>749</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12"/>
+    </row>
+    <row r="92" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>750</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+    </row>
+    <row r="93" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>751</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+    </row>
+    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>752</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+    </row>
+    <row r="95" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>753</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+    </row>
+    <row r="96" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>754</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+    </row>
+    <row r="97" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>755</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+    </row>
+    <row r="98" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>756</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+    </row>
+    <row r="99" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>757</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="E99" s="12">
+        <v>102</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+    </row>
+    <row r="100" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>758</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12"/>
+    </row>
+    <row r="101" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>414</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="13">
+        <v>1260</v>
+      </c>
+      <c r="E101" s="12">
+        <v>438</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+    </row>
+    <row r="102" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>759</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+    </row>
+    <row r="103" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>760</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+    </row>
+    <row r="104" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>761</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+    </row>
+    <row r="105" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>762</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+    </row>
+    <row r="106" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>763</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12"/>
+    </row>
+    <row r="107" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>764</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+    </row>
+    <row r="108" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>765</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+    </row>
+    <row r="109" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>507</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+    </row>
+    <row r="110" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>766</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+    </row>
+    <row r="111" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C111" s="12"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+    </row>
+    <row r="112" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>516</v>
+      </c>
+      <c r="C112" s="13">
+        <f>SUM(C3:C40)</f>
+        <v>883948</v>
+      </c>
+      <c r="D112" s="13">
+        <f>SUM(D33,D27:D31,D22:D24,D20,D18,D3:D16)</f>
+        <v>12015</v>
+      </c>
+      <c r="E112" s="13">
+        <f>SUM(E3:E33)</f>
+        <v>71542</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+    </row>
+    <row r="113" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F114" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G114" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H114" s="13" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="45" spans="2:106" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="115" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>590</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C115" s="13">
         <f>SUM(C29)</f>
         <v>179000</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D115" s="13">
         <f>SUM(D29)</f>
         <v>20</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E115" s="13">
         <f>SUM(E29)/1000</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="F45" s="14">
-        <f>E45/D45</f>
+      <c r="F115" s="14">
+        <f>E115/D115</f>
         <v>0.48499999999999999</v>
       </c>
-      <c r="G45" s="13">
-        <f t="shared" ref="G45:G51" si="0">C45/D45</f>
+      <c r="G115" s="13">
+        <f t="shared" ref="G115:G121" si="0">C115/D115</f>
         <v>8950</v>
       </c>
-      <c r="H45" s="14">
-        <f>C45/$C$42</f>
+      <c r="H115" s="14">
+        <f>C115/$C$112</f>
         <v>0.20250059958278088</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2"/>
-      <c r="AQ45" s="2"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="2"/>
-      <c r="AU45" s="2"/>
-      <c r="AV45" s="2"/>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2"/>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="2"/>
-      <c r="BD45" s="2"/>
-      <c r="BE45" s="2"/>
-      <c r="BF45" s="2"/>
-      <c r="BG45" s="2"/>
-      <c r="BH45" s="2"/>
-      <c r="BI45" s="2"/>
-      <c r="BJ45" s="2"/>
-      <c r="BK45" s="2"/>
-      <c r="BL45" s="2"/>
-      <c r="BM45" s="2"/>
-      <c r="BN45" s="2"/>
-      <c r="BO45" s="2"/>
-      <c r="BP45" s="2"/>
-      <c r="BQ45" s="2"/>
-      <c r="BR45" s="2"/>
-      <c r="BS45" s="2"/>
-      <c r="BT45" s="2"/>
-      <c r="BU45" s="2"/>
-      <c r="BV45" s="2"/>
-      <c r="BW45" s="2"/>
-      <c r="BX45" s="2"/>
-      <c r="BY45" s="2"/>
-      <c r="BZ45" s="2"/>
-      <c r="CA45" s="2"/>
-      <c r="CB45" s="2"/>
-      <c r="CC45" s="2"/>
-      <c r="CD45" s="2"/>
-      <c r="CE45" s="2"/>
-      <c r="CF45" s="2"/>
-      <c r="CG45" s="2"/>
-      <c r="CH45" s="2"/>
-      <c r="CI45" s="2"/>
-      <c r="CJ45" s="2"/>
-      <c r="CK45" s="2"/>
-      <c r="CL45" s="2"/>
-      <c r="CM45" s="2"/>
-      <c r="CN45" s="2"/>
-      <c r="CO45" s="2"/>
-      <c r="CP45" s="2"/>
-      <c r="CQ45" s="2"/>
-      <c r="CR45" s="2"/>
-      <c r="CS45" s="2"/>
-      <c r="CT45" s="2"/>
-      <c r="CU45" s="2"/>
-      <c r="CV45" s="2"/>
-      <c r="CW45" s="2"/>
-      <c r="CX45" s="2"/>
-      <c r="CY45" s="2"/>
-      <c r="CZ45" s="2"/>
-      <c r="DA45" s="2"/>
-      <c r="DB45" s="2"/>
-    </row>
-    <row r="46" spans="2:106" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="18"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2"/>
+      <c r="AI115" s="2"/>
+      <c r="AJ115" s="2"/>
+      <c r="AK115" s="2"/>
+      <c r="AL115" s="2"/>
+      <c r="AM115" s="2"/>
+      <c r="AN115" s="2"/>
+      <c r="AO115" s="2"/>
+      <c r="AP115" s="2"/>
+      <c r="AQ115" s="2"/>
+      <c r="AR115" s="2"/>
+      <c r="AS115" s="2"/>
+      <c r="AT115" s="2"/>
+      <c r="AU115" s="2"/>
+      <c r="AV115" s="2"/>
+      <c r="AW115" s="2"/>
+      <c r="AX115" s="2"/>
+      <c r="AY115" s="2"/>
+      <c r="AZ115" s="2"/>
+      <c r="BA115" s="2"/>
+      <c r="BB115" s="2"/>
+      <c r="BC115" s="2"/>
+      <c r="BD115" s="2"/>
+      <c r="BE115" s="2"/>
+      <c r="BF115" s="2"/>
+      <c r="BG115" s="2"/>
+      <c r="BH115" s="2"/>
+      <c r="BI115" s="2"/>
+      <c r="BJ115" s="2"/>
+      <c r="BK115" s="2"/>
+      <c r="BL115" s="2"/>
+      <c r="BM115" s="2"/>
+      <c r="BN115" s="2"/>
+      <c r="BO115" s="2"/>
+      <c r="BP115" s="2"/>
+      <c r="BQ115" s="2"/>
+      <c r="BR115" s="2"/>
+      <c r="BS115" s="2"/>
+      <c r="BT115" s="2"/>
+      <c r="BU115" s="2"/>
+      <c r="BV115" s="2"/>
+      <c r="BW115" s="2"/>
+      <c r="BX115" s="2"/>
+      <c r="BY115" s="2"/>
+      <c r="BZ115" s="2"/>
+      <c r="CA115" s="2"/>
+      <c r="CB115" s="2"/>
+      <c r="CC115" s="2"/>
+      <c r="CD115" s="2"/>
+      <c r="CE115" s="2"/>
+      <c r="CF115" s="2"/>
+      <c r="CG115" s="2"/>
+      <c r="CH115" s="2"/>
+      <c r="CI115" s="2"/>
+      <c r="CJ115" s="2"/>
+      <c r="CK115" s="2"/>
+      <c r="CL115" s="2"/>
+      <c r="CM115" s="2"/>
+      <c r="CN115" s="2"/>
+      <c r="CO115" s="2"/>
+      <c r="CP115" s="2"/>
+      <c r="CQ115" s="2"/>
+      <c r="CR115" s="2"/>
+      <c r="CS115" s="2"/>
+      <c r="CT115" s="2"/>
+      <c r="CU115" s="2"/>
+      <c r="CV115" s="2"/>
+      <c r="CW115" s="2"/>
+      <c r="CX115" s="2"/>
+      <c r="CY115" s="2"/>
+      <c r="CZ115" s="2"/>
+      <c r="DA115" s="2"/>
+      <c r="DB115" s="2"/>
+    </row>
+    <row r="116" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>591</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C116" s="13">
         <f>SUM(C31,C27,C25,C17,C18,C7)</f>
         <v>38928</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D116" s="13">
         <f>SUM(D31,D27,D25,D17,D18,D7)</f>
         <v>1603</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E116" s="13">
         <f>SUM(E31,E27,E25,E17,E18,E7)/1000</f>
         <v>4.4800000000000004</v>
       </c>
-      <c r="F46" s="14">
-        <f t="shared" ref="F46:F51" si="1">E46/D46</f>
+      <c r="F116" s="14">
+        <f t="shared" ref="F116:F121" si="1">E116/D116</f>
         <v>2.7947598253275112E-3</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G116" s="13">
         <f t="shared" si="0"/>
         <v>24.284466625077979</v>
       </c>
-      <c r="H46" s="14">
-        <f t="shared" ref="H46:H51" si="2">C46/$C$42</f>
+      <c r="H116" s="14">
+        <f t="shared" ref="H116:H121" si="2">C116/$C$112</f>
         <v>4.4038789612058628E-2</v>
       </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="2:106" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C117" s="13">
         <f>SUM(C32,C12,C9,C4)</f>
         <v>163420</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D117" s="13">
         <f>SUM(D32,D12,D9,D4)</f>
         <v>2899</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E117" s="13">
         <f>SUM(E32,E28,E27,E18,E19,E8)/1000</f>
         <v>11.712</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F117" s="14">
         <f t="shared" si="1"/>
         <v>4.0400137978613311E-3</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G117" s="13">
         <f t="shared" si="0"/>
         <v>56.371162469817179</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H117" s="14">
         <f t="shared" si="2"/>
         <v>0.18487512840121817</v>
       </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="2:106" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>545</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C118" s="13">
         <f>SUM(C28,C24,C23,C22,C15,C14,C1)</f>
         <v>78820</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D118" s="13">
         <f>SUM(D28,D24,D23,D22,D15,D14,D1)</f>
         <v>804</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E118" s="13">
         <f>SUM(E33,E29,E28,E19,E20,E9)/1000</f>
         <v>18.8</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F118" s="14">
         <f t="shared" si="1"/>
         <v>2.3383084577114428E-2</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G118" s="13">
         <f t="shared" si="0"/>
         <v>98.03482587064677</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H118" s="14">
         <f t="shared" si="2"/>
         <v>8.9168141112373131E-2</v>
       </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>544</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C119" s="13">
         <f>SUM(C33,C30,C20,C13,C16)</f>
         <v>131000</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D119" s="13">
         <f>SUM(D33,D30,D20,D13,D16)</f>
         <v>898</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E119" s="13">
         <f>SUM(E34,E30,E29,E20,E21,E10)/1000</f>
         <v>38.799999999999997</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F119" s="14">
         <f t="shared" si="1"/>
         <v>4.320712694877505E-2</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G119" s="13">
         <f t="shared" si="0"/>
         <v>145.87973273942094</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H119" s="14">
         <f t="shared" si="2"/>
         <v>0.1481987628231525</v>
       </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>592</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C120" s="13">
         <f>SUM(C3,C6,C11)</f>
         <v>100720</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D120" s="13">
         <f>SUM(D3,D6,D11)</f>
         <v>3343</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E120" s="13">
         <f>SUM(E35,E31,E30,E21,E22,E11)/1000</f>
         <v>9.27</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F120" s="14">
         <f t="shared" si="1"/>
         <v>2.7729584205803169E-3</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G120" s="13">
         <f t="shared" si="0"/>
         <v>30.128626981752916</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H120" s="14">
         <f t="shared" si="2"/>
         <v>0.11394335413395358</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="121" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>491</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B121" t="s">
         <v>525</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C121" s="13">
         <f>SUM(C5,C8,C10,C19)</f>
         <v>192060</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D121" s="13">
         <f>SUM(D5,D8,D10,D19)</f>
         <v>2962</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E121" s="13">
         <f>SUM(E36,E32,E31,E22,E23,E12)/1000</f>
         <v>4.5039999999999996</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F121" s="14">
         <f t="shared" si="1"/>
         <v>1.5205941931127616E-3</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G121" s="13">
         <f t="shared" si="0"/>
         <v>64.841323430114784</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H121" s="14">
         <f t="shared" si="2"/>
         <v>0.21727522433446311</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="122" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>454</v>
       </c>
-      <c r="C53" s="2">
-        <f>D53*G53</f>
+      <c r="C123" s="2">
+        <f>D123*G123</f>
         <v>27901.25</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D123" s="10">
         <f>D36</f>
         <v>2.125</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E123" s="10">
         <f>E36/1000</f>
         <v>1.53</v>
       </c>
-      <c r="F53" s="3">
-        <f>E53/D53</f>
+      <c r="F123" s="3">
+        <f>E123/D123</f>
         <v>0.72</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G123" s="2">
         <v>13130</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="G54" t="s">
+    <row r="124" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="C124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="G124" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G55" t="s">
+    <row r="125" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
+    <row r="126" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G57" s="11" t="s">
+    <row r="127" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="G127" s="11" t="s">
         <v>601</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B1C32F4A-26DB-4731-A542-EEE3F60BB487}"/>
+    <hyperlink ref="V29" r:id="rId1" xr:uid="{E2DDDA48-5324-4A9C-AA98-A54A0D821563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -10078,7 +13003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C0D4FA-4A0D-4093-BFB0-AC151F092109}">
   <dimension ref="A1:F20"/>
   <sheetViews>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29A52EE-EA84-48C6-A8C5-50FB8452FA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD981DF0-1A54-46FA-B726-613A10A584D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="6030" yWindow="1140" windowWidth="22200" windowHeight="14685" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="Diseases" sheetId="9" r:id="rId5"/>
     <sheet name="Private" sheetId="5" r:id="rId6"/>
     <sheet name="Funds" sheetId="8" r:id="rId7"/>
+    <sheet name="Databases" sheetId="11" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="808">
   <si>
     <t>Name</t>
   </si>
@@ -2152,15 +2153,9 @@
     <t>ATYR - finish</t>
   </si>
   <si>
-    <t>SLNO</t>
-  </si>
-  <si>
     <t>NTLA - finish</t>
   </si>
   <si>
-    <t>RXRX</t>
-  </si>
-  <si>
     <t>Head &amp; Neck Cancer</t>
   </si>
   <si>
@@ -2411,6 +2406,81 @@
   </si>
   <si>
     <t>t-test ADAS-Cog</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>PubPeer</t>
+  </si>
+  <si>
+    <t>PubChem</t>
+  </si>
+  <si>
+    <t>Drugs@FDA</t>
+  </si>
+  <si>
+    <t>approved small molecules NDA</t>
+  </si>
+  <si>
+    <t>FDA Purplebook</t>
+  </si>
+  <si>
+    <t>approved biologics BLA</t>
+  </si>
+  <si>
+    <t>ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t>Drugbank</t>
+  </si>
+  <si>
+    <t>Drug database</t>
+  </si>
+  <si>
+    <t>ProteinAtlas</t>
+  </si>
+  <si>
+    <t>Protein database</t>
+  </si>
+  <si>
+    <t>MalaCards</t>
+  </si>
+  <si>
+    <t>Disease database</t>
+  </si>
+  <si>
+    <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>preprints</t>
+  </si>
+  <si>
+    <t>DepMap</t>
+  </si>
+  <si>
+    <t>cancer vulnerability database</t>
+  </si>
+  <si>
+    <t>Gene Expression Omnibus</t>
+  </si>
+  <si>
+    <t>genomics database</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>t-test calculator</t>
+  </si>
+  <si>
+    <t>AXSM</t>
+  </si>
+  <si>
+    <t>ZLAB</t>
+  </si>
+  <si>
+    <t>NKTR</t>
   </si>
 </sst>
 </file>
@@ -2725,12 +2795,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2771,9 +2841,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3246,12 +3316,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3646,10 +3716,10 @@
   <dimension ref="B1:Q131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3667,7 +3737,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B113)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -4082,7 +4152,7 @@
         <f>[5]Model!$AA$90</f>
         <v>-0.01</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <f>[5]Model!$AA$91</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5539,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L113" s="3"/>
     </row>
@@ -5768,10 +5838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A7E85D-B115-45C7-B96C-D7F476FE089A}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5786,105 +5856,90 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>249</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>700</v>
-      </c>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E11" s="3"/>
+      <c r="J11" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="J12" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>442</v>
+        <v>697</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -6032,7 +6087,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8456,10 +8511,10 @@
   <dimension ref="A1:DB127"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8567,10 +8622,10 @@
         <v>483</v>
       </c>
       <c r="V2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="W2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -9478,7 +9533,7 @@
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
@@ -9695,10 +9750,10 @@
         <v>532</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -10187,7 +10242,7 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>518</v>
@@ -10219,7 +10274,7 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>518</v>
@@ -10255,10 +10310,10 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -10287,7 +10342,7 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>518</v>
@@ -10321,7 +10376,7 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>518</v>
@@ -10357,7 +10412,7 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
@@ -10391,7 +10446,7 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>518</v>
@@ -10427,7 +10482,7 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12">
@@ -10461,7 +10516,7 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>518</v>
@@ -10493,10 +10548,10 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -10525,7 +10580,7 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12">
@@ -10557,10 +10612,10 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10589,7 +10644,7 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>518</v>
@@ -10623,7 +10678,7 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C55" s="12"/>
       <c r="E55" s="12"/>
@@ -10652,14 +10707,14 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12">
         <v>0.1</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -10686,10 +10741,10 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -10718,7 +10773,7 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>518</v>
@@ -10754,7 +10809,7 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -10784,7 +10839,7 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10814,7 +10869,7 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12">
@@ -10827,7 +10882,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
@@ -10848,7 +10903,7 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C62" s="12"/>
       <c r="F62" s="12"/>
@@ -10876,7 +10931,7 @@
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12">
@@ -10910,7 +10965,7 @@
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>518</v>
@@ -10946,7 +11001,7 @@
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -10976,7 +11031,7 @@
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12" t="s">
@@ -11008,7 +11063,7 @@
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12">
@@ -11042,7 +11097,7 @@
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12">
@@ -11074,16 +11129,16 @@
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D69" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -11110,10 +11165,10 @@
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D70" s="12">
         <v>0.05</v>
@@ -11146,10 +11201,10 @@
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -11178,14 +11233,14 @@
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12">
         <v>65</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -11212,14 +11267,14 @@
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12">
         <v>35</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -11246,7 +11301,7 @@
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12">
@@ -11278,7 +11333,7 @@
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -11308,7 +11363,7 @@
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -11338,7 +11393,7 @@
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>518</v>
@@ -11369,14 +11424,14 @@
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12">
         <v>0.3</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -11403,7 +11458,7 @@
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -11433,7 +11488,7 @@
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>518</v>
@@ -11469,7 +11524,7 @@
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>518</v>
@@ -11505,7 +11560,7 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -11535,7 +11590,7 @@
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -11565,7 +11620,7 @@
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -11595,7 +11650,7 @@
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12">
@@ -11629,10 +11684,10 @@
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -11661,7 +11716,7 @@
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -11690,7 +11745,7 @@
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>518</v>
@@ -11726,7 +11781,7 @@
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -11756,7 +11811,7 @@
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -11786,7 +11841,7 @@
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -11816,7 +11871,7 @@
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>518</v>
@@ -11848,7 +11903,7 @@
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -11878,7 +11933,7 @@
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -11908,10 +11963,10 @@
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -11939,7 +11994,7 @@
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12">
@@ -11971,14 +12026,14 @@
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12">
         <v>0.35</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
@@ -12005,12 +12060,12 @@
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
@@ -12037,7 +12092,7 @@
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12">
@@ -12071,7 +12126,7 @@
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -12135,7 +12190,7 @@
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -12165,10 +12220,10 @@
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -12197,7 +12252,7 @@
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -12227,7 +12282,7 @@
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -12259,14 +12314,14 @@
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12">
         <v>0.35</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -12293,7 +12348,7 @@
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -12325,14 +12380,14 @@
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -12389,12 +12444,12 @@
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
@@ -13221,4 +13276,143 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8476683D-85C3-4E8A-9BF1-6D7047D6B4EA}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="C6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C12" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{90F3DD21-DDC2-4F98-8437-662DF760BA02}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{89DB7E69-A990-4EE6-B45B-B2F7EA466FFD}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{4B493ECD-D6DB-440A-AFB7-B08B21FD463E}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6E1BD20D-A7F9-4F65-AA01-680A08543666}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{054F97BB-E66E-4850-A4B6-6C64E5B08A88}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{4F0F8CDE-25E9-43A4-9527-91DEAC9B0981}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{36D70A2C-E77B-4A85-AAB9-6D5F738BC6F6}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{00A3DD10-E8D0-475D-9802-0F30B57B9B5F}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{54F2F680-AD33-432F-9C06-BC86ACD04E67}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{2F0B8E77-0AD8-4494-A657-2C56C904BAF0}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{0C225352-97F8-4A8F-AFE8-1066136BF14E}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{EEEC0431-930E-4063-A5B4-6D3789D1AA5E}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{FC3A1F64-9B8F-4DB9-9B95-31D0B1AE28DE}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{F03225AD-1323-4BEF-AD31-0634F15A0086}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD981DF0-1A54-46FA-B726-613A10A584D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F848E84-30C3-447D-8745-547A7B64A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1140" windowWidth="22200" windowHeight="14685" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="2655" yWindow="645" windowWidth="22200" windowHeight="14205" activeTab="5" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Todo" sheetId="7" r:id="rId2"/>
     <sheet name="Clinical Trials" sheetId="10" r:id="rId3"/>
-    <sheet name="Drugs" sheetId="6" r:id="rId4"/>
-    <sheet name="Diseases" sheetId="9" r:id="rId5"/>
-    <sheet name="Private" sheetId="5" r:id="rId6"/>
-    <sheet name="Funds" sheetId="8" r:id="rId7"/>
-    <sheet name="Databases" sheetId="11" r:id="rId8"/>
+    <sheet name="Launches" sheetId="12" r:id="rId4"/>
+    <sheet name="Drugs" sheetId="6" r:id="rId5"/>
+    <sheet name="Diseases" sheetId="9" r:id="rId6"/>
+    <sheet name="Private" sheetId="5" r:id="rId7"/>
+    <sheet name="Funds" sheetId="8" r:id="rId8"/>
+    <sheet name="Databases" sheetId="11" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
@@ -35,6 +35,7 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="822">
   <si>
     <t>Name</t>
   </si>
@@ -1859,9 +1860,6 @@
     <t xml:space="preserve">WHO Choice-Rule: max 3x GDP intervention QALY </t>
   </si>
   <si>
-    <t>USA HHS values 1 year of life at 500k</t>
-  </si>
-  <si>
     <t>Keytruda ~3mo PFS over chemo alone should be ~160k/year which aligns with current pricing</t>
   </si>
   <si>
@@ -2481,6 +2479,51 @@
   </si>
   <si>
     <t>NKTR</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Zepbound</t>
+  </si>
+  <si>
+    <t>USA HHS VSLY 500k</t>
+  </si>
+  <si>
+    <t>https://aspe.hhs.gov/sites/default/files/documents/cd2a1348ea0777b1aa918089e4965b8c/standard-ria-values.pdf</t>
   </si>
 </sst>
 </file>
@@ -2815,8 +2858,11 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="IP"/>
+      <sheetName val="Literature"/>
+      <sheetName val="Sarcoidosis"/>
+      <sheetName val="NRP2"/>
       <sheetName val="Efzofitimod"/>
-      <sheetName val="NRP2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2841,9 +2887,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3715,11 +3764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BA3935-C65F-4820-824F-2092D9DD7675}">
   <dimension ref="B1:Q131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3737,7 +3786,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B113)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -5609,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L113" s="3"/>
     </row>
@@ -5699,10 +5748,10 @@
         <v>116</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D119" t="s">
         <v>677</v>
-      </c>
-      <c r="D119" t="s">
-        <v>678</v>
       </c>
       <c r="E119">
         <v>5.35</v>
@@ -5861,17 +5910,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -5933,13 +5982,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -5972,22 +6021,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7" s="2">
         <v>8200</v>
@@ -5995,7 +6044,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C8" s="2">
         <v>14600</v>
@@ -6005,10 +6054,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C9" s="2">
         <v>14500</v>
@@ -6020,55 +6069,55 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -6080,6 +6129,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24A2CE8-56BC-441A-B926-4DA5F57E4866}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F3" t="s">
+        <v>810</v>
+      </c>
+      <c r="G3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H3" t="s">
+        <v>816</v>
+      </c>
+      <c r="I3" t="s">
+        <v>817</v>
+      </c>
+      <c r="J3" t="s">
+        <v>818</v>
+      </c>
+      <c r="M3" t="s">
+        <v>811</v>
+      </c>
+      <c r="N3" t="s">
+        <v>812</v>
+      </c>
+      <c r="O3" t="s">
+        <v>813</v>
+      </c>
+      <c r="P3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5319AE92-EB59-4E38-8417-C5424D351BE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B2AD0-6E41-4DC9-AA4F-9BFB6D36429D}">
   <dimension ref="A1:O136"/>
   <sheetViews>
@@ -6150,10 +6281,10 @@
         <v>459</v>
       </c>
       <c r="N2" t="s">
+        <v>601</v>
+      </c>
+      <c r="O2" t="s">
         <v>602</v>
-      </c>
-      <c r="O2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -7762,7 +7893,7 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -7785,7 +7916,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -7808,7 +7939,7 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -7831,7 +7962,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -7854,7 +7985,7 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -7877,7 +8008,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -7900,7 +8031,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -7923,7 +8054,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -7984,29 +8115,29 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C70" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C72" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F72" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L72" t="s">
         <v>451</v>
@@ -8014,248 +8145,248 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C73" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C74" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C76" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C77" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C78" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C79" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C80" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C84" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C85" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C86" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C87" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C88" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C89" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C90" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C91" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C92" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C94" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C95" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C96" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C97" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C99" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C100" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C101" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
+        <v>612</v>
+      </c>
+      <c r="C102" t="s">
+        <v>612</v>
+      </c>
+      <c r="I102" t="s">
         <v>613</v>
       </c>
-      <c r="C102" t="s">
-        <v>613</v>
-      </c>
-      <c r="I102" t="s">
-        <v>614</v>
-      </c>
       <c r="L102" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N102" s="12">
         <v>1955</v>
@@ -8263,18 +8394,18 @@
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C103" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C104" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
@@ -8287,215 +8418,215 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C106" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C107" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C108" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C109" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C110" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C111" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C112" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C113" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C114" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C115" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C116" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C119" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C120" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C121" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C122" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C123" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C124" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C125" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C126" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C127" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C128" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C129" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C130" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C131" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -8506,15 +8637,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC8C1E-B59B-40F8-80DC-62A32A02DE98}">
-  <dimension ref="A1:DB127"/>
+  <dimension ref="A1:DB130"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomRight" activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8622,10 +8753,10 @@
         <v>483</v>
       </c>
       <c r="V2" t="s">
+        <v>778</v>
+      </c>
+      <c r="W2" t="s">
         <v>779</v>
-      </c>
-      <c r="W2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -8672,7 +8803,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C4" s="13">
         <v>25100</v>
@@ -9533,7 +9664,7 @@
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
@@ -9586,7 +9717,7 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12">
@@ -9615,7 +9746,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="V26" s="12"/>
       <c r="X26" s="12"/>
@@ -9750,10 +9881,10 @@
         <v>532</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -10242,7 +10373,7 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>518</v>
@@ -10274,7 +10405,7 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>518</v>
@@ -10310,10 +10441,10 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -10342,7 +10473,7 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>518</v>
@@ -10376,7 +10507,7 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>518</v>
@@ -10412,7 +10543,7 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
@@ -10446,7 +10577,7 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>518</v>
@@ -10482,7 +10613,7 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12">
@@ -10516,7 +10647,7 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>518</v>
@@ -10548,10 +10679,10 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -10580,7 +10711,7 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12">
@@ -10612,10 +10743,10 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10644,7 +10775,7 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>518</v>
@@ -10678,7 +10809,7 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C55" s="12"/>
       <c r="E55" s="12"/>
@@ -10707,14 +10838,14 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12">
         <v>0.1</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -10741,10 +10872,10 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -10773,7 +10904,7 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>518</v>
@@ -10809,7 +10940,7 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -10839,7 +10970,7 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -10869,7 +11000,7 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12">
@@ -10882,7 +11013,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
@@ -10903,7 +11034,7 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C62" s="12"/>
       <c r="F62" s="12"/>
@@ -10931,7 +11062,7 @@
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12">
@@ -10965,7 +11096,7 @@
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>518</v>
@@ -11001,7 +11132,7 @@
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -11031,7 +11162,7 @@
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12" t="s">
@@ -11063,7 +11194,7 @@
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12">
@@ -11097,7 +11228,7 @@
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12">
@@ -11129,16 +11260,16 @@
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D69" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -11165,10 +11296,10 @@
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D70" s="12">
         <v>0.05</v>
@@ -11201,10 +11332,10 @@
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -11233,14 +11364,14 @@
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12">
         <v>65</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -11267,14 +11398,14 @@
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12">
         <v>35</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -11301,7 +11432,7 @@
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12">
@@ -11333,7 +11464,7 @@
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -11363,7 +11494,7 @@
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -11393,7 +11524,7 @@
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>518</v>
@@ -11424,14 +11555,14 @@
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12">
         <v>0.3</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -11458,7 +11589,7 @@
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -11488,7 +11619,7 @@
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>518</v>
@@ -11524,7 +11655,7 @@
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>518</v>
@@ -11560,7 +11691,7 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -11590,7 +11721,7 @@
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -11620,7 +11751,7 @@
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -11650,7 +11781,7 @@
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12">
@@ -11684,10 +11815,10 @@
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -11716,7 +11847,7 @@
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -11745,7 +11876,7 @@
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>518</v>
@@ -11781,7 +11912,7 @@
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -11811,7 +11942,7 @@
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -11841,7 +11972,7 @@
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -11871,7 +12002,7 @@
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>518</v>
@@ -11903,7 +12034,7 @@
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -11933,7 +12064,7 @@
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -11963,10 +12094,10 @@
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -11994,7 +12125,7 @@
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12">
@@ -12026,14 +12157,14 @@
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12">
         <v>0.35</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
@@ -12060,12 +12191,12 @@
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
@@ -12092,7 +12223,7 @@
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12">
@@ -12126,7 +12257,7 @@
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -12190,7 +12321,7 @@
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -12220,10 +12351,10 @@
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -12252,7 +12383,7 @@
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -12282,7 +12413,7 @@
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -12314,14 +12445,14 @@
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12">
         <v>0.35</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -12348,7 +12479,7 @@
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -12380,14 +12511,14 @@
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -12444,12 +12575,12 @@
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
@@ -12915,13 +13046,21 @@
     </row>
     <row r="126" spans="1:106" x14ac:dyDescent="0.2">
       <c r="G126" t="s">
-        <v>600</v>
+        <v>820</v>
       </c>
     </row>
     <row r="127" spans="1:106" x14ac:dyDescent="0.2">
       <c r="G127" s="11" t="s">
-        <v>601</v>
-      </c>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G129" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G130" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12933,7 +13072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147960EB-C167-4B88-B4B7-E61940B40B35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -13058,7 +13197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C0D4FA-4A0D-4093-BFB0-AC151F092109}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -13278,7 +13417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8476683D-85C3-4E8A-9BF1-6D7047D6B4EA}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -13301,7 +13440,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C2" t="s">
         <v>425</v>
@@ -13309,91 +13448,91 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C6" t="s">
         <v>786</v>
-      </c>
-      <c r="C6" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" t="s">
         <v>788</v>
-      </c>
-      <c r="C7" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C9" t="s">
         <v>791</v>
-      </c>
-      <c r="C9" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C10" t="s">
         <v>793</v>
-      </c>
-      <c r="C10" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C11" t="s">
         <v>795</v>
-      </c>
-      <c r="C11" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C12" t="s">
         <v>797</v>
-      </c>
-      <c r="C12" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C13" t="s">
         <v>799</v>
-      </c>
-      <c r="C13" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C14" t="s">
         <v>801</v>
-      </c>
-      <c r="C14" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/biopharma.xlsx
+++ b/biopharma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F848E84-30C3-447D-8745-547A7B64A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7049284E-DC54-44B9-B0A8-184BE5D64512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="645" windowWidth="22200" windowHeight="14205" activeTab="5" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
+    <workbookView xWindow="2985" yWindow="1275" windowWidth="22200" windowHeight="14205" activeTab="5" xr2:uid="{3429F372-D7C1-4064-99DD-3C34B787F131}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="829">
   <si>
     <t>Name</t>
   </si>
@@ -1860,9 +1860,6 @@
     <t xml:space="preserve">WHO Choice-Rule: max 3x GDP intervention QALY </t>
   </si>
   <si>
-    <t>Keytruda ~3mo PFS over chemo alone should be ~160k/year which aligns with current pricing</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -2520,10 +2517,34 @@
     <t>Zepbound</t>
   </si>
   <si>
-    <t>USA HHS VSLY 500k</t>
-  </si>
-  <si>
     <t>https://aspe.hhs.gov/sites/default/files/documents/cd2a1348ea0777b1aa918089e4965b8c/standard-ria-values.pdf</t>
+  </si>
+  <si>
+    <t>USA HHS VSLY 500-600k in 2023</t>
+  </si>
+  <si>
+    <t>Keytruda ~3mo PFS over control should be ~160k/year which aligns directionally with current pricing of 200k/year. Including the OS benefit of 20% at 5yr vs 11% in control in NSCLC and median OS being a 6 month improvement this premium seems accounted for in the 200k/year. further analysis needs to be done for specific but generally this seems to be how its priced</t>
+  </si>
+  <si>
+    <t>OS Improvement (mo)</t>
+  </si>
+  <si>
+    <t>PFS Improvement (mo)</t>
+  </si>
+  <si>
+    <t>VSLY per year</t>
+  </si>
+  <si>
+    <t>average survival improvement (mo) in endpoints</t>
+  </si>
+  <si>
+    <t>Treatment cost/year calculated</t>
+  </si>
+  <si>
+    <t>Treat cost/year actual</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2616,6 +2637,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3786,7 +3808,7 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,B113)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F1048576)</f>
@@ -5658,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L113" s="3"/>
     </row>
@@ -5748,10 +5770,10 @@
         <v>116</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D119" t="s">
         <v>676</v>
-      </c>
-      <c r="D119" t="s">
-        <v>677</v>
       </c>
       <c r="E119">
         <v>5.35</v>
@@ -5910,17 +5932,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -5982,13 +6004,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -6021,22 +6043,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C7" s="2">
         <v>8200</v>
@@ -6044,7 +6066,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C8" s="2">
         <v>14600</v>
@@ -6054,10 +6076,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C9" s="2">
         <v>14500</v>
@@ -6069,55 +6091,55 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -6151,40 +6173,40 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D3" t="s">
         <v>807</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>808</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>809</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>814</v>
+      </c>
+      <c r="H3" t="s">
+        <v>815</v>
+      </c>
+      <c r="I3" t="s">
+        <v>816</v>
+      </c>
+      <c r="J3" t="s">
+        <v>817</v>
+      </c>
+      <c r="M3" t="s">
         <v>810</v>
       </c>
-      <c r="G3" t="s">
-        <v>815</v>
-      </c>
-      <c r="H3" t="s">
-        <v>816</v>
-      </c>
-      <c r="I3" t="s">
-        <v>817</v>
-      </c>
-      <c r="J3" t="s">
-        <v>818</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>811</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>812</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>813</v>
-      </c>
-      <c r="P3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6199,7 +6221,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -6281,10 +6303,10 @@
         <v>459</v>
       </c>
       <c r="N2" t="s">
+        <v>600</v>
+      </c>
+      <c r="O2" t="s">
         <v>601</v>
-      </c>
-      <c r="O2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -7893,7 +7915,7 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -7916,7 +7938,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -7939,7 +7961,7 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -7962,7 +7984,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -7985,7 +8007,7 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -8008,7 +8030,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -8031,7 +8053,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -8054,7 +8076,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -8115,29 +8137,29 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C71" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C72" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F72" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L72" t="s">
         <v>451</v>
@@ -8145,248 +8167,248 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C73" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C74" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C75" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C77" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C78" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C79" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C82" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C84" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C87" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C89" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C90" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C91" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C92" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C93" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C94" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C95" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C96" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C97" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C99" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C100" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C101" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
+        <v>611</v>
+      </c>
+      <c r="C102" t="s">
+        <v>611</v>
+      </c>
+      <c r="I102" t="s">
         <v>612</v>
       </c>
-      <c r="C102" t="s">
-        <v>612</v>
-      </c>
-      <c r="I102" t="s">
-        <v>613</v>
-      </c>
       <c r="L102" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N102" s="12">
         <v>1955</v>
@@ -8394,18 +8416,18 @@
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C103" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C104" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
@@ -8418,215 +8440,215 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C106" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C107" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C108" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C110" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C111" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C112" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C113" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C114" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C115" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C116" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C117" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C119" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C120" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C121" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C122" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C123" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C124" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C125" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C127" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C128" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C130" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C131" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -8639,13 +8661,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC8C1E-B59B-40F8-80DC-62A32A02DE98}">
-  <dimension ref="A1:DB130"/>
+  <dimension ref="A1:DB137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G131" sqref="G131"/>
+      <selection pane="bottomRight" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8753,10 +8775,10 @@
         <v>483</v>
       </c>
       <c r="V2" t="s">
+        <v>777</v>
+      </c>
+      <c r="W2" t="s">
         <v>778</v>
-      </c>
-      <c r="W2" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -8803,7 +8825,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C4" s="13">
         <v>25100</v>
@@ -9664,7 +9686,7 @@
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
@@ -9717,7 +9739,7 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12">
@@ -9746,7 +9768,7 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="V26" s="12"/>
       <c r="X26" s="12"/>
@@ -9881,10 +9903,10 @@
         <v>532</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -10373,7 +10395,7 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>518</v>
@@ -10405,7 +10427,7 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>518</v>
@@ -10441,10 +10463,10 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -10473,7 +10495,7 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>518</v>
@@ -10507,7 +10529,7 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>518</v>
@@ -10543,7 +10565,7 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
@@ -10577,7 +10599,7 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>518</v>
@@ -10613,7 +10635,7 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12">
@@ -10647,7 +10669,7 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>518</v>
@@ -10679,10 +10701,10 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -10711,7 +10733,7 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12">
@@ -10743,10 +10765,10 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -10775,7 +10797,7 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>518</v>
@@ -10809,7 +10831,7 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C55" s="12"/>
       <c r="E55" s="12"/>
@@ -10838,14 +10860,14 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12">
         <v>0.1</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -10872,10 +10894,10 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -10904,7 +10926,7 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>518</v>
@@ -10940,7 +10962,7 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -10970,7 +10992,7 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -11000,7 +11022,7 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12">
@@ -11013,7 +11035,7 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
@@ -11034,7 +11056,7 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C62" s="12"/>
       <c r="F62" s="12"/>
@@ -11062,7 +11084,7 @@
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12">
@@ -11096,7 +11118,7 @@
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>518</v>
@@ -11132,7 +11154,7 @@
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -11162,7 +11184,7 @@
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12" t="s">
@@ -11194,7 +11216,7 @@
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12">
@@ -11228,7 +11250,7 @@
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12">
@@ -11260,16 +11282,16 @@
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D69" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -11296,10 +11318,10 @@
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D70" s="12">
         <v>0.05</v>
@@ -11332,10 +11354,10 @@
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -11364,14 +11386,14 @@
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12">
         <v>65</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -11398,14 +11420,14 @@
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12">
         <v>35</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -11432,7 +11454,7 @@
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12">
@@ -11464,7 +11486,7 @@
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -11494,7 +11516,7 @@
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -11524,7 +11546,7 @@
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>518</v>
@@ -11555,14 +11577,14 @@
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12">
         <v>0.3</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -11589,7 +11611,7 @@
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -11619,7 +11641,7 @@
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>518</v>
@@ -11655,7 +11677,7 @@
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>518</v>
@@ -11691,7 +11713,7 @@
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -11721,7 +11743,7 @@
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -11751,7 +11773,7 @@
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -11781,7 +11803,7 @@
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12">
@@ -11815,10 +11837,10 @@
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -11847,7 +11869,7 @@
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -11876,7 +11898,7 @@
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>518</v>
@@ -11912,7 +11934,7 @@
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -11942,7 +11964,7 @@
     </row>
     <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -11972,7 +11994,7 @@
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -12002,7 +12024,7 @@
     </row>
     <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>518</v>
@@ -12034,7 +12056,7 @@
     </row>
     <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -12064,7 +12086,7 @@
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -12094,10 +12116,10 @@
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -12125,7 +12147,7 @@
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12">
@@ -12157,14 +12179,14 @@
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12">
         <v>0.35</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
@@ -12191,12 +12213,12 @@
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
@@ -12223,7 +12245,7 @@
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12">
@@ -12257,7 +12279,7 @@
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -12321,7 +12343,7 @@
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -12351,10 +12373,10 @@
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -12383,7 +12405,7 @@
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -12413,7 +12435,7 @@
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -12445,14 +12467,14 @@
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12">
         <v>0.35</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
@@ -12479,7 +12501,7 @@
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -12511,14 +12533,14 @@
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -12575,12 +12597,12 @@
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
@@ -13051,24 +13073,85 @@
     </row>
     <row r="127" spans="1:106" x14ac:dyDescent="0.2">
       <c r="G127" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="128" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <f>600</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G129" s="4" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G130" s="3"/>
+      <c r="H129" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G130" s="4">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G131" s="4">
+        <v>6</v>
+      </c>
+      <c r="H131" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G132" s="4">
+        <f>AVERAGE(G130:G131)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <f>G129/(12/G132)</f>
+        <v>225</v>
+      </c>
+      <c r="H133" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G134" s="2">
+        <v>200</v>
+      </c>
+      <c r="H134" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G135" s="3">
+        <f>1-(G133-G134)/G134</f>
+        <v>0.875</v>
+      </c>
+      <c r="H135" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G137" s="20" t="s">
+        <v>819</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B1C32F4A-26DB-4731-A542-EEE3F60BB487}"/>
     <hyperlink ref="V29" r:id="rId1" xr:uid="{E2DDDA48-5324-4A9C-AA98-A54A0D821563}"/>
+    <hyperlink ref="G137" r:id="rId2" xr:uid="{2E074923-2290-4D4E-9FFF-69ACC566C707}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13440,7 +13523,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C2" t="s">
         <v>425</v>
@@ -13448,91 +13531,91 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C6" t="s">
         <v>785</v>
-      </c>
-      <c r="C6" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C7" t="s">
         <v>787</v>
-      </c>
-      <c r="C7" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" t="s">
         <v>790</v>
-      </c>
-      <c r="C9" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C10" t="s">
         <v>792</v>
-      </c>
-      <c r="C10" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C11" t="s">
         <v>794</v>
-      </c>
-      <c r="C11" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C12" t="s">
         <v>796</v>
-      </c>
-      <c r="C12" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" t="s">
         <v>798</v>
-      </c>
-      <c r="C13" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C14" t="s">
         <v>800</v>
-      </c>
-      <c r="C14" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
